--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_nig.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_nig.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\auxiliary\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B956FF9-EDFB-485B-BAF0-87AE48A6931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView firstSheet="6" activeTab="6"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="popg0" sheetId="1" r:id="rId1"/>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="123">
   <si>
     <t>male</t>
   </si>
@@ -394,361 +400,25 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -756,255 +426,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,61 +440,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1324,21 +708,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1351,10 +733,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.5590854</v>
+        <v>3.5590854000000003</v>
       </c>
       <c r="C2">
-        <v>3.38967956</v>
+        <v>3.3896795600000007</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1362,10 +744,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.4754932</v>
+        <v>3.4754932000000003</v>
       </c>
       <c r="C3">
-        <v>3.3122658</v>
+        <v>3.3122658000000005</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1373,10 +755,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.391901</v>
+        <v>3.3919010000000003</v>
       </c>
       <c r="C4">
-        <v>3.23485204</v>
+        <v>3.2348520400000003</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1384,10 +766,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.3083088</v>
+        <v>3.3083088000000007</v>
       </c>
       <c r="C5">
-        <v>3.15743828</v>
+        <v>3.1574382800000005</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1395,10 +777,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.2247166</v>
+        <v>3.2247166000000003</v>
       </c>
       <c r="C6">
-        <v>3.08002452</v>
+        <v>3.0800245200000003</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1406,10 +788,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.1411244</v>
+        <v>3.1411243999999998</v>
       </c>
       <c r="C7">
-        <v>3.00261076</v>
+        <v>3.0026107600000005</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1417,10 +799,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3.0575322</v>
+        <v>3.0575322000000003</v>
       </c>
       <c r="C8">
-        <v>2.925197</v>
+        <v>2.9251970000000003</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1428,10 +810,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.97239996</v>
+        <v>2.9723999600000002</v>
       </c>
       <c r="C9">
-        <v>2.84549312</v>
+        <v>2.8454931200000004</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1439,10 +821,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.88726772</v>
+        <v>2.8872677200000001</v>
       </c>
       <c r="C10">
-        <v>2.76578924</v>
+        <v>2.7657892400000001</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1453,7 +835,7 @@
         <v>2.80213548</v>
       </c>
       <c r="C11">
-        <v>2.68608536</v>
+        <v>2.6860853600000003</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1461,7 +843,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.71700324</v>
+        <v>2.7170032399999999</v>
       </c>
       <c r="C12">
         <v>2.60638148</v>
@@ -1472,10 +854,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.631871</v>
+        <v>2.6318709999999998</v>
       </c>
       <c r="C13">
-        <v>2.5266776</v>
+        <v>2.5266776000000002</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1483,10 +865,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.55155612</v>
+        <v>2.5515561200000003</v>
       </c>
       <c r="C14">
-        <v>2.45170064</v>
+        <v>2.4517006400000003</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1494,10 +876,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.47124124</v>
+        <v>2.4712412400000003</v>
       </c>
       <c r="C15">
-        <v>2.37672368</v>
+        <v>2.3767236800000004</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1505,10 +887,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.39092636</v>
+        <v>2.3909263599999999</v>
       </c>
       <c r="C16">
-        <v>2.30174672</v>
+        <v>2.3017467200000001</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1516,10 +898,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.31061148</v>
+        <v>2.3106114799999999</v>
       </c>
       <c r="C17">
-        <v>2.22676976</v>
+        <v>2.2267697600000003</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1530,7 +912,7 @@
         <v>2.2302966</v>
       </c>
       <c r="C18">
-        <v>2.1517928</v>
+        <v>2.1517927999999999</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1538,10 +920,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.15104852</v>
+        <v>2.1510485200000002</v>
       </c>
       <c r="C19">
-        <v>2.07736596</v>
+        <v>2.0773659599999998</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1549,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.07180044</v>
+        <v>2.0718004400000001</v>
       </c>
       <c r="C20">
-        <v>2.00293912</v>
+        <v>2.0029391199999997</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1560,10 +942,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.99255236</v>
+        <v>1.9925523600000001</v>
       </c>
       <c r="C21">
-        <v>1.92851228</v>
+        <v>1.9285122799999999</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1571,10 +953,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.91330428</v>
+        <v>1.9133042800000004</v>
       </c>
       <c r="C22">
-        <v>1.85408544</v>
+        <v>1.8540854400000002</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1582,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.8340562</v>
+        <v>1.8340562000000002</v>
       </c>
       <c r="C23">
-        <v>1.7796586</v>
+        <v>1.7796586000000001</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1593,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.77366936</v>
+        <v>1.7736693600000004</v>
       </c>
       <c r="C24">
-        <v>1.72165628</v>
+        <v>1.7216562800000001</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1604,7 +986,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.71328252</v>
+        <v>1.7132825199999999</v>
       </c>
       <c r="C25">
         <v>1.66365396</v>
@@ -1615,7 +997,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.65289568</v>
+        <v>1.6528956800000001</v>
       </c>
       <c r="C26">
         <v>1.60565164</v>
@@ -1629,7 +1011,7 @@
         <v>1.59250884</v>
       </c>
       <c r="C27">
-        <v>1.54764932</v>
+        <v>1.5476493199999999</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1640,7 +1022,7 @@
         <v>1.532122</v>
       </c>
       <c r="C28">
-        <v>1.489647</v>
+        <v>1.4896469999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1651,7 +1033,7 @@
         <v>1.49025648</v>
       </c>
       <c r="C29">
-        <v>1.4489392</v>
+        <v>1.4489392000000001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1684,7 +1066,7 @@
         <v>1.36465992</v>
       </c>
       <c r="C32">
-        <v>1.3268158</v>
+        <v>1.3268158000000001</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1703,10 +1085,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.28804964</v>
+        <v>1.2880496400000001</v>
       </c>
       <c r="C34">
-        <v>1.2520138</v>
+        <v>1.2520138000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1714,10 +1096,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.25330488</v>
+        <v>1.2533048800000002</v>
       </c>
       <c r="C35">
-        <v>1.2179196</v>
+        <v>1.2179196000000001</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1728,7 +1110,7 @@
         <v>1.21856012</v>
       </c>
       <c r="C36">
-        <v>1.1838254</v>
+        <v>1.1838254000000001</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1736,7 +1118,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.18381536</v>
+        <v>1.1838153600000001</v>
       </c>
       <c r="C37">
         <v>1.1497312</v>
@@ -1747,10 +1129,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.1490706</v>
+        <v>1.1490706000000002</v>
       </c>
       <c r="C38">
-        <v>1.115637</v>
+        <v>1.1156370000000002</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1758,7 +1140,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.11068712</v>
+        <v>1.1106871199999999</v>
       </c>
       <c r="C39">
         <v>1.07942468</v>
@@ -1769,10 +1151,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.07230364</v>
+        <v>1.0723036399999999</v>
       </c>
       <c r="C40">
-        <v>1.04321236</v>
+        <v>1.0432123600000001</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1780,10 +1162,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.03392016</v>
+        <v>1.0339201600000001</v>
       </c>
       <c r="C41">
-        <v>1.00700004</v>
+        <v>1.0070000400000001</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1791,10 +1173,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.99553668</v>
+        <v>0.99553668000000006</v>
       </c>
       <c r="C42">
-        <v>0.97078772</v>
+        <v>0.97078772000000013</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1802,10 +1184,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.9571532</v>
+        <v>0.95715319999999993</v>
       </c>
       <c r="C43">
-        <v>0.9345754</v>
+        <v>0.93457540000000017</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1813,10 +1195,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.91801928</v>
+        <v>0.91801927999999988</v>
       </c>
       <c r="C44">
-        <v>0.89851632</v>
+        <v>0.89851632000000015</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1824,10 +1206,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.87888536</v>
+        <v>0.87888536000000006</v>
       </c>
       <c r="C45">
-        <v>0.86245724</v>
+        <v>0.86245724000000012</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1835,10 +1217,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.83975144</v>
+        <v>0.83975144000000002</v>
       </c>
       <c r="C46">
-        <v>0.82639816</v>
+        <v>0.8263981600000001</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1846,10 +1228,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.80061752</v>
+        <v>0.80061751999999997</v>
       </c>
       <c r="C47">
-        <v>0.79033908</v>
+        <v>0.79033908000000008</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1857,10 +1239,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.7614836</v>
+        <v>0.76148360000000004</v>
       </c>
       <c r="C48">
-        <v>0.75428</v>
+        <v>0.75428000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1868,10 +1250,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.72710284</v>
+        <v>0.72710284000000003</v>
       </c>
       <c r="C49">
-        <v>0.7232468</v>
+        <v>0.72324679999999997</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1879,10 +1261,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.69272208</v>
+        <v>0.69272208000000002</v>
       </c>
       <c r="C50">
-        <v>0.6922136</v>
+        <v>0.6922136000000001</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1890,7 +1272,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.65834132</v>
+        <v>0.65834132000000001</v>
       </c>
       <c r="C51">
         <v>0.6611804</v>
@@ -1904,7 +1286,7 @@
         <v>0.62396056</v>
       </c>
       <c r="C52">
-        <v>0.6301472</v>
+        <v>0.63014720000000002</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1912,10 +1294,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.5895798</v>
+        <v>0.58957979999999999</v>
       </c>
       <c r="C53">
-        <v>0.599114</v>
+        <v>0.59911400000000004</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1923,10 +1305,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.56487856</v>
+        <v>0.56487856000000003</v>
       </c>
       <c r="C54">
-        <v>0.57634456</v>
+        <v>0.57634456000000001</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1934,10 +1316,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.54017732</v>
+        <v>0.54017731999999996</v>
       </c>
       <c r="C55">
-        <v>0.55357512</v>
+        <v>0.55357511999999998</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1948,7 +1330,7 @@
         <v>0.51547608</v>
       </c>
       <c r="C56">
-        <v>0.53080568</v>
+        <v>0.53080568000000006</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1956,10 +1338,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.49077484</v>
+        <v>0.49077483999999999</v>
       </c>
       <c r="C57">
-        <v>0.50803624</v>
+        <v>0.50803624000000003</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1967,7 +1349,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.4660736</v>
+        <v>0.46607360000000003</v>
       </c>
       <c r="C58">
         <v>0.4852668</v>
@@ -1981,7 +1363,7 @@
         <v>0.44344032</v>
       </c>
       <c r="C59">
-        <v>0.46389692</v>
+        <v>0.46389691999999999</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1989,10 +1371,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.42080704</v>
+        <v>0.42080703999999997</v>
       </c>
       <c r="C60">
-        <v>0.44252704</v>
+        <v>0.44252703999999998</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2000,10 +1382,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.39817376</v>
+        <v>0.39817375999999999</v>
       </c>
       <c r="C61">
-        <v>0.42115716</v>
+        <v>0.42115715999999997</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -2011,10 +1393,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.37554048</v>
+        <v>0.37554048000000007</v>
       </c>
       <c r="C62">
-        <v>0.39978728</v>
+        <v>0.39978728000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -2022,10 +1404,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.3529072</v>
+        <v>0.35290720000000003</v>
       </c>
       <c r="C63">
-        <v>0.3784174</v>
+        <v>0.37841740000000001</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -2033,7 +1415,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.3316238</v>
+        <v>0.33162380000000002</v>
       </c>
       <c r="C64">
         <v>0.357512</v>
@@ -2044,10 +1426,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.3103404</v>
+        <v>0.31034040000000002</v>
       </c>
       <c r="C65">
-        <v>0.3366066</v>
+        <v>0.33660659999999998</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -2055,10 +1437,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.289057</v>
+        <v>0.28905700000000001</v>
       </c>
       <c r="C66">
-        <v>0.3157012</v>
+        <v>0.31570119999999996</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -2077,10 +1459,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.2464902</v>
+        <v>0.24649020000000002</v>
       </c>
       <c r="C68">
-        <v>0.2738904</v>
+        <v>0.27389040000000003</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -2088,7 +1470,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.22984512</v>
+        <v>0.22984512000000001</v>
       </c>
       <c r="C69">
         <v>0.25513584</v>
@@ -2099,10 +1481,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.21320004</v>
+        <v>0.21320004000000001</v>
       </c>
       <c r="C70">
-        <v>0.23638128</v>
+        <v>0.23638127999999997</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -2121,10 +1503,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.17990988</v>
+        <v>0.17990987999999999</v>
       </c>
       <c r="C72">
-        <v>0.19887216</v>
+        <v>0.19887215999999999</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -2132,10 +1514,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.1632648</v>
+        <v>0.16326479999999999</v>
       </c>
       <c r="C73">
-        <v>0.1801176</v>
+        <v>0.18011759999999999</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2143,10 +1525,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.14766916</v>
+        <v>0.14766915999999999</v>
       </c>
       <c r="C74">
-        <v>0.1633084</v>
+        <v>0.16330839999999999</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -2165,7 +1547,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.11647788</v>
+        <v>0.11647787999999999</v>
       </c>
       <c r="C76">
         <v>0.12969</v>
@@ -2187,10 +1569,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.0852866</v>
+        <v>8.5286600000000004E-2</v>
       </c>
       <c r="C78">
-        <v>0.0960716</v>
+        <v>9.6071600000000007E-2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2198,10 +1580,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.07438924</v>
+        <v>7.4389239999999995E-2</v>
       </c>
       <c r="C79">
-        <v>0.08403124</v>
+        <v>8.4031240000000007E-2</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2209,10 +1591,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.06349188</v>
+        <v>6.3491880000000001E-2</v>
       </c>
       <c r="C80">
-        <v>0.07199088</v>
+        <v>7.1990879999999993E-2</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2220,10 +1602,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.05259452</v>
+        <v>5.2594520000000006E-2</v>
       </c>
       <c r="C81">
-        <v>0.05995052</v>
+        <v>5.995052E-2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2231,10 +1613,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.04169716</v>
+        <v>4.1697160000000004E-2</v>
       </c>
       <c r="C82">
-        <v>0.04791016</v>
+        <v>4.791016E-2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2242,10 +1624,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.0307998</v>
+        <v>3.0799800000000002E-2</v>
       </c>
       <c r="C83">
-        <v>0.0358698</v>
+        <v>3.58698E-2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2253,10 +1635,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.02600256</v>
+        <v>2.6002560000000001E-2</v>
       </c>
       <c r="C84">
-        <v>0.03035064</v>
+        <v>3.0350640000000002E-2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2264,10 +1646,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.02120532</v>
+        <v>2.120532E-2</v>
       </c>
       <c r="C85">
-        <v>0.02483148</v>
+        <v>2.483148E-2</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2275,10 +1657,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.01640808</v>
+        <v>1.6408079999999998E-2</v>
       </c>
       <c r="C86">
-        <v>0.01931232</v>
+        <v>1.9312319999999997E-2</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2286,10 +1668,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.01161084</v>
+        <v>1.1610839999999999E-2</v>
       </c>
       <c r="C87">
-        <v>0.01379316</v>
+        <v>1.379316E-2</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2297,10 +1679,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.0068136</v>
+        <v>6.8135999999999995E-3</v>
       </c>
       <c r="C88">
-        <v>0.008274</v>
+        <v>8.2740000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2308,10 +1690,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.00560844</v>
+        <v>5.6084400000000001E-3</v>
       </c>
       <c r="C89">
-        <v>0.00682848</v>
+        <v>6.8284799999999996E-3</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2319,10 +1701,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.00440328</v>
+        <v>4.4032799999999999E-3</v>
       </c>
       <c r="C90">
-        <v>0.00538296</v>
+        <v>5.38296E-3</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2330,10 +1712,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.00319812</v>
+        <v>3.1981199999999996E-3</v>
       </c>
       <c r="C91">
-        <v>0.00393744</v>
+        <v>3.9374399999999986E-3</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2341,10 +1723,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.00199296</v>
+        <v>1.9929599999999994E-3</v>
       </c>
       <c r="C92">
-        <v>0.00249192</v>
+        <v>2.4919199999999999E-3</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2352,10 +1734,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.0007878</v>
+        <v>7.8780000000000007E-4</v>
       </c>
       <c r="C93">
-        <v>0.0010464</v>
+        <v>1.0464000000000001E-3</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2363,10 +1745,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.00063996</v>
+        <v>6.3995999999999996E-4</v>
       </c>
       <c r="C94">
-        <v>0.00085296</v>
+        <v>8.5296000000000005E-4</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2374,10 +1756,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.00049212</v>
+        <v>4.9211999999999997E-4</v>
       </c>
       <c r="C95">
-        <v>0.00065952</v>
+        <v>6.5952000000000003E-4</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2385,10 +1767,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.00034428</v>
+        <v>3.4427999999999992E-4</v>
       </c>
       <c r="C96">
-        <v>0.00046608</v>
+        <v>4.6607999999999996E-4</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2396,10 +1778,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.00019644</v>
+        <v>1.9643999999999996E-4</v>
       </c>
       <c r="C97">
-        <v>0.00027264</v>
+        <v>2.7263999999999999E-4</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2407,10 +1789,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>4.86e-5</v>
+        <v>4.8600000000000002E-5</v>
       </c>
       <c r="C98">
-        <v>7.92e-5</v>
+        <v>7.9200000000000014E-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2418,10 +1800,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>3.936e-5</v>
+        <v>3.9360000000000003E-5</v>
       </c>
       <c r="C99">
-        <v>6.408e-5</v>
+        <v>6.408000000000001E-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2429,10 +1811,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.012e-5</v>
+        <v>3.0120000000000003E-5</v>
       </c>
       <c r="C100">
-        <v>4.896e-5</v>
+        <v>4.8960000000000006E-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2440,30 +1822,26 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.088e-5</v>
+        <v>2.088E-5</v>
       </c>
       <c r="C101">
-        <v>3.384e-5</v>
+        <v>3.3840000000000001E-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -2473,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.0979</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2481,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0979</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2489,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0979</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2497,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.0979</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2505,7 +1883,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.0979</v>
+        <v>9.7900000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2553,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.2287</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2561,7 +1939,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.2287</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2569,7 +1947,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.2287</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2577,7 +1955,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.2287</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2585,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>0.2287</v>
+        <v>0.22869999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2593,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2601,7 +1979,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2609,7 +1987,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2617,7 +1995,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2625,7 +2003,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.2002</v>
+        <v>0.20019999999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2633,7 +2011,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0.1672</v>
+        <v>0.16719999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2641,7 +2019,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.1672</v>
+        <v>0.16719999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2649,7 +2027,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.1672</v>
+        <v>0.16719999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2657,7 +2035,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0.1672</v>
+        <v>0.16719999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2665,7 +2043,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.1672</v>
+        <v>0.16719999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2673,7 +2051,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2681,7 +2059,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2689,7 +2067,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2697,7 +2075,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2705,7 +2083,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>0.076</v>
+        <v>7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2713,7 +2091,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2721,7 +2099,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2729,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2737,7 +2115,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2745,27 +2123,23 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>0.0285</v>
+        <v>2.8500000000000001E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:2">
+    <row r="1" spans="1:2">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2775,7 +2149,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2783,7 +2157,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2791,7 +2165,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2799,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2807,7 +2181,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>0.0123034016601603</v>
+        <v>1.2303401660160302E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2815,7 +2189,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2823,7 +2197,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2831,7 +2205,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2839,7 +2213,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2847,7 +2221,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>0.0455932105911354</v>
+        <v>4.5593210591135407E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2855,7 +2229,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2863,7 +2237,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2871,7 +2245,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2879,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2887,7 +2261,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>0.0879539333517565</v>
+        <v>8.7953933351756511E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2895,7 +2269,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2903,7 +2277,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2911,7 +2285,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2919,7 +2293,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2927,7 +2301,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.107318717911465</v>
+        <v>0.10731871791146501</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2935,7 +2309,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2943,7 +2317,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2951,7 +2325,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2959,7 +2333,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2967,7 +2341,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.0646720968737279</v>
+        <v>6.4672096873727894E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2975,7 +2349,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2983,7 +2357,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2991,7 +2365,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2999,7 +2373,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -3007,7 +2381,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>0.0154047684335841</v>
+        <v>1.5404768433584102E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -3015,7 +2389,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -3023,7 +2397,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -3031,7 +2405,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -3039,7 +2413,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -3047,27 +2421,23 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>0.00143004733583908</v>
+        <v>1.4300473358390799E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:5">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -3086,16 +2456,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.9410837</v>
+        <v>0.94108370000000008</v>
       </c>
       <c r="C2">
-        <v>0.9496506</v>
+        <v>0.94965060000000001</v>
       </c>
       <c r="D2">
-        <v>0.995584662776319</v>
+        <v>0.99558466277631907</v>
       </c>
       <c r="E2">
-        <v>0.996230063930079</v>
+        <v>0.99623006393007918</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -3103,16 +2473,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.990289659003966</v>
+        <v>0.99028965900396593</v>
       </c>
       <c r="C3">
-        <v>0.990716822968597</v>
+        <v>0.9907168229685972</v>
       </c>
       <c r="D3">
-        <v>0.999738102818496</v>
+        <v>0.99973810281849629</v>
       </c>
       <c r="E3">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505593</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -3120,16 +2490,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.990289659003966</v>
+        <v>0.99028965900396582</v>
       </c>
       <c r="C4">
-        <v>0.990716822968597</v>
+        <v>0.99071682296859731</v>
       </c>
       <c r="D4">
-        <v>0.999738102818496</v>
+        <v>0.9997381028184964</v>
       </c>
       <c r="E4">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505582</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -3137,16 +2507,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.990289659003966</v>
+        <v>0.99028965900396582</v>
       </c>
       <c r="C5">
-        <v>0.990716822968597</v>
+        <v>0.99071682296859731</v>
       </c>
       <c r="D5">
-        <v>0.999738102818496</v>
+        <v>0.9997381028184964</v>
       </c>
       <c r="E5">
-        <v>0.999774353315056</v>
+        <v>0.99977435331505604</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -3154,16 +2524,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.994452500988717</v>
+        <v>0.99445250098871718</v>
       </c>
       <c r="C6">
-        <v>0.997001450181532</v>
+        <v>0.99700145018153197</v>
       </c>
       <c r="D6">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E6">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354421</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -3171,16 +2541,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.994452500988717</v>
+        <v>0.99445250098871729</v>
       </c>
       <c r="C7">
-        <v>0.997001450181532</v>
+        <v>0.99700145018153208</v>
       </c>
       <c r="D7">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E7">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354421</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -3188,16 +2558,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.994452500988717</v>
+        <v>0.99445250098871718</v>
       </c>
       <c r="C8">
-        <v>0.997001450181532</v>
+        <v>0.99700145018153197</v>
       </c>
       <c r="D8">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162849</v>
       </c>
       <c r="E8">
-        <v>0.999895583163544</v>
+        <v>0.9998955831635441</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3205,16 +2575,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.994452500988717</v>
+        <v>0.99445250098871718</v>
       </c>
       <c r="C9">
-        <v>0.997001450181532</v>
+        <v>0.99700145018153197</v>
       </c>
       <c r="D9">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162826</v>
       </c>
       <c r="E9">
-        <v>0.999895583163544</v>
+        <v>0.9998955831635441</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3222,16 +2592,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.994452500988717</v>
+        <v>0.99445250098871729</v>
       </c>
       <c r="C10">
-        <v>0.997001450181532</v>
+        <v>0.99700145018153208</v>
       </c>
       <c r="D10">
-        <v>0.999879796291628</v>
+        <v>0.99987979629162838</v>
       </c>
       <c r="E10">
-        <v>0.999895583163544</v>
+        <v>0.99989558316354432</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3239,16 +2609,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.996940871559106</v>
+        <v>0.99694087155910627</v>
       </c>
       <c r="C11">
-        <v>0.999756923347282</v>
+        <v>0.99975692334728194</v>
       </c>
       <c r="D11">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330836</v>
       </c>
       <c r="E11">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801644</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3256,16 +2626,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.996940871559106</v>
+        <v>0.99694087155910638</v>
       </c>
       <c r="C12">
-        <v>0.999756923347282</v>
+        <v>0.99975692334728183</v>
       </c>
       <c r="D12">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E12">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801644</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3273,16 +2643,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.996940871559106</v>
+        <v>0.99694087155910638</v>
       </c>
       <c r="C13">
-        <v>0.999756923347282</v>
+        <v>0.99975692334728206</v>
       </c>
       <c r="D13">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E13">
-        <v>0.999887524578017</v>
+        <v>0.99988752457801655</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3290,16 +2660,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.996940871559106</v>
+        <v>0.99694087155910638</v>
       </c>
       <c r="C14">
-        <v>0.999756923347282</v>
+        <v>0.99975692334728183</v>
       </c>
       <c r="D14">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330825</v>
       </c>
       <c r="E14">
-        <v>0.999887524578016</v>
+        <v>0.99988752457801622</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3307,16 +2677,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.996940871559106</v>
+        <v>0.99694087155910638</v>
       </c>
       <c r="C15">
-        <v>0.999756923347282</v>
+        <v>0.99975692334728194</v>
       </c>
       <c r="D15">
-        <v>0.999831112473308</v>
+        <v>0.99983111247330847</v>
       </c>
       <c r="E15">
-        <v>0.999887524578017</v>
+        <v>0.99988752457801655</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3324,16 +2694,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.995060098674598</v>
+        <v>0.99506009867459755</v>
       </c>
       <c r="C16">
-        <v>0.998389539535319</v>
+        <v>0.99838953953531917</v>
       </c>
       <c r="D16">
-        <v>0.999560418814419</v>
+        <v>0.99956041881441948</v>
       </c>
       <c r="E16">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3341,16 +2711,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.995060098674598</v>
+        <v>0.99506009867459766</v>
       </c>
       <c r="C17">
-        <v>0.998389539535319</v>
+        <v>0.99838953953531884</v>
       </c>
       <c r="D17">
-        <v>0.99956041881442</v>
+        <v>0.9995604188144197</v>
       </c>
       <c r="E17">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3358,16 +2728,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.995060098674598</v>
+        <v>0.99506009867459755</v>
       </c>
       <c r="C18">
-        <v>0.998389539535319</v>
+        <v>0.99838953953531906</v>
       </c>
       <c r="D18">
-        <v>0.99956041881442</v>
+        <v>0.99956041881441959</v>
       </c>
       <c r="E18">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475406</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3375,16 +2745,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.995060098674598</v>
+        <v>0.99506009867459755</v>
       </c>
       <c r="C19">
-        <v>0.998389539535319</v>
+        <v>0.99838953953531895</v>
       </c>
       <c r="D19">
-        <v>0.99956041881442</v>
+        <v>0.9995604188144197</v>
       </c>
       <c r="E19">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3392,16 +2762,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.995060098674598</v>
+        <v>0.99506009867459766</v>
       </c>
       <c r="C20">
-        <v>0.998389539535319</v>
+        <v>0.99838953953531906</v>
       </c>
       <c r="D20">
-        <v>0.999560418814419</v>
+        <v>0.99956041881441948</v>
       </c>
       <c r="E20">
-        <v>0.999806130134754</v>
+        <v>0.99980613013475417</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3409,16 +2779,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.994317967070595</v>
+        <v>0.99431796707059483</v>
       </c>
       <c r="C21">
-        <v>0.997582476060708</v>
+        <v>0.99758247606070849</v>
       </c>
       <c r="D21">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E21">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730977</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3426,16 +2796,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.994317967070595</v>
+        <v>0.99431796707059494</v>
       </c>
       <c r="C22">
-        <v>0.997582476060709</v>
+        <v>0.99758247606070871</v>
       </c>
       <c r="D22">
-        <v>0.999219403805382</v>
+        <v>0.9992194038053821</v>
       </c>
       <c r="E22">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730977</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3443,16 +2813,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.994317967070595</v>
+        <v>0.99431796707059494</v>
       </c>
       <c r="C23">
-        <v>0.997582476060708</v>
+        <v>0.99758247606070838</v>
       </c>
       <c r="D23">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E23">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730989</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3460,16 +2830,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.994317967070595</v>
+        <v>0.99431796707059494</v>
       </c>
       <c r="C24">
-        <v>0.997582476060708</v>
+        <v>0.99758247606070849</v>
       </c>
       <c r="D24">
-        <v>0.999219403805382</v>
+        <v>0.99921940380538199</v>
       </c>
       <c r="E24">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730966</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3477,16 +2847,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.994317967070595</v>
+        <v>0.99431796707059483</v>
       </c>
       <c r="C25">
-        <v>0.997582476060708</v>
+        <v>0.99758247606070849</v>
       </c>
       <c r="D25">
-        <v>0.999219403805382</v>
+        <v>0.9992194038053821</v>
       </c>
       <c r="E25">
-        <v>0.99970132343731</v>
+        <v>0.99970132343730989</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3494,16 +2864,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.993729271859828</v>
+        <v>0.99372927185982773</v>
       </c>
       <c r="C26">
-        <v>0.996875647854955</v>
+        <v>0.99687564785495508</v>
       </c>
       <c r="D26">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E26">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3511,16 +2881,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.993729271859828</v>
+        <v>0.99372927185982785</v>
       </c>
       <c r="C27">
-        <v>0.996875647854955</v>
+        <v>0.99687564785495486</v>
       </c>
       <c r="D27">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E27">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3528,16 +2898,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.993729271859828</v>
+        <v>0.99372927185982773</v>
       </c>
       <c r="C28">
-        <v>0.996875647854955</v>
+        <v>0.99687564785495486</v>
       </c>
       <c r="D28">
-        <v>0.999024102389682</v>
+        <v>0.99902410238968153</v>
       </c>
       <c r="E28">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470954</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3545,16 +2915,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.993729271859828</v>
+        <v>0.99372927185982785</v>
       </c>
       <c r="C29">
-        <v>0.996875647854955</v>
+        <v>0.99687564785495497</v>
       </c>
       <c r="D29">
-        <v>0.999024102389682</v>
+        <v>0.99902410238968153</v>
       </c>
       <c r="E29">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470977</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3562,16 +2932,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.993729271859828</v>
+        <v>0.99372927185982762</v>
       </c>
       <c r="C30">
-        <v>0.996875647854955</v>
+        <v>0.99687564785495486</v>
       </c>
       <c r="D30">
-        <v>0.999024102389681</v>
+        <v>0.99902410238968142</v>
       </c>
       <c r="E30">
-        <v>0.99959710625471</v>
+        <v>0.99959710625470966</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3579,16 +2949,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.993333015591537</v>
+        <v>0.99333301559153697</v>
       </c>
       <c r="C31">
-        <v>0.996491501783178</v>
+        <v>0.99649150178317836</v>
       </c>
       <c r="D31">
         <v>0.998907537315608</v>
       </c>
       <c r="E31">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3596,16 +2966,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.993333015591537</v>
+        <v>0.99333301559153675</v>
       </c>
       <c r="C32">
-        <v>0.996491501783178</v>
+        <v>0.99649150178317825</v>
       </c>
       <c r="D32">
-        <v>0.998907537315608</v>
+        <v>0.99890753731560789</v>
       </c>
       <c r="E32">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3613,16 +2983,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.993333015591537</v>
+        <v>0.99333301559153686</v>
       </c>
       <c r="C33">
-        <v>0.996491501783178</v>
+        <v>0.99649150178317814</v>
       </c>
       <c r="D33">
         <v>0.998907537315608</v>
       </c>
       <c r="E33">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3630,16 +3000,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.993333015591537</v>
+        <v>0.99333301559153675</v>
       </c>
       <c r="C34">
-        <v>0.996491501783178</v>
+        <v>0.99649150178317847</v>
       </c>
       <c r="D34">
         <v>0.998907537315608</v>
       </c>
       <c r="E34">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695288</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3647,16 +3017,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.993333015591537</v>
+        <v>0.99333301559153697</v>
       </c>
       <c r="C35">
-        <v>0.996491501783178</v>
+        <v>0.99649150178317836</v>
       </c>
       <c r="D35">
         <v>0.998907537315608</v>
       </c>
       <c r="E35">
-        <v>0.999470011106953</v>
+        <v>0.99947001110695277</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3664,16 +3034,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.99255436369741</v>
+        <v>0.99255436369741046</v>
       </c>
       <c r="C36">
-        <v>0.995952151071076</v>
+        <v>0.99595215107107593</v>
       </c>
       <c r="D36">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E36">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978259</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3681,16 +3051,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.99255436369741</v>
+        <v>0.99255436369741035</v>
       </c>
       <c r="C37">
-        <v>0.995952151071076</v>
+        <v>0.99595215107107571</v>
       </c>
       <c r="D37">
-        <v>0.998680360055872</v>
+        <v>0.99868036005587191</v>
       </c>
       <c r="E37">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3698,16 +3068,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.99255436369741</v>
+        <v>0.99255436369741035</v>
       </c>
       <c r="C38">
-        <v>0.995952151071076</v>
+        <v>0.99595215107107593</v>
       </c>
       <c r="D38">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E38">
-        <v>0.999279456839783</v>
+        <v>0.9992794568397827</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3715,16 +3085,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.99255436369741</v>
+        <v>0.99255436369741035</v>
       </c>
       <c r="C39">
-        <v>0.995952151071076</v>
+        <v>0.99595215107107582</v>
       </c>
       <c r="D39">
-        <v>0.998680360055872</v>
+        <v>0.9986803600558718</v>
       </c>
       <c r="E39">
-        <v>0.999279456839783</v>
+        <v>0.9992794568397827</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3732,16 +3102,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.99255436369741</v>
+        <v>0.99255436369741035</v>
       </c>
       <c r="C40">
-        <v>0.995952151071076</v>
+        <v>0.99595215107107571</v>
       </c>
       <c r="D40">
-        <v>0.998680360055872</v>
+        <v>0.99868036005587169</v>
       </c>
       <c r="E40">
-        <v>0.999279456839783</v>
+        <v>0.99927945683978281</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3749,16 +3119,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.990935337159246</v>
+        <v>0.99093533715924553</v>
       </c>
       <c r="C41">
-        <v>0.99572815794398</v>
+        <v>0.99572815794398029</v>
       </c>
       <c r="D41">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377749</v>
       </c>
       <c r="E41">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662436</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3766,16 +3136,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.990935337159246</v>
+        <v>0.99093533715924553</v>
       </c>
       <c r="C42">
-        <v>0.99572815794398</v>
+        <v>0.99572815794398017</v>
       </c>
       <c r="D42">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E42">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662436</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3783,16 +3153,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.990935337159246</v>
+        <v>0.99093533715924553</v>
       </c>
       <c r="C43">
-        <v>0.99572815794398</v>
+        <v>0.99572815794398029</v>
       </c>
       <c r="D43">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E43">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662425</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3800,16 +3170,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.990935337159245</v>
+        <v>0.99093533715924542</v>
       </c>
       <c r="C44">
-        <v>0.99572815794398</v>
+        <v>0.99572815794398017</v>
       </c>
       <c r="D44">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377726</v>
       </c>
       <c r="E44">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662447</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3817,16 +3187,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.990935337159245</v>
+        <v>0.99093533715924542</v>
       </c>
       <c r="C45">
-        <v>0.99572815794398</v>
+        <v>0.99572815794398029</v>
       </c>
       <c r="D45">
-        <v>0.998172795753777</v>
+        <v>0.99817279575377738</v>
       </c>
       <c r="E45">
-        <v>0.998942132756624</v>
+        <v>0.99894213275662425</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3834,16 +3204,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.988978827066077</v>
+        <v>0.98897882706607698</v>
       </c>
       <c r="C46">
-        <v>0.99628460136683</v>
+        <v>0.99628460136683006</v>
       </c>
       <c r="D46">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E46">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3851,16 +3221,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.988978827066077</v>
+        <v>0.98897882706607698</v>
       </c>
       <c r="C47">
-        <v>0.99628460136683</v>
+        <v>0.99628460136682995</v>
       </c>
       <c r="D47">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E47">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3868,16 +3238,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.988978827066077</v>
+        <v>0.98897882706607698</v>
       </c>
       <c r="C48">
-        <v>0.99628460136683</v>
+        <v>0.99628460136683006</v>
       </c>
       <c r="D48">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067393</v>
       </c>
       <c r="E48">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3885,16 +3255,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.988978827066077</v>
+        <v>0.98897882706607676</v>
       </c>
       <c r="C49">
-        <v>0.99628460136683</v>
+        <v>0.99628460136683006</v>
       </c>
       <c r="D49">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067382</v>
       </c>
       <c r="E49">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345924</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3902,16 +3272,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.988978827066077</v>
+        <v>0.98897882706607698</v>
       </c>
       <c r="C50">
-        <v>0.99628460136683</v>
+        <v>0.99628460136683017</v>
       </c>
       <c r="D50">
-        <v>0.997225881580674</v>
+        <v>0.99722588158067393</v>
       </c>
       <c r="E50">
-        <v>0.998371128753459</v>
+        <v>0.99837112875345935</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3919,16 +3289,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.985336303076137</v>
+        <v>0.98533630307613673</v>
       </c>
       <c r="C51">
-        <v>0.995821702475953</v>
+        <v>0.99582170247595303</v>
       </c>
       <c r="D51">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280553</v>
       </c>
       <c r="E51">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734984</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3936,16 +3306,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.985336303076137</v>
+        <v>0.98533630307613673</v>
       </c>
       <c r="C52">
-        <v>0.995821702475953</v>
+        <v>0.9958217024759527</v>
       </c>
       <c r="D52">
-        <v>0.995622303082805</v>
+        <v>0.99562230308280542</v>
       </c>
       <c r="E52">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734962</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3953,16 +3323,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.985336303076137</v>
+        <v>0.98533630307613684</v>
       </c>
       <c r="C53">
-        <v>0.995821702475953</v>
+        <v>0.99582170247595292</v>
       </c>
       <c r="D53">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280553</v>
       </c>
       <c r="E53">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734984</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3970,16 +3340,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.985336303076137</v>
+        <v>0.98533630307613673</v>
       </c>
       <c r="C54">
-        <v>0.995821702475953</v>
+        <v>0.99582170247595303</v>
       </c>
       <c r="D54">
-        <v>0.995622303082806</v>
+        <v>0.99562230308280564</v>
       </c>
       <c r="E54">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734973</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3987,16 +3357,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.985336303076137</v>
+        <v>0.98533630307613673</v>
       </c>
       <c r="C55">
-        <v>0.995821702475953</v>
+        <v>0.99582170247595292</v>
       </c>
       <c r="D55">
-        <v>0.995622303082805</v>
+        <v>0.99562230308280542</v>
       </c>
       <c r="E55">
-        <v>0.99749897621735</v>
+        <v>0.99749897621734995</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -4004,16 +3374,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.979655154433106</v>
+        <v>0.9796551544331058</v>
       </c>
       <c r="C56">
-        <v>0.994383256536266</v>
+        <v>0.99438325653626602</v>
       </c>
       <c r="D56">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E56">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866547</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -4021,16 +3391,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.979655154433106</v>
+        <v>0.97965515443310591</v>
       </c>
       <c r="C57">
-        <v>0.994383256536266</v>
+        <v>0.99438325653626636</v>
       </c>
       <c r="D57">
-        <v>0.993112558244816</v>
+        <v>0.99311255824481559</v>
       </c>
       <c r="E57">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866536</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -4038,16 +3408,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.979655154433106</v>
+        <v>0.97965515443310591</v>
       </c>
       <c r="C58">
-        <v>0.994383256536266</v>
+        <v>0.99438325653626614</v>
       </c>
       <c r="D58">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E58">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866525</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -4055,16 +3425,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.979655154433106</v>
+        <v>0.9796551544331058</v>
       </c>
       <c r="C59">
-        <v>0.994383256536266</v>
+        <v>0.99438325653626614</v>
       </c>
       <c r="D59">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E59">
-        <v>0.996215986188666</v>
+        <v>0.99621598618866569</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -4072,16 +3442,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.979655154433106</v>
+        <v>0.97965515443310591</v>
       </c>
       <c r="C60">
-        <v>0.994383256536266</v>
+        <v>0.99438325653626614</v>
       </c>
       <c r="D60">
-        <v>0.993112558244816</v>
+        <v>0.9931125582448157</v>
       </c>
       <c r="E60">
-        <v>0.996215986188665</v>
+        <v>0.99621598618866536</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -4089,16 +3459,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.969117918420704</v>
+        <v>0.96911791842070449</v>
       </c>
       <c r="C61">
-        <v>0.987828703183061</v>
+        <v>0.98782870318306082</v>
       </c>
       <c r="D61">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502366</v>
       </c>
       <c r="E61">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297122</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -4106,16 +3476,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.969117918420705</v>
+        <v>0.96911791842070472</v>
       </c>
       <c r="C62">
-        <v>0.987828703183061</v>
+        <v>0.9878287031830606</v>
       </c>
       <c r="D62">
-        <v>0.989499648015023</v>
+        <v>0.98949964801502333</v>
       </c>
       <c r="E62">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297133</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -4123,16 +3493,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.969117918420704</v>
+        <v>0.96911791842070438</v>
       </c>
       <c r="C63">
-        <v>0.987828703183061</v>
+        <v>0.98782870318306082</v>
       </c>
       <c r="D63">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E63">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297111</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -4140,16 +3510,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.969117918420705</v>
+        <v>0.9691179184207046</v>
       </c>
       <c r="C64">
-        <v>0.987828703183061</v>
+        <v>0.98782870318306071</v>
       </c>
       <c r="D64">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E64">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297144</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -4157,16 +3527,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.969117918420704</v>
+        <v>0.96911791842070449</v>
       </c>
       <c r="C65">
-        <v>0.987828703183061</v>
+        <v>0.98782870318306071</v>
       </c>
       <c r="D65">
-        <v>0.989499648015024</v>
+        <v>0.98949964801502355</v>
       </c>
       <c r="E65">
-        <v>0.994325401552971</v>
+        <v>0.99432540155297111</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -4174,16 +3544,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.952872219923951</v>
+        <v>0.95287221992395066</v>
       </c>
       <c r="C66">
-        <v>0.975310740859874</v>
+        <v>0.97531074085987401</v>
       </c>
       <c r="D66">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083799</v>
       </c>
       <c r="E66">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4191,16 +3561,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.952872219923951</v>
+        <v>0.95287221992395066</v>
       </c>
       <c r="C67">
-        <v>0.975310740859874</v>
+        <v>0.9753107408598739</v>
       </c>
       <c r="D67">
-        <v>0.984995174900838</v>
+        <v>0.9849951749008381</v>
       </c>
       <c r="E67">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4208,16 +3578,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.952872219923951</v>
+        <v>0.95287221992395077</v>
       </c>
       <c r="C68">
-        <v>0.975310740859874</v>
+        <v>0.97531074085987413</v>
       </c>
       <c r="D68">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083788</v>
       </c>
       <c r="E68">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276485</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4225,16 +3595,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.952872219923951</v>
+        <v>0.95287221992395055</v>
       </c>
       <c r="C69">
-        <v>0.975310740859874</v>
+        <v>0.9753107408598739</v>
       </c>
       <c r="D69">
-        <v>0.984995174900838</v>
+        <v>0.9849951749008381</v>
       </c>
       <c r="E69">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276496</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -4242,16 +3612,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.952872219923951</v>
+        <v>0.95287221992395077</v>
       </c>
       <c r="C70">
-        <v>0.975310740859874</v>
+        <v>0.97531074085987401</v>
       </c>
       <c r="D70">
-        <v>0.984995174900838</v>
+        <v>0.98499517490083788</v>
       </c>
       <c r="E70">
-        <v>0.991820947622765</v>
+        <v>0.99182094762276474</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -4259,16 +3629,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.923369216864757</v>
+        <v>0.92336921686475704</v>
       </c>
       <c r="C71">
-        <v>0.949044158197468</v>
+        <v>0.94904415819746835</v>
       </c>
       <c r="D71">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E71">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -4276,16 +3646,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.923369216864757</v>
+        <v>0.92336921686475704</v>
       </c>
       <c r="C72">
-        <v>0.949044158197468</v>
+        <v>0.94904415819746835</v>
       </c>
       <c r="D72">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E72">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540287</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -4293,16 +3663,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.923369216864757</v>
+        <v>0.92336921686475704</v>
       </c>
       <c r="C73">
-        <v>0.949044158197468</v>
+        <v>0.94904415819746846</v>
       </c>
       <c r="D73">
-        <v>0.976442932076925</v>
+        <v>0.97644293207692456</v>
       </c>
       <c r="E73">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540309</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -4310,16 +3680,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.923369216864757</v>
+        <v>0.92336921686475693</v>
       </c>
       <c r="C74">
-        <v>0.949044158197468</v>
+        <v>0.94904415819746824</v>
       </c>
       <c r="D74">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E74">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -4327,16 +3697,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.923369216864757</v>
+        <v>0.92336921686475715</v>
       </c>
       <c r="C75">
-        <v>0.949044158197468</v>
+        <v>0.94904415819746835</v>
       </c>
       <c r="D75">
-        <v>0.976442932076924</v>
+        <v>0.97644293207692445</v>
       </c>
       <c r="E75">
-        <v>0.986397076525403</v>
+        <v>0.98639707652540298</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -4344,16 +3714,16 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.875564901986145</v>
+        <v>0.87556490198614512</v>
       </c>
       <c r="C76">
-        <v>0.905139462205869</v>
+        <v>0.90513946220586949</v>
       </c>
       <c r="D76">
-        <v>0.960117119811948</v>
+        <v>0.96011711981194758</v>
       </c>
       <c r="E76">
-        <v>0.974953072512602</v>
+        <v>0.97495307251260244</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -4361,16 +3731,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.875564901986145</v>
+        <v>0.87556490198614512</v>
       </c>
       <c r="C77">
-        <v>0.905139462205869</v>
+        <v>0.90513946220586949</v>
       </c>
       <c r="D77">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194736</v>
       </c>
       <c r="E77">
-        <v>0.974953072512602</v>
+        <v>0.97495307251260244</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -4378,16 +3748,16 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.875564901986145</v>
+        <v>0.87556490198614489</v>
       </c>
       <c r="C78">
-        <v>0.905139462205869</v>
+        <v>0.90513946220586949</v>
       </c>
       <c r="D78">
-        <v>0.960117119811948</v>
+        <v>0.96011711981194758</v>
       </c>
       <c r="E78">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260255</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -4395,16 +3765,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.875564901986145</v>
+        <v>0.87556490198614523</v>
       </c>
       <c r="C79">
-        <v>0.90513946220587</v>
+        <v>0.90513946220586972</v>
       </c>
       <c r="D79">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194747</v>
       </c>
       <c r="E79">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260266</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -4412,16 +3782,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.875564901986145</v>
+        <v>0.87556490198614501</v>
       </c>
       <c r="C80">
-        <v>0.90513946220587</v>
+        <v>0.9051394622058696</v>
       </c>
       <c r="D80">
-        <v>0.960117119811947</v>
+        <v>0.96011711981194747</v>
       </c>
       <c r="E80">
-        <v>0.974953072512603</v>
+        <v>0.97495307251260255</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -4429,16 +3799,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.804487496948284</v>
+        <v>0.80448749694828392</v>
       </c>
       <c r="C81">
-        <v>0.836640480457679</v>
+        <v>0.83664048045767858</v>
       </c>
       <c r="D81">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E81">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -4446,16 +3816,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.804487496948284</v>
+        <v>0.80448749694828392</v>
       </c>
       <c r="C82">
-        <v>0.836640480457679</v>
+        <v>0.83664048045767869</v>
       </c>
       <c r="D82">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E82">
-        <v>0.95456617489586</v>
+        <v>0.9545661748958596</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -4463,16 +3833,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.804487496948284</v>
+        <v>0.80448749694828381</v>
       </c>
       <c r="C83">
-        <v>0.836640480457678</v>
+        <v>0.83664048045767847</v>
       </c>
       <c r="D83">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312072</v>
       </c>
       <c r="E83">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -4480,16 +3850,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.804487496948284</v>
+        <v>0.80448749694828403</v>
       </c>
       <c r="C84">
-        <v>0.836640480457679</v>
+        <v>0.8366404804576788</v>
       </c>
       <c r="D84">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E84">
-        <v>0.95456617489586</v>
+        <v>0.9545661748958596</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -4497,16 +3867,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.804487496948284</v>
+        <v>0.80448749694828403</v>
       </c>
       <c r="C85">
-        <v>0.836640480457679</v>
+        <v>0.83664048045767858</v>
       </c>
       <c r="D85">
-        <v>0.933672042233121</v>
+        <v>0.93367204223312084</v>
       </c>
       <c r="E85">
-        <v>0.954566174895859</v>
+        <v>0.95456617489585949</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -4514,16 +3884,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.71140326769863</v>
+        <v>0.71140326769862972</v>
       </c>
       <c r="C86">
-        <v>0.751756456741872</v>
+        <v>0.75175645674187186</v>
       </c>
       <c r="D86">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E86">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -4531,16 +3901,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.711403267698629</v>
+        <v>0.71140326769862949</v>
       </c>
       <c r="C87">
-        <v>0.751756456741872</v>
+        <v>0.75175645674187186</v>
       </c>
       <c r="D87">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369046</v>
       </c>
       <c r="E87">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574715</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -4548,16 +3918,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.71140326769863</v>
+        <v>0.71140326769862972</v>
       </c>
       <c r="C88">
-        <v>0.751756456741872</v>
+        <v>0.75175645674187175</v>
       </c>
       <c r="D88">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E88">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -4565,16 +3935,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.71140326769863</v>
+        <v>0.71140326769862972</v>
       </c>
       <c r="C89">
-        <v>0.751756456741872</v>
+        <v>0.75175645674187197</v>
       </c>
       <c r="D89">
-        <v>0.892778417453691</v>
+        <v>0.89277841745369058</v>
       </c>
       <c r="E89">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -4582,16 +3952,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.71140326769863</v>
+        <v>0.71140326769862972</v>
       </c>
       <c r="C90">
-        <v>0.751756456741872</v>
+        <v>0.75175645674187175</v>
       </c>
       <c r="D90">
-        <v>0.89277841745369</v>
+        <v>0.89277841745369035</v>
       </c>
       <c r="E90">
-        <v>0.919715241765747</v>
+        <v>0.91971524176574726</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -4599,16 +3969,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.617264537755042</v>
+        <v>0.61726453775504209</v>
       </c>
       <c r="C91">
-        <v>0.669393524760426</v>
+        <v>0.66939352476042635</v>
       </c>
       <c r="D91">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665172</v>
       </c>
       <c r="E91">
-        <v>0.864160316760715</v>
+        <v>0.86416031676071459</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -4616,16 +3986,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.617264537755042</v>
+        <v>0.61726453775504209</v>
       </c>
       <c r="C92">
-        <v>0.669393524760426</v>
+        <v>0.66939352476042624</v>
       </c>
       <c r="D92">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665172</v>
       </c>
       <c r="E92">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4633,16 +4003,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.617264537755042</v>
+        <v>0.61726453775504186</v>
       </c>
       <c r="C93">
-        <v>0.669393524760426</v>
+        <v>0.66939352476042624</v>
       </c>
       <c r="D93">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665194</v>
       </c>
       <c r="E93">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4650,16 +4020,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.617264537755042</v>
+        <v>0.6172645377550422</v>
       </c>
       <c r="C94">
-        <v>0.669393524760426</v>
+        <v>0.66939352476042624</v>
       </c>
       <c r="D94">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665183</v>
       </c>
       <c r="E94">
-        <v>0.864160316760714</v>
+        <v>0.86416031676071448</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4667,16 +4037,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.617264537755042</v>
+        <v>0.61726453775504209</v>
       </c>
       <c r="C95">
-        <v>0.669393524760426</v>
+        <v>0.66939352476042646</v>
       </c>
       <c r="D95">
-        <v>0.833901898086652</v>
+        <v>0.83390189808665183</v>
       </c>
       <c r="E95">
-        <v>0.864160316760715</v>
+        <v>0.86416031676071459</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4684,16 +4054,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.579291153255533</v>
+        <v>0.57929115325553326</v>
       </c>
       <c r="C96">
-        <v>0.649625918695916</v>
+        <v>0.64962591869591646</v>
       </c>
       <c r="D96">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885234</v>
       </c>
       <c r="E96">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4701,16 +4071,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.579291153255533</v>
+        <v>0.57929115325553326</v>
       </c>
       <c r="C97">
-        <v>0.649625918695916</v>
+        <v>0.64962591869591635</v>
       </c>
       <c r="D97">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885223</v>
       </c>
       <c r="E97">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4718,16 +4088,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.579291153255533</v>
+        <v>0.57929115325553315</v>
       </c>
       <c r="C98">
-        <v>0.649625918695916</v>
+        <v>0.64962591869591646</v>
       </c>
       <c r="D98">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885234</v>
       </c>
       <c r="E98">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4735,16 +4105,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.579291153255533</v>
+        <v>0.57929115325553349</v>
       </c>
       <c r="C99">
-        <v>0.649625918695916</v>
+        <v>0.64962591869591635</v>
       </c>
       <c r="D99">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885245</v>
       </c>
       <c r="E99">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597676</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4752,36 +4122,32 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.579291153255533</v>
+        <v>0.57929115325553326</v>
       </c>
       <c r="C100">
-        <v>0.649625918695917</v>
+        <v>0.64962591869591668</v>
       </c>
       <c r="D100">
-        <v>0.757382266778852</v>
+        <v>0.75738226677885223</v>
       </c>
       <c r="E100">
-        <v>0.784839813545977</v>
+        <v>0.78483981354597687</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="3:4">
+    <row r="1" spans="1:4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4797,10 +4163,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>2.25581545635528</v>
+        <v>2.2558154563552804</v>
       </c>
       <c r="D2">
-        <v>2.11969109416114</v>
+        <v>2.1196910941611362</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4811,10 +4177,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2.18480955283656</v>
+        <v>2.1848095528365605</v>
       </c>
       <c r="D3">
-        <v>2.05486752158203</v>
+        <v>2.0548675215820325</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4825,10 +4191,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.909351303482148</v>
+        <v>0.90935130348214799</v>
       </c>
       <c r="D4">
-        <v>1.99004394900293</v>
+        <v>1.990043949002928</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4839,10 +4205,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1.20445234583569</v>
+        <v>1.2044523458356919</v>
       </c>
       <c r="D5">
-        <v>1.12605799843701</v>
+        <v>1.126057998437008</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4853,10 +4219,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.878804799817764</v>
+        <v>0.87880479981776405</v>
       </c>
       <c r="D6">
-        <v>1.92522037642382</v>
+        <v>1.925220376423824</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4867,10 +4233,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1.16399294598136</v>
+        <v>1.1639929459813561</v>
       </c>
       <c r="D7">
-        <v>1.08937785254046</v>
+        <v>1.0893778525404643</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4884,7 +4250,7 @@
         <v>0.84825829615338</v>
       </c>
       <c r="D8">
-        <v>1.86039680384472</v>
+        <v>1.8603968038447198</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4895,7 +4261,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.12353354612702</v>
+        <v>1.1235335461270199</v>
       </c>
       <c r="D9">
         <v>1.05269770664392</v>
@@ -4909,10 +4275,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.818117533120236</v>
+        <v>0.81811753312023616</v>
       </c>
       <c r="D10">
-        <v>1.7960488539602</v>
+        <v>1.7960488539602038</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4923,10 +4289,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.26423372467254</v>
+        <v>0.26423372467254003</v>
       </c>
       <c r="D11">
-        <v>0.285684767970696</v>
+        <v>0.28568476797069597</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4937,10 +4303,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.819377832448104</v>
+        <v>0.81937783244810403</v>
       </c>
       <c r="D12">
-        <v>0.730601921877948</v>
+        <v>0.73060192187794781</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4951,10 +4317,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.787976770087092</v>
+        <v>0.7879767700870921</v>
       </c>
       <c r="D13">
-        <v>1.73170090407569</v>
+        <v>1.7317009040756877</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4965,10 +4331,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.25449893014938</v>
+        <v>0.25449893014938002</v>
       </c>
       <c r="D14">
-        <v>0.275449395424112</v>
+        <v>0.27544939542411195</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4979,10 +4345,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.789190637964888</v>
+        <v>0.78919063796488798</v>
       </c>
       <c r="D15">
-        <v>0.704426277629256</v>
+        <v>0.7044262776292558</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4993,10 +4359,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.757836007053948</v>
+        <v>0.75783600705394805</v>
       </c>
       <c r="D16">
-        <v>1.66735295419117</v>
+        <v>1.6673529541911718</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -5007,10 +4373,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.24476413562622</v>
+        <v>0.24476413562622001</v>
       </c>
       <c r="D17">
-        <v>0.265214022877528</v>
+        <v>0.26521402287752799</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -5021,10 +4387,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.759003443481672</v>
+        <v>0.75900344348167204</v>
       </c>
       <c r="D18">
-        <v>0.678250633380564</v>
+        <v>0.67825063338056391</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -5035,10 +4401,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>0.727695244020804</v>
+        <v>0.72769524402080421</v>
       </c>
       <c r="D19">
-        <v>1.60300500430666</v>
+        <v>1.6030050043066562</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -5049,10 +4415,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.23502934110306</v>
+        <v>0.23502934110306006</v>
       </c>
       <c r="D20">
-        <v>0.254978650330944</v>
+        <v>0.25497865033094402</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -5063,10 +4429,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.728816248998456</v>
+        <v>0.7288162489984561</v>
       </c>
       <c r="D21">
-        <v>0.652074989131872</v>
+        <v>0.65207498913187201</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -5077,10 +4443,10 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>0.69755448098766</v>
+        <v>0.69755448098766015</v>
       </c>
       <c r="D22">
-        <v>1.53865705442214</v>
+        <v>1.5386570544221401</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -5091,7 +4457,7 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>0.2252945465799</v>
+        <v>0.22529454657990003</v>
       </c>
       <c r="D23">
         <v>0.24474327778436</v>
@@ -5105,7 +4471,7 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.69862905451524</v>
+        <v>0.69862905451524004</v>
       </c>
       <c r="D24">
         <v>0.62589934488318</v>
@@ -5119,10 +4485,10 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.674587294467048</v>
+        <v>0.67458729446704824</v>
       </c>
       <c r="D25">
-        <v>1.48850941439677</v>
+        <v>1.4885094143967721</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -5133,7 +4499,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.21787665734772</v>
+        <v>0.21787665734772005</v>
       </c>
       <c r="D26">
         <v>0.236766647931928</v>
@@ -5147,24 +4513,24 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>0.675626487345072</v>
+        <v>0.67562648734507214</v>
       </c>
       <c r="D27">
-        <v>0.605500143547764</v>
+        <v>0.60550014354776394</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C28">
-        <v>0.651620107946436</v>
+        <v>0.12415685520000004</v>
       </c>
       <c r="D28">
-        <v>1.4383617743714</v>
+        <v>8.6082814000000007E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -5172,13 +4538,13 @@
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>0.21045876811554</v>
+        <v>0.65162010794643599</v>
       </c>
       <c r="D29">
-        <v>0.228790018079496</v>
+        <v>1.4383617743714039</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -5186,33 +4552,4075 @@
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30">
+        <v>0.21045876811553998</v>
+      </c>
+      <c r="D30">
+        <v>0.22879001807949598</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C30">
-        <v>0.652623920174904</v>
-      </c>
-      <c r="D30">
-        <v>0.585100942212348</v>
+      <c r="C31">
+        <v>0.65262392017490389</v>
+      </c>
+      <c r="D31">
+        <v>0.58510094221234799</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32">
+        <v>0.11992977640000001</v>
+      </c>
+      <c r="D32">
+        <v>8.3182697999999999E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2.1487643840000003E-3</v>
+      </c>
+      <c r="D33">
+        <v>3.371868444E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>4.9586870400000001E-4</v>
+      </c>
+      <c r="D34">
+        <v>1.7662168040000002E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35">
+        <v>2.1487643840000003E-3</v>
+      </c>
+      <c r="D35">
+        <v>2.5690426240000002E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <v>4.2975287680000016E-4</v>
+      </c>
+      <c r="D36">
+        <v>3.5324336080000011E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1.7190115072E-3</v>
+      </c>
+      <c r="D37">
+        <v>1.4129734432E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38">
+        <v>5.9504244480000005E-4</v>
+      </c>
+      <c r="D38">
+        <v>4.8169549199999996E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <v>2.3801697791999998E-3</v>
+      </c>
+      <c r="D39">
+        <v>1.9267819679999998E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>2.0702614920000001E-3</v>
+      </c>
+      <c r="D40">
+        <v>3.2500635719999995E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>4.7775265199999996E-4</v>
+      </c>
+      <c r="D41">
+        <v>1.702414252E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>2.0702614920000001E-3</v>
+      </c>
+      <c r="D42">
+        <v>2.4762389119999998E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43">
+        <v>4.1405229840000017E-4</v>
+      </c>
+      <c r="D43">
+        <v>3.4048285040000006E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>1.6562091935999998E-3</v>
+      </c>
+      <c r="D44">
+        <v>1.3619314015999998E-3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C45">
+        <v>5.733031824000001E-4</v>
+      </c>
+      <c r="D45">
+        <v>4.6429479599999993E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>2.2932127296E-3</v>
+      </c>
+      <c r="D46">
+        <v>1.8571791839999997E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>1.9917586000000004E-3</v>
+      </c>
+      <c r="D47">
+        <v>3.1282586999999999E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>4.5963659999999996E-4</v>
+      </c>
+      <c r="D48">
+        <v>1.6386117000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49">
+        <v>1.9917586000000004E-3</v>
+      </c>
+      <c r="D49">
+        <v>2.3834352000000002E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>3.9835172000000013E-4</v>
+      </c>
+      <c r="D50">
+        <v>3.2772234000000007E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51">
+        <v>1.5934068799999999E-3</v>
+      </c>
+      <c r="D51">
+        <v>1.3108893599999998E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>5.5156392000000004E-4</v>
+      </c>
+      <c r="D52">
+        <v>4.4689409999999996E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53">
+        <v>2.2062556799999997E-3</v>
+      </c>
+      <c r="D53">
+        <v>1.7875763999999998E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>1.9373334240000003E-3</v>
+      </c>
+      <c r="D54">
+        <v>3.04277232E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55">
+        <v>4.4707694399999994E-4</v>
+      </c>
+      <c r="D55">
+        <v>1.5938331200000002E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56">
+        <v>1.9373334240000003E-3</v>
+      </c>
+      <c r="D56">
+        <v>2.3183027200000001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>3.8746668480000012E-4</v>
+      </c>
+      <c r="D57">
+        <v>3.1876662400000011E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58">
+        <v>1.5498667391999998E-3</v>
+      </c>
+      <c r="D58">
+        <v>1.275066496E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C59">
+        <v>5.3649233280000008E-4</v>
+      </c>
+      <c r="D59">
+        <v>4.3468175999999997E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60">
+        <v>2.1459693311999999E-3</v>
+      </c>
+      <c r="D60">
+        <v>1.7387270399999999E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>1.8829082480000003E-3</v>
+      </c>
+      <c r="D61">
+        <v>2.9572859399999997E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62">
+        <v>4.3451728799999997E-4</v>
+      </c>
+      <c r="D62">
+        <v>1.54905454E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63">
+        <v>1.8829082480000003E-3</v>
+      </c>
+      <c r="D63">
+        <v>2.25317024E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>3.7658164960000011E-4</v>
+      </c>
+      <c r="D64">
+        <v>3.098109080000001E-4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>1.5063265983999998E-3</v>
+      </c>
+      <c r="D65">
+        <v>1.239243632E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66">
+        <v>5.2142074560000001E-4</v>
+      </c>
+      <c r="D66">
+        <v>4.2246941999999997E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67">
+        <v>2.0856829823999996E-3</v>
+      </c>
+      <c r="D67">
+        <v>1.6898776799999999E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>1.8284830720000003E-3</v>
+      </c>
+      <c r="D68">
+        <v>2.8717995599999999E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69">
+        <v>4.2195763199999995E-4</v>
+      </c>
+      <c r="D69">
+        <v>1.5042759600000001E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70">
+        <v>1.8284830720000003E-3</v>
+      </c>
+      <c r="D70">
+        <v>2.1880377599999999E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71">
+        <v>3.656966144000001E-4</v>
+      </c>
+      <c r="D71">
+        <v>3.0085519200000009E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>1.4627864576E-3</v>
+      </c>
+      <c r="D72">
+        <v>1.2034207679999999E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73">
+        <v>5.0634915840000005E-4</v>
+      </c>
+      <c r="D73">
+        <v>4.1025707999999992E-4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74">
+        <v>2.0253966335999998E-3</v>
+      </c>
+      <c r="D74">
+        <v>1.6410283199999997E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>1.7740578960000002E-3</v>
+      </c>
+      <c r="D75">
+        <v>2.78631318E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76">
+        <v>4.0939797599999999E-4</v>
+      </c>
+      <c r="D76">
+        <v>1.4594973800000001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C77">
+        <v>1.7740578960000002E-3</v>
+      </c>
+      <c r="D77">
+        <v>2.1229052800000002E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>3.548115792000001E-4</v>
+      </c>
+      <c r="D78">
+        <v>2.9189947600000008E-4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>1.4192463168E-3</v>
+      </c>
+      <c r="D79">
+        <v>1.1675979039999999E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C80">
+        <v>4.9127757120000009E-4</v>
+      </c>
+      <c r="D80">
+        <v>3.9804473999999998E-4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81">
+        <v>1.9651102847999999E-3</v>
+      </c>
+      <c r="D81">
+        <v>1.5921789599999999E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>1.7196327200000002E-3</v>
+      </c>
+      <c r="D82">
+        <v>2.7008267999999998E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>3.9683831999999997E-4</v>
+      </c>
+      <c r="D83">
+        <v>1.4147188000000002E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C84">
+        <v>1.7196327200000002E-3</v>
+      </c>
+      <c r="D84">
+        <v>2.0577728000000001E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85">
+        <v>3.4392654400000014E-4</v>
+      </c>
+      <c r="D85">
+        <v>2.8294376000000007E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86">
+        <v>1.3757061759999999E-3</v>
+      </c>
+      <c r="D86">
+        <v>1.1317750399999999E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C87">
+        <v>4.7620598400000002E-4</v>
+      </c>
+      <c r="D87">
+        <v>3.8583239999999999E-4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88">
+        <v>1.9048239359999999E-3</v>
+      </c>
+      <c r="D88">
+        <v>1.5433296E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>1.6744645320000003E-3</v>
+      </c>
+      <c r="D89">
+        <v>2.6292289799999999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C90">
+        <v>3.8641489199999998E-4</v>
+      </c>
+      <c r="D90">
+        <v>1.3772151800000001E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>1.6744645320000003E-3</v>
+      </c>
+      <c r="D91">
+        <v>2.0032220800000004E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92">
+        <v>3.3489290640000013E-4</v>
+      </c>
+      <c r="D92">
+        <v>2.7544303600000007E-4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93">
+        <v>1.3395716256000001E-3</v>
+      </c>
+      <c r="D93">
+        <v>1.1017721440000001E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94">
+        <v>4.6369787040000007E-4</v>
+      </c>
+      <c r="D94">
+        <v>3.7560414000000001E-4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>1.8547914816000001E-3</v>
+      </c>
+      <c r="D95">
+        <v>1.5024165600000001E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>1.6292963440000005E-3</v>
+      </c>
+      <c r="D96">
+        <v>2.5576311600000001E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C97">
+        <v>3.7599146400000004E-4</v>
+      </c>
+      <c r="D97">
+        <v>1.3397115600000001E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C98">
+        <v>1.6292963440000005E-3</v>
+      </c>
+      <c r="D98">
+        <v>1.9486713600000002E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99">
+        <v>3.2585926880000017E-4</v>
+      </c>
+      <c r="D99">
+        <v>2.6794231200000007E-4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100">
+        <v>1.3034370752E-3</v>
+      </c>
+      <c r="D100">
+        <v>1.0717692480000001E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C101">
+        <v>4.5118975680000012E-4</v>
+      </c>
+      <c r="D101">
+        <v>3.6537587999999998E-4</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>1.8047590272E-3</v>
+      </c>
+      <c r="D102">
+        <v>1.4615035199999999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>3.0464003E-3</v>
+      </c>
+      <c r="D103">
+        <v>5.3272143000000017E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>4.8742404800000011E-4</v>
+      </c>
+      <c r="D104">
+        <v>7.1029524000000002E-4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C105">
+        <v>2.6808322640000004E-3</v>
+      </c>
+      <c r="D105">
+        <v>2.3676508000000005E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106">
+        <v>1.7059841680000008E-4</v>
+      </c>
+      <c r="D106">
+        <v>1.1838254000000003E-4</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107">
+        <v>6.8239366720000011E-4</v>
+      </c>
+      <c r="D107">
+        <v>4.7353016000000007E-4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C108">
+        <v>4.3868164320000005E-4</v>
+      </c>
+      <c r="D108">
+        <v>2.3676508000000006E-4</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C109">
+        <v>1.7547265727999998E-3</v>
+      </c>
+      <c r="D109">
+        <v>9.4706032000000013E-4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>2.9595384000000004E-3</v>
+      </c>
+      <c r="D110">
+        <v>5.1737904000000003E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C111">
+        <v>4.7352614400000012E-4</v>
+      </c>
+      <c r="D111">
+        <v>6.8983871999999996E-4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112">
+        <v>2.6043937920000003E-3</v>
+      </c>
+      <c r="D112">
+        <v>2.2994624000000001E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113">
+        <v>1.6573415040000011E-4</v>
+      </c>
+      <c r="D113">
+        <v>1.1497312000000002E-4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114">
+        <v>6.6293660160000011E-4</v>
+      </c>
+      <c r="D114">
+        <v>4.5989248000000003E-4</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>4.2617352960000004E-4</v>
+      </c>
+      <c r="D115">
+        <v>2.2994624000000004E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116">
+        <v>1.7046941184E-3</v>
+      </c>
+      <c r="D116">
+        <v>9.1978496000000006E-4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>2.8726765000000004E-3</v>
+      </c>
+      <c r="D117">
+        <v>5.0203665000000015E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C118">
+        <v>4.5962824000000014E-4</v>
+      </c>
+      <c r="D118">
+        <v>6.6938220000000012E-4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119">
+        <v>2.5279553200000006E-3</v>
+      </c>
+      <c r="D119">
+        <v>2.2312740000000005E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120">
+        <v>1.6086988400000011E-4</v>
+      </c>
+      <c r="D120">
+        <v>1.1156370000000004E-4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C121">
+        <v>6.4347953600000021E-4</v>
+      </c>
+      <c r="D121">
+        <v>4.462548000000001E-4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C122">
+        <v>4.1366541600000009E-4</v>
+      </c>
+      <c r="D122">
+        <v>2.2312740000000008E-4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123">
+        <v>1.6546616640000001E-3</v>
+      </c>
+      <c r="D123">
+        <v>8.9250960000000019E-4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>2.7767178E-3</v>
+      </c>
+      <c r="D124">
+        <v>4.8574110600000005E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C125">
+        <v>4.4427484800000006E-4</v>
+      </c>
+      <c r="D125">
+        <v>6.4765480799999992E-4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126">
+        <v>2.4435116640000002E-3</v>
+      </c>
+      <c r="D126">
+        <v>2.1588493600000003E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127">
+        <v>1.5549619680000007E-4</v>
+      </c>
+      <c r="D127">
+        <v>1.0794246800000002E-4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C128">
+        <v>6.2198478719999997E-4</v>
+      </c>
+      <c r="D128">
+        <v>4.3176987200000002E-4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C129">
+        <v>3.9984736320000002E-4</v>
+      </c>
+      <c r="D129">
+        <v>2.1588493600000004E-4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C130">
+        <v>1.5993894527999996E-3</v>
+      </c>
+      <c r="D130">
+        <v>8.6353974400000004E-4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>2.6807590999999996E-3</v>
+      </c>
+      <c r="D131">
+        <v>4.6944556200000011E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132">
+        <v>4.2892145600000004E-4</v>
+      </c>
+      <c r="D132">
+        <v>6.2592741599999994E-4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133">
+        <v>2.3590680079999997E-3</v>
+      </c>
+      <c r="D133">
+        <v>2.0864247200000001E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134">
+        <v>1.5012250960000007E-4</v>
+      </c>
+      <c r="D134">
+        <v>1.0432123600000003E-4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135">
+        <v>6.0049003840000005E-4</v>
+      </c>
+      <c r="D135">
+        <v>4.1728494400000005E-4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136">
+        <v>3.860293104E-4</v>
+      </c>
+      <c r="D136">
+        <v>2.0864247200000005E-4</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C137">
+        <v>1.5441172415999998E-3</v>
+      </c>
+      <c r="D137">
+        <v>8.345698880000001E-4</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>2.5848004000000001E-3</v>
+      </c>
+      <c r="D138">
+        <v>4.531500180000001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C139">
+        <v>4.1356806400000013E-4</v>
+      </c>
+      <c r="D139">
+        <v>6.0420002399999995E-4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140">
+        <v>2.2746243520000002E-3</v>
+      </c>
+      <c r="D140">
+        <v>2.0140000800000003E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C141">
+        <v>1.4474882240000009E-4</v>
+      </c>
+      <c r="D141">
+        <v>1.0070000400000003E-4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>5.7899528960000013E-4</v>
+      </c>
+      <c r="D142">
+        <v>4.0280001600000008E-4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C143">
+        <v>3.7221125760000004E-4</v>
+      </c>
+      <c r="D143">
+        <v>2.0140000800000007E-4</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>1.4888450303999999E-3</v>
+      </c>
+      <c r="D144">
+        <v>8.0560003200000016E-4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>2.4888417000000001E-3</v>
+      </c>
+      <c r="D145">
+        <v>4.3685447400000008E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C146">
+        <v>3.9821467200000011E-4</v>
+      </c>
+      <c r="D146">
+        <v>5.8247263200000008E-4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147">
+        <v>2.1901806960000002E-3</v>
+      </c>
+      <c r="D147">
+        <v>1.9415754400000003E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <v>1.3937513520000008E-4</v>
+      </c>
+      <c r="D148">
+        <v>9.7078772000000027E-5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>5.575005408000001E-4</v>
+      </c>
+      <c r="D149">
+        <v>3.8831508800000005E-4</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C150">
+        <v>3.5839320480000002E-4</v>
+      </c>
+      <c r="D150">
+        <v>1.9415754400000005E-4</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C151">
+        <v>1.4335728191999999E-3</v>
+      </c>
+      <c r="D151">
+        <v>7.7663017600000011E-4</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>2.3928829999999997E-3</v>
+      </c>
+      <c r="D152">
+        <v>4.2055893000000014E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C153">
+        <v>3.8286128000000004E-4</v>
+      </c>
+      <c r="D153">
+        <v>5.607452400000001E-4</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>2.1057370400000002E-3</v>
+      </c>
+      <c r="D154">
+        <v>1.8691508000000005E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155">
+        <v>1.3400144800000005E-4</v>
+      </c>
+      <c r="D155">
+        <v>9.3457540000000034E-5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C156">
+        <v>5.3600579199999997E-4</v>
+      </c>
+      <c r="D156">
+        <v>3.7383016000000008E-4</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C157">
+        <v>3.44575152E-4</v>
+      </c>
+      <c r="D157">
+        <v>1.8691508000000007E-4</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C158">
+        <v>1.3783006079999998E-3</v>
+      </c>
+      <c r="D158">
+        <v>7.4766032000000017E-4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>2.2950481999999997E-3</v>
+      </c>
+      <c r="D159">
+        <v>4.0433234400000014E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>3.6720771200000001E-4</v>
+      </c>
+      <c r="D160">
+        <v>5.3910979200000005E-4</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>2.019642416E-3</v>
+      </c>
+      <c r="D161">
+        <v>1.7970326400000003E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C162">
+        <v>1.2852269920000004E-4</v>
+      </c>
+      <c r="D162">
+        <v>8.9851632000000027E-5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C163">
+        <v>5.1409079680000004E-4</v>
+      </c>
+      <c r="D163">
+        <v>3.5940652800000005E-4</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C164">
+        <v>3.3048694079999998E-4</v>
+      </c>
+      <c r="D164">
+        <v>1.7970326400000005E-4</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C165">
+        <v>1.3219477631999997E-3</v>
+      </c>
+      <c r="D165">
+        <v>7.1881305600000011E-4</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>2.1972134000000001E-3</v>
+      </c>
+      <c r="D166">
+        <v>3.881057580000001E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C167">
+        <v>3.5155414400000009E-4</v>
+      </c>
+      <c r="D167">
+        <v>5.1747434400000001E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C168">
+        <v>1.9335477920000002E-3</v>
+      </c>
+      <c r="D168">
+        <v>1.7249144800000004E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C169">
+        <v>1.2304395040000008E-4</v>
+      </c>
+      <c r="D169">
+        <v>8.6245724000000033E-5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C170">
+        <v>4.9217580160000011E-4</v>
+      </c>
+      <c r="D170">
+        <v>3.4498289600000008E-4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C171">
+        <v>3.1639872960000006E-4</v>
+      </c>
+      <c r="D171">
+        <v>1.7249144800000007E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C172">
+        <v>1.2655949184E-3</v>
+      </c>
+      <c r="D172">
+        <v>6.8996579200000015E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>2.0993786E-3</v>
+      </c>
+      <c r="D173">
+        <v>3.718791720000001E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C174">
+        <v>3.3590057600000006E-4</v>
+      </c>
+      <c r="D174">
+        <v>4.9583889600000007E-4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C175">
+        <v>1.8474531680000002E-3</v>
+      </c>
+      <c r="D175">
+        <v>1.6527963200000002E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176">
+        <v>1.1756520160000006E-4</v>
+      </c>
+      <c r="D176">
+        <v>8.2639816000000025E-5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C177">
+        <v>4.7026080640000007E-4</v>
+      </c>
+      <c r="D177">
+        <v>3.3055926400000005E-4</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C178">
+        <v>3.0231051840000003E-4</v>
+      </c>
+      <c r="D178">
+        <v>1.6527963200000005E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C179">
+        <v>1.2092420735999999E-3</v>
+      </c>
+      <c r="D179">
+        <v>6.6111852800000009E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>2.0015438E-3</v>
+      </c>
+      <c r="D180">
+        <v>3.556525860000001E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C181">
+        <v>3.2024700800000003E-4</v>
+      </c>
+      <c r="D181">
+        <v>4.7420344800000003E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C182">
+        <v>1.761358544E-3</v>
+      </c>
+      <c r="D182">
+        <v>1.5806781600000003E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183">
+        <v>1.1208645280000005E-4</v>
+      </c>
+      <c r="D183">
+        <v>7.9033908000000018E-5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C184">
+        <v>4.4834581120000003E-4</v>
+      </c>
+      <c r="D184">
+        <v>3.1613563200000007E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C185">
+        <v>2.8822230720000001E-4</v>
+      </c>
+      <c r="D185">
+        <v>1.5806781600000004E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C186">
+        <v>1.1528892287999998E-3</v>
+      </c>
+      <c r="D186">
+        <v>6.3227126400000014E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187">
+        <v>1.9037090000000002E-3</v>
+      </c>
+      <c r="D187">
+        <v>3.3942600000000005E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C188">
+        <v>3.0459344000000006E-4</v>
+      </c>
+      <c r="D188">
+        <v>4.5256799999999998E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C189">
+        <v>1.6752639200000002E-3</v>
+      </c>
+      <c r="D189">
+        <v>1.5085600000000002E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190">
+        <v>1.0660770400000006E-4</v>
+      </c>
+      <c r="D190">
+        <v>7.5428000000000024E-5</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C191">
+        <v>4.2643081600000004E-4</v>
+      </c>
+      <c r="D191">
+        <v>3.0171200000000004E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C192">
+        <v>2.7413409600000004E-4</v>
+      </c>
+      <c r="D192">
+        <v>1.5085600000000005E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C193">
+        <v>1.0965363839999999E-3</v>
+      </c>
+      <c r="D193">
+        <v>6.0342400000000008E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>1.8177571000000002E-3</v>
+      </c>
+      <c r="D194">
+        <v>3.2546106000000004E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C195">
+        <v>2.9084113600000007E-4</v>
+      </c>
+      <c r="D195">
+        <v>4.3394807999999992E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C196">
+        <v>1.5996262480000001E-3</v>
+      </c>
+      <c r="D196">
+        <v>1.4464936000000001E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C197">
+        <v>1.0179439760000005E-4</v>
+      </c>
+      <c r="D197">
+        <v>7.2324680000000014E-5</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C198">
+        <v>4.0717759040000004E-4</v>
+      </c>
+      <c r="D198">
+        <v>2.8929872E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C199">
+        <v>2.6175702240000004E-4</v>
+      </c>
+      <c r="D199">
+        <v>1.4464936000000003E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C200">
+        <v>1.0470280895999999E-3</v>
+      </c>
+      <c r="D200">
+        <v>5.7859744000000001E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>1.7318052000000002E-3</v>
+      </c>
+      <c r="D201">
+        <v>3.1149612000000008E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>2.7708883200000008E-4</v>
+      </c>
+      <c r="D202">
+        <v>4.1532816000000003E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203">
+        <v>1.5239885760000001E-3</v>
+      </c>
+      <c r="D203">
+        <v>1.3844272000000002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C204">
+        <v>9.6981091200000052E-5</v>
+      </c>
+      <c r="D204">
+        <v>6.9221360000000019E-5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C205">
+        <v>3.8792436480000004E-4</v>
+      </c>
+      <c r="D205">
+        <v>2.7688544000000007E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C206">
+        <v>2.4937994880000003E-4</v>
+      </c>
+      <c r="D206">
+        <v>1.3844272000000004E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C207">
+        <v>9.9751979519999991E-4</v>
+      </c>
+      <c r="D207">
+        <v>5.5377088000000015E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>1.6458533E-3</v>
+      </c>
+      <c r="D208">
+        <v>2.9753118000000003E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C209">
+        <v>2.6333652800000003E-4</v>
+      </c>
+      <c r="D209">
+        <v>3.9670823999999997E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C210">
+        <v>1.448350904E-3</v>
+      </c>
+      <c r="D210">
+        <v>1.3223608000000001E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C211">
+        <v>9.2167784800000052E-5</v>
+      </c>
+      <c r="D211">
+        <v>6.6118040000000009E-5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C212">
+        <v>3.6867113920000005E-4</v>
+      </c>
+      <c r="D212">
+        <v>2.6447216000000004E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213">
+        <v>2.3700287520000003E-4</v>
+      </c>
+      <c r="D213">
+        <v>1.3223608000000002E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C214">
+        <v>9.480115007999999E-4</v>
+      </c>
+      <c r="D214">
+        <v>5.2894432000000007E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>1.5599014E-3</v>
+      </c>
+      <c r="D215">
+        <v>2.8356624000000002E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C216">
+        <v>2.4958422400000004E-4</v>
+      </c>
+      <c r="D216">
+        <v>3.7808831999999997E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C217">
+        <v>1.3727132320000002E-3</v>
+      </c>
+      <c r="D217">
+        <v>1.2602944E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C218">
+        <v>8.7354478400000039E-5</v>
+      </c>
+      <c r="D218">
+        <v>6.3014720000000013E-5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C219">
+        <v>3.4941791360000005E-4</v>
+      </c>
+      <c r="D219">
+        <v>2.5205888E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C220">
+        <v>2.2462580160000003E-4</v>
+      </c>
+      <c r="D220">
+        <v>1.2602944000000003E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>8.9850320639999989E-4</v>
+      </c>
+      <c r="D221">
+        <v>5.0411776E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>1.4739495E-3</v>
+      </c>
+      <c r="D222">
+        <v>2.6960130000000006E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C223">
+        <v>2.3583192000000005E-4</v>
+      </c>
+      <c r="D223">
+        <v>3.5946839999999997E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C224">
+        <v>1.2970755600000001E-3</v>
+      </c>
+      <c r="D224">
+        <v>1.1982280000000002E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225">
+        <v>8.2541172000000039E-5</v>
+      </c>
+      <c r="D225">
+        <v>5.9911400000000017E-5</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C226">
+        <v>3.3016468800000005E-4</v>
+      </c>
+      <c r="D226">
+        <v>2.3964560000000002E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C227">
+        <v>2.12248728E-4</v>
+      </c>
+      <c r="D227">
+        <v>1.1982280000000003E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C228">
+        <v>8.4899491199999988E-4</v>
+      </c>
+      <c r="D228">
+        <v>4.7929120000000003E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>1.4121964E-3</v>
+      </c>
+      <c r="D229">
+        <v>2.5935505200000005E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C230">
+        <v>2.2595142400000005E-4</v>
+      </c>
+      <c r="D230">
+        <v>3.4580673599999998E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C231">
+        <v>1.2427328320000002E-3</v>
+      </c>
+      <c r="D231">
+        <v>1.1526891200000001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C232">
+        <v>7.9082998400000043E-5</v>
+      </c>
+      <c r="D232">
+        <v>5.7634456000000012E-5</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C233">
+        <v>3.1633199360000006E-4</v>
+      </c>
+      <c r="D233">
+        <v>2.3053782400000002E-4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C234">
+        <v>2.0335628160000001E-4</v>
+      </c>
+      <c r="D234">
+        <v>1.1526891200000002E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C235">
+        <v>8.1342512639999995E-4</v>
+      </c>
+      <c r="D235">
+        <v>4.6107564800000004E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236">
+        <v>1.3504432999999999E-3</v>
+      </c>
+      <c r="D236">
+        <v>2.4910880400000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C237">
+        <v>2.1607092800000002E-4</v>
+      </c>
+      <c r="D237">
+        <v>3.3214507199999998E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C238">
+        <v>1.1883901039999999E-3</v>
+      </c>
+      <c r="D238">
+        <v>1.10715024E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239">
+        <v>7.5624824800000034E-5</v>
+      </c>
+      <c r="D239">
+        <v>5.5357512000000006E-5</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C240">
+        <v>3.0249929920000003E-4</v>
+      </c>
+      <c r="D240">
+        <v>2.21430048E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C241">
+        <v>1.9446383520000001E-4</v>
+      </c>
+      <c r="D241">
+        <v>1.1071502400000001E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C242">
+        <v>7.7785534079999991E-4</v>
+      </c>
+      <c r="D242">
+        <v>4.4286009599999999E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243">
+        <v>1.2886902E-3</v>
+      </c>
+      <c r="D243">
+        <v>2.3886255600000005E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C244">
+        <v>2.0619043200000004E-4</v>
+      </c>
+      <c r="D244">
+        <v>3.1848340799999999E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C245">
+        <v>1.134047376E-3</v>
+      </c>
+      <c r="D245">
+        <v>1.0616113600000001E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C246">
+        <v>7.2166651200000038E-5</v>
+      </c>
+      <c r="D246">
+        <v>5.3080568000000014E-5</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C247">
+        <v>2.8866660480000004E-4</v>
+      </c>
+      <c r="D247">
+        <v>2.1232227200000003E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C248">
+        <v>1.8557138880000002E-4</v>
+      </c>
+      <c r="D248">
+        <v>1.0616113600000003E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C249">
+        <v>7.4228555519999999E-4</v>
+      </c>
+      <c r="D249">
+        <v>4.2464454400000006E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C250">
+        <v>1.2269371E-3</v>
+      </c>
+      <c r="D250">
+        <v>2.2861630800000005E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C251">
+        <v>1.9630993600000003E-4</v>
+      </c>
+      <c r="D251">
+        <v>3.04821744E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C252">
+        <v>1.0797046480000001E-3</v>
+      </c>
+      <c r="D252">
+        <v>1.0160724800000001E-3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C253">
+        <v>6.8708477600000028E-5</v>
+      </c>
+      <c r="D253">
+        <v>5.0803624000000015E-5</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C254">
+        <v>2.7483391040000001E-4</v>
+      </c>
+      <c r="D254">
+        <v>2.0321449600000003E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C255">
+        <v>1.7667894240000001E-4</v>
+      </c>
+      <c r="D255">
+        <v>1.0160724800000003E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256">
+        <v>7.0671576959999995E-4</v>
+      </c>
+      <c r="D256">
+        <v>4.0642899200000007E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C257">
+        <v>1.1651840000000001E-3</v>
+      </c>
+      <c r="D257">
+        <v>2.1837006000000004E-3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C258">
+        <v>1.8642944000000006E-4</v>
+      </c>
+      <c r="D258">
+        <v>2.9116007999999995E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C259">
+        <v>1.02536192E-3</v>
+      </c>
+      <c r="D259">
+        <v>9.7053359999999997E-4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C260">
+        <v>6.5250304000000032E-5</v>
+      </c>
+      <c r="D260">
+        <v>4.852668000000001E-5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C261">
+        <v>2.6100121600000002E-4</v>
+      </c>
+      <c r="D261">
+        <v>1.9410672000000001E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C262">
+        <v>1.6778649600000003E-4</v>
+      </c>
+      <c r="D262">
+        <v>9.7053360000000019E-5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C263">
+        <v>6.7114598400000002E-4</v>
+      </c>
+      <c r="D263">
+        <v>3.8821344000000002E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264">
+        <v>1.1086008E-3</v>
+      </c>
+      <c r="D264">
+        <v>2.0875361400000004E-3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C265">
+        <v>1.7737612800000003E-4</v>
+      </c>
+      <c r="D265">
+        <v>2.7833815199999998E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C266">
+        <v>9.7556870400000001E-4</v>
+      </c>
+      <c r="D266">
+        <v>9.2779384E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267">
+        <v>6.2081644800000032E-5</v>
+      </c>
+      <c r="D267">
+        <v>4.6389692000000006E-5</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C268">
+        <v>2.4832657920000002E-4</v>
+      </c>
+      <c r="D268">
+        <v>1.85558768E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C269">
+        <v>1.5963851520000002E-4</v>
+      </c>
+      <c r="D269">
+        <v>9.2779384000000011E-5</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C270">
+        <v>6.3855406079999996E-4</v>
+      </c>
+      <c r="D270">
+        <v>3.7111753599999999E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271">
+        <v>1.0520175999999999E-3</v>
+      </c>
+      <c r="D271">
+        <v>1.9913716800000003E-3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C272">
+        <v>1.6832281600000001E-4</v>
+      </c>
+      <c r="D272">
+        <v>2.6551622399999996E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C273">
+        <v>9.2577548799999999E-4</v>
+      </c>
+      <c r="D273">
+        <v>8.8505408000000003E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C274">
+        <v>5.8912985600000026E-5</v>
+      </c>
+      <c r="D274">
+        <v>4.4252704000000008E-5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C275">
+        <v>2.3565194239999999E-4</v>
+      </c>
+      <c r="D275">
+        <v>1.7701081600000001E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C276">
+        <v>1.514905344E-4</v>
+      </c>
+      <c r="D276">
+        <v>8.8505408000000017E-5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C277">
+        <v>6.059621375999999E-4</v>
+      </c>
+      <c r="D277">
+        <v>3.5402163200000001E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278">
+        <v>9.9543440000000004E-4</v>
+      </c>
+      <c r="D278">
+        <v>1.8952072200000001E-3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C279">
+        <v>1.5926950400000001E-4</v>
+      </c>
+      <c r="D279">
+        <v>2.5269429599999999E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C280">
+        <v>8.7598227199999997E-4</v>
+      </c>
+      <c r="D280">
+        <v>8.4231431999999995E-4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C281">
+        <v>5.5744326400000026E-5</v>
+      </c>
+      <c r="D281">
+        <v>4.2115716000000004E-5</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C282">
+        <v>2.2297730560000002E-4</v>
+      </c>
+      <c r="D282">
+        <v>1.6846286399999999E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C283">
+        <v>1.4334255360000001E-4</v>
+      </c>
+      <c r="D283">
+        <v>8.4231432000000009E-5</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C284">
+        <v>5.7337021439999995E-4</v>
+      </c>
+      <c r="D284">
+        <v>3.3692572799999998E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C285">
+        <v>9.3885120000000016E-4</v>
+      </c>
+      <c r="D285">
+        <v>1.7990427600000003E-3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C286">
+        <v>1.5021619200000005E-4</v>
+      </c>
+      <c r="D286">
+        <v>2.3987236799999999E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C287">
+        <v>8.2618905600000017E-4</v>
+      </c>
+      <c r="D287">
+        <v>7.9957456000000009E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C288">
+        <v>5.2575667200000032E-5</v>
+      </c>
+      <c r="D288">
+        <v>3.9978728000000007E-5</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C289">
+        <v>2.1030266880000005E-4</v>
+      </c>
+      <c r="D289">
+        <v>1.5991491200000003E-4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C290">
+        <v>1.3519457280000002E-4</v>
+      </c>
+      <c r="D290">
+        <v>7.9957456000000015E-5</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C291">
+        <v>5.407782912000001E-4</v>
+      </c>
+      <c r="D291">
+        <v>3.1982982400000006E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C292">
+        <v>8.8226800000000007E-4</v>
+      </c>
+      <c r="D292">
+        <v>1.7028783000000002E-3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C293">
+        <v>1.4116288000000005E-4</v>
+      </c>
+      <c r="D293">
+        <v>2.2705043999999999E-4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C294">
+        <v>7.7639584000000015E-4</v>
+      </c>
+      <c r="D294">
+        <v>7.5683480000000001E-4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295">
+        <v>4.9407008000000032E-5</v>
+      </c>
+      <c r="D295">
+        <v>3.784174000000001E-5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C296">
+        <v>1.9762803200000005E-4</v>
+      </c>
+      <c r="D296">
+        <v>1.5136696000000001E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C297">
+        <v>1.2704659200000001E-4</v>
+      </c>
+      <c r="D297">
+        <v>7.568348000000002E-5</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C298">
+        <v>5.0818636800000004E-4</v>
+      </c>
+      <c r="D298">
+        <v>3.0273392000000003E-4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C299">
+        <v>8.2905950000000011E-4</v>
+      </c>
+      <c r="D299">
+        <v>1.6088040000000001E-3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>1.3264952000000005E-4</v>
+      </c>
+      <c r="D300">
+        <v>2.1450719999999997E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C301">
+        <v>7.2957236000000013E-4</v>
+      </c>
+      <c r="D301">
+        <v>7.1502399999999998E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C302">
+        <v>4.6427332000000023E-5</v>
+      </c>
+      <c r="D302">
+        <v>3.5751200000000004E-5</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C303">
+        <v>1.8570932800000004E-4</v>
+      </c>
+      <c r="D303">
+        <v>1.4300480000000002E-4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C304">
+        <v>1.1938456800000001E-4</v>
+      </c>
+      <c r="D304">
+        <v>7.1502400000000008E-5</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305">
+        <v>4.77538272E-4</v>
+      </c>
+      <c r="D305">
+        <v>2.8600960000000003E-4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306">
+        <v>7.7585100000000004E-4</v>
+      </c>
+      <c r="D306">
+        <v>1.5147297000000001E-3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C307">
+        <v>1.2413616000000002E-4</v>
+      </c>
+      <c r="D307">
+        <v>2.0196395999999998E-4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C308">
+        <v>6.8274888000000012E-4</v>
+      </c>
+      <c r="D308">
+        <v>6.7321319999999994E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C309">
+        <v>4.3447656000000021E-5</v>
+      </c>
+      <c r="D309">
+        <v>3.3660660000000005E-5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C310">
+        <v>1.7379062400000003E-4</v>
+      </c>
+      <c r="D310">
+        <v>1.3464263999999999E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311">
+        <v>1.1172254400000001E-4</v>
+      </c>
+      <c r="D311">
+        <v>6.732132000000001E-5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C312">
+        <v>4.4689017599999997E-4</v>
+      </c>
+      <c r="D312">
+        <v>2.6928527999999999E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C313">
+        <v>7.2264250000000007E-4</v>
+      </c>
+      <c r="D313">
+        <v>1.4206554E-3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C314">
+        <v>1.1562280000000003E-4</v>
+      </c>
+      <c r="D314">
+        <v>1.8942071999999995E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C315">
+        <v>6.359254000000001E-4</v>
+      </c>
+      <c r="D315">
+        <v>6.314023999999999E-4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C316">
+        <v>4.0467980000000018E-5</v>
+      </c>
+      <c r="D316">
+        <v>3.1570119999999999E-5</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C317">
+        <v>1.6187192000000002E-4</v>
+      </c>
+      <c r="D317">
+        <v>1.2628048E-4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C318">
+        <v>1.0406052000000001E-4</v>
+      </c>
+      <c r="D318">
+        <v>6.3140239999999998E-5</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C319">
+        <v>4.1624208E-4</v>
+      </c>
+      <c r="D319">
+        <v>2.5256095999999999E-4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5225,10 +8633,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2.7770492352936</v>
+        <v>2.7770492352935996</v>
       </c>
       <c r="C2">
-        <v>2.59599691061972</v>
+        <v>2.595996910619724</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -5236,10 +8644,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.7031458728268</v>
+        <v>2.7031458728268007</v>
       </c>
       <c r="C3">
-        <v>2.5290665297403</v>
+        <v>2.5290665297403003</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -5250,7 +8658,7 @@
         <v>2.62788097023624</v>
       </c>
       <c r="C4">
-        <v>2.46015615714029</v>
+        <v>2.4601561571402883</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5258,10 +8666,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.55261606764568</v>
+        <v>2.5526160676456802</v>
       </c>
       <c r="C5">
-        <v>2.39124578454028</v>
+        <v>2.3912457845402764</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5269,10 +8677,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.47735116505512</v>
+        <v>2.4773511650551203</v>
       </c>
       <c r="C6">
-        <v>2.32233541194026</v>
+        <v>2.3223354119402639</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -5280,10 +8688,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2.40208626246456</v>
+        <v>2.4020862624645605</v>
       </c>
       <c r="C7">
-        <v>2.25342503934025</v>
+        <v>2.253425039340252</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -5294,7 +8702,7 @@
         <v>1.3258305453987</v>
       </c>
       <c r="C8">
-        <v>1.23609843612664</v>
+        <v>1.2360984361266401</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -5302,10 +8710,10 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.28537114554436</v>
+        <v>1.2853711455443642</v>
       </c>
       <c r="C9">
-        <v>1.1994182902301</v>
+        <v>1.1994182902300961</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -5313,10 +8721,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.24491174569003</v>
+        <v>1.2449117456900283</v>
       </c>
       <c r="C10">
-        <v>1.16273814433355</v>
+        <v>1.162738144333552</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -5324,10 +8732,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.910752147236472</v>
+        <v>0.91075214723647191</v>
       </c>
       <c r="C11">
-        <v>0.809515804961136</v>
+        <v>0.80951580496113607</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -5335,7 +8743,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.880158587083896</v>
+        <v>0.88015858708389594</v>
       </c>
       <c r="C12">
         <v>0.783146685543888</v>
@@ -5346,10 +8754,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.84956502693132</v>
+        <v>0.84956502693131997</v>
       </c>
       <c r="C13">
-        <v>0.75677756612664</v>
+        <v>0.75677756612664004</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -5357,10 +8765,10 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3011467928</v>
+        <v>0.30114679280000006</v>
       </c>
       <c r="C14">
-        <v>0.20981396196</v>
+        <v>0.20981396195999999</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -5368,10 +8776,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2900520616</v>
+        <v>0.29005206160000002</v>
       </c>
       <c r="C15">
-        <v>0.20229685112</v>
+        <v>0.20229685111999995</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5379,7 +8787,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2789573304</v>
+        <v>0.27895733040000004</v>
       </c>
       <c r="C16">
         <v>0.19477974028</v>
@@ -5390,10 +8798,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2678625992</v>
+        <v>0.26786259920000005</v>
       </c>
       <c r="C17">
-        <v>0.18726262944</v>
+        <v>0.18726262944000002</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5401,30 +8809,26 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.256767868</v>
+        <v>0.25676786800000001</v>
       </c>
       <c r="C18">
-        <v>0.1797455186</v>
+        <v>0.17974551860000001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="4:5">
+    <row r="1" spans="1:5">
       <c r="D1" t="s">
         <v>108</v>
       </c>
@@ -5536,6 +8940,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_nig.xlsx
+++ b/SDG Financing Simplified model (Egypt)/v4_commented and cleaned - for calibration/auxiliary/datainput_nig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Wi2050\SDG Financing Simplified model (Egypt)\v4_commented and cleaned - for calibration\auxiliary\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B956FF9-EDFB-485B-BAF0-87AE48A6931C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3384" yWindow="3384" windowWidth="17280" windowHeight="9960" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="popg0" sheetId="1" r:id="rId1"/>
@@ -400,25 +394,361 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -426,13 +756,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,17 +1012,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -708,19 +1324,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,10 +1351,10 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>3.5590854000000003</v>
+        <v>3.5590854</v>
       </c>
       <c r="C2">
-        <v>3.3896795600000007</v>
+        <v>3.38967956</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -744,10 +1362,10 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>3.4754932000000003</v>
+        <v>3.4754932</v>
       </c>
       <c r="C3">
-        <v>3.3122658000000005</v>
+        <v>3.3122658</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -755,10 +1373,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>3.3919010000000003</v>
+        <v>3.391901</v>
       </c>
       <c r="C4">
-        <v>3.2348520400000003</v>
+        <v>3.23485204</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -766,10 +1384,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>3.3083088000000007</v>
+        <v>3.3083088</v>
       </c>
       <c r="C5">
-        <v>3.1574382800000005</v>
+        <v>3.15743828</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -777,10 +1395,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>3.2247166000000003</v>
+        <v>3.2247166</v>
       </c>
       <c r="C6">
-        <v>3.0800245200000003</v>
+        <v>3.08002452</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -788,10 +1406,10 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>3.1411243999999998</v>
+        <v>3.1411244</v>
       </c>
       <c r="C7">
-        <v>3.0026107600000005</v>
+        <v>3.00261076</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -799,10 +1417,10 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>3.0575322000000003</v>
+        <v>3.0575322</v>
       </c>
       <c r="C8">
-        <v>2.9251970000000003</v>
+        <v>2.925197</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -810,10 +1428,10 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.9723999600000002</v>
+        <v>2.97239996</v>
       </c>
       <c r="C9">
-        <v>2.8454931200000004</v>
+        <v>2.84549312</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -821,10 +1439,10 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.8872677200000001</v>
+        <v>2.88726772</v>
       </c>
       <c r="C10">
-        <v>2.7657892400000001</v>
+        <v>2.76578924</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -835,7 +1453,7 @@
         <v>2.80213548</v>
       </c>
       <c r="C11">
-        <v>2.6860853600000003</v>
+        <v>2.68608536</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -843,7 +1461,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.7170032399999999</v>
+        <v>2.71700324</v>
       </c>
       <c r="C12">
         <v>2.60638148</v>
@@ -854,10 +1472,10 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.6318709999999998</v>
+        <v>2.631871</v>
       </c>
       <c r="C13">
-        <v>2.5266776000000002</v>
+        <v>2.5266776</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -865,10 +1483,10 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.5515561200000003</v>
+        <v>2.55155612</v>
       </c>
       <c r="C14">
-        <v>2.4517006400000003</v>
+        <v>2.45170064</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -876,10 +1494,10 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.4712412400000003</v>
+        <v>2.47124124</v>
       </c>
       <c r="C15">
-        <v>2.3767236800000004</v>
+        <v>2.37672368</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -887,10 +1505,10 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.3909263599999999</v>
+        <v>2.39092636</v>
       </c>
       <c r="C16">
-        <v>2.3017467200000001</v>
+        <v>2.30174672</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -898,10 +1516,10 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.3106114799999999</v>
+        <v>2.31061148</v>
       </c>
       <c r="C17">
-        <v>2.2267697600000003</v>
+        <v>2.22676976</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -912,7 +1530,7 @@
         <v>2.2302966</v>
       </c>
       <c r="C18">
-        <v>2.1517927999999999</v>
+        <v>2.1517928</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -920,10 +1538,10 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.1510485200000002</v>
+        <v>2.15104852</v>
       </c>
       <c r="C19">
-        <v>2.0773659599999998</v>
+        <v>2.07736596</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -931,10 +1549,10 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.0718004400000001</v>
+        <v>2.07180044</v>
       </c>
       <c r="C20">
-        <v>2.0029391199999997</v>
+        <v>2.00293912</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -942,10 +1560,10 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.9925523600000001</v>
+        <v>1.99255236</v>
       </c>
       <c r="C21">
-        <v>1.9285122799999999</v>
+        <v>1.92851228</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -953,10 +1571,10 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.9133042800000004</v>
+        <v>1.91330428</v>
       </c>
       <c r="C22">
-        <v>1.8540854400000002</v>
+        <v>1.85408544</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -964,10 +1582,10 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>1.8340562000000002</v>
+        <v>1.8340562</v>
       </c>
       <c r="C23">
-        <v>1.7796586000000001</v>
+        <v>1.7796586</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -975,10 +1593,10 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>1.7736693600000004</v>
+        <v>1.77366936</v>
       </c>
       <c r="C24">
-        <v>1.7216562800000001</v>
+        <v>1.72165628</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -986,7 +1604,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>1.7132825199999999</v>
+        <v>1.71328252</v>
       </c>
       <c r="C25">
         <v>1.66365396</v>
@@ -997,7 +1615,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>1.6528956800000001</v>
+        <v>1.65289568</v>
       </c>
       <c r="C26">
         <v>1.60565164</v>
@@ -1011,7 +1629,7 @@
         <v>1.59250884</v>
       </c>
       <c r="C27">
-        <v>1.5476493199999999</v>
+        <v>1.54764932</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1022,7 +1640,7 @@
         <v>1.532122</v>
       </c>
       <c r="C28">
-        <v>1.4896469999999999</v>
+        <v>1.489647</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1033,7 +1651,7 @@
         <v>1.49025648</v>
       </c>
       <c r="C29">
-        <v>1.4489392000000001</v>
+        <v>1.4489392</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1066,7 +1684,7 @@
         <v>1.36465992</v>
       </c>
       <c r="C32">
-        <v>1.3268158000000001</v>
+        <v>1.3268158</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1085,10 +1703,10 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.2880496400000001</v>
+        <v>1.28804964</v>
       </c>
       <c r="C34">
-        <v>1.2520138000000001</v>
+        <v>1.2520138</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1096,10 +1714,10 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.2533048800000002</v>
+        <v>1.25330488</v>
       </c>
       <c r="C35">
-        <v>1.2179196000000001</v>
+        <v>1.2179196</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1110,7 +1728,7 @@
         <v>1.21856012</v>
       </c>
       <c r="C36">
-        <v>1.1838254000000001</v>
+        <v>1.1838254</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1118,7 +1736,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.1838153600000001</v>
+        <v>1.18381536</v>
       </c>
       <c r="C37">
         <v>1.1497312</v>
@@ -1129,10 +1747,10 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.1490706000000002</v>
+        <v>1.1490706</v>
       </c>
       <c r="C38">
-        <v>1.1156370000000002</v>
+        <v>1.115637</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1140,7 +1758,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.1106871199999999</v>
+        <v>1.11068712</v>
       </c>
       <c r="C39">
         <v>1.07942468</v>
@@ -1151,10 +1769,10 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.0723036399999999</v>
+        <v>1.07230364</v>
       </c>
       <c r="C40">
-        <v>1.0432123600000001</v>
+        <v>1.04321236</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1162,10 +1780,10 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.0339201600000001</v>
+        <v>1.03392016</v>
       </c>
       <c r="C41">
-        <v>1.0070000400000001</v>
+        <v>1.00700004</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1173,10 +1791,10 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.99553668000000006</v>
+        <v>0.99553668</v>
       </c>
       <c r="C42">
-        <v>0.97078772000000013</v>
+        <v>0.97078772</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1184,10 +1802,10 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.95715319999999993</v>
+        <v>0.9571532</v>
       </c>
       <c r="C43">
-        <v>0.93457540000000017</v>
+        <v>0.9345754</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1195,10 +1813,10 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.91801927999999988</v>
+        <v>0.91801928</v>
       </c>
       <c r="C44">
-        <v>0.89851632000000015</v>
+        <v>0.89851632</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1206,10 +1824,10 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.87888536000000006</v>
+        <v>0.87888536</v>
       </c>
       <c r="C45">
-        <v>0.86245724000000012</v>
+        <v>0.86245724</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1217,10 +1835,10 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.83975144000000002</v>
+        <v>0.83975144</v>
       </c>
       <c r="C46">
-        <v>0.8263981600000001</v>
+        <v>0.82639816</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1228,10 +1846,10 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.80061751999999997</v>
+        <v>0.80061752</v>
       </c>
       <c r="C47">
-        <v>0.79033908000000008</v>
+        <v>0.79033908</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1239,10 +1857,10 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.76148360000000004</v>
+        <v>0.7614836</v>
       </c>
       <c r="C48">
-        <v>0.75428000000000006</v>
+        <v>0.75428</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1250,10 +1868,10 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.72710284000000003</v>
+        <v>0.72710284</v>
       </c>
       <c r="C49">
-        <v>0.72324679999999997</v>
+        <v>0.7232468</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1261,10 +1879,10 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.69272208000000002</v>
+        <v>0.69272208</v>
       </c>
       <c r="C50">
-        <v>0.6922136000000001</v>
+        <v>0.6922136</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1272,7 +1890,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.65834132000000001</v>
+        <v>0.65834132</v>
       </c>
       <c r="C51">
         <v>0.6611804</v>
@@ -1286,7 +1904,7 @@
         <v>0.62396056</v>
       </c>
       <c r="C52">
-        <v>0.63014720000000002</v>
+        <v>0.6301472</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1294,10 +1912,10 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.58957979999999999</v>
+        <v>0.5895798</v>
       </c>
       <c r="C53">
-        <v>0.59911400000000004</v>
+        <v>0.599114</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1305,10 +1923,10 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.56487856000000003</v>
+        <v>0.56487856</v>
       </c>
       <c r="C54">
-        <v>0.57634456000000001</v>
+        <v>0.57634456</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1316,10 +1934,10 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.54017731999999996</v>
+        <v>0.54017732</v>
       </c>
       <c r="C55">
-        <v>0.55357511999999998</v>
+        <v>0.55357512</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1330,7 +1948,7 @@
         <v>0.51547608</v>
       </c>
       <c r="C56">
-        <v>0.53080568000000006</v>
+        <v>0.53080568</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1338,10 +1956,10 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.49077483999999999</v>
+        <v>0.49077484</v>
       </c>
       <c r="C57">
-        <v>0.50803624000000003</v>
+        <v>0.50803624</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1349,7 +1967,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.46607360000000003</v>
+        <v>0.4660736</v>
       </c>
       <c r="C58">
         <v>0.4852668</v>
@@ -1363,7 +1981,7 @@
         <v>0.44344032</v>
       </c>
       <c r="C59">
-        <v>0.46389691999999999</v>
+        <v>0.46389692</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1371,10 +1989,10 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.42080703999999997</v>
+        <v>0.42080704</v>
       </c>
       <c r="C60">
-        <v>0.44252703999999998</v>
+        <v>0.44252704</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1382,10 +2000,10 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.39817375999999999</v>
+        <v>0.39817376</v>
       </c>
       <c r="C61">
-        <v>0.42115715999999997</v>
+        <v>0.42115716</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1393,10 +2011,10 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.37554048000000007</v>
+        <v>0.37554048</v>
       </c>
       <c r="C62">
-        <v>0.39978728000000002</v>
+        <v>0.39978728</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1404,10 +2022,10 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.35290720000000003</v>
+        <v>0.3529072</v>
       </c>
       <c r="C63">
-        <v>0.37841740000000001</v>
+        <v>0.3784174</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1415,7 +2033,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.33162380000000002</v>
+        <v>0.3316238</v>
       </c>
       <c r="C64">
         <v>0.357512</v>
@@ -1426,10 +2044,10 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.31034040000000002</v>
+        <v>0.3103404</v>
       </c>
       <c r="C65">
-        <v>0.33660659999999998</v>
+        <v>0.3366066</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1437,10 +2055,10 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.28905700000000001</v>
+        <v>0.289057</v>
       </c>
       <c r="C66">
-        <v>0.31570119999999996</v>
+        <v>0.3157012</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1459,10 +2077,10 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.24649020000000002</v>
+        <v>0.2464902</v>
       </c>
       <c r="C68">
-        <v>0.27389040000000003</v>
+        <v>0.2738904</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1470,7 +2088,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.22984512000000001</v>
+        <v>0.22984512</v>
       </c>
       <c r="C69">
         <v>0.25513584</v>
@@ -1481,10 +2099,10 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.21320004000000001</v>
+        <v>0.21320004</v>
       </c>
       <c r="C70">
-        <v>0.23638127999999997</v>
+        <v>0.23638128</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1503,10 +2121,10 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.17990987999999999</v>
+        <v>0.17990988</v>
       </c>
       <c r="C72">
-        <v>0.19887215999999999</v>
+        <v>0.19887216</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1514,10 +2132,10 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.16326479999999999</v>
+        <v>0.1632648</v>
       </c>
       <c r="C73">
-        <v>0.18011759999999999</v>
+        <v>0.1801176</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1525,10 +2143,10 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.14766915999999999</v>
+        <v>0.14766916</v>
       </c>
       <c r="C74">
-        <v>0.16330839999999999</v>
+        <v>0.1633084</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1547,7 +2165,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.11647787999999999</v>
+        <v>0.11647788</v>
       </c>
       <c r="C76">
         <v>0.12969</v>
@@ -1569,10 +2187,10 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>8.5286600000000004E-2</v>
+        <v>0.0852866</v>
       </c>
       <c r="C78">
-        <v>9.6071600000000007E-2</v>
+        <v>0.0960716</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -1580,10 +2198,10 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>7.4389239999999995E-2</v>
+        <v>0.07438924</v>
       </c>
       <c r="C79">
-        <v>8.4031240000000007E-2</v>
+        <v>0.08403124</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1591,10 +2209,10 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>6.3491880000000001E-2</v>
+        <v>0.06349188</v>
       </c>
       <c r="C80">
-        <v>7.1990879999999993E-2</v>
+        <v>0.07199088</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -1602,10 +2220,10 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>5.2594520000000006E-2</v>
+        <v>0.05259452</v>
       </c>
       <c r="C81">
-        <v>5.995052E-2</v>
+        <v>0.05995052</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -1613,10 +2231,10 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>4.1697160000000004E-2</v>
+        <v>0.04169716</v>
       </c>
       <c r="C82">
-        <v>4.791016E-2</v>
+        <v>0.04791016</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1624,10 +2242,10 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>3.0799800000000002E-2</v>
+        <v>0.0307998</v>
       </c>
       <c r="C83">
-        <v>3.58698E-2</v>
+        <v>0.0358698</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -1635,10 +2253,10 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2.6002560000000001E-2</v>
+        <v>0.02600256</v>
       </c>
       <c r="C84">
-        <v>3.0350640000000002E-2</v>
+        <v>0.03035064</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -1646,10 +2264,10 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>2.120532E-2</v>
+        <v>0.02120532</v>
       </c>
       <c r="C85">
-        <v>2.483148E-2</v>
+        <v>0.02483148</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1657,10 +2275,10 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1.6408079999999998E-2</v>
+        <v>0.01640808</v>
       </c>
       <c r="C86">
-        <v>1.9312319999999997E-2</v>
+        <v>0.01931232</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -1668,10 +2286,10 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1.1610839999999999E-2</v>
+        <v>0.01161084</v>
       </c>
       <c r="C87">
-        <v>1.379316E-2</v>
+        <v>0.01379316</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -1679,10 +2297,10 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>6.8135999999999995E-3</v>
+        <v>0.0068136</v>
       </c>
       <c r="C88">
-        <v>8.2740000000000001E-3</v>
+        <v>0.008274</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1690,10 +2308,10 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>5.6084400000000001E-3</v>
+        <v>0.00560844</v>
       </c>
       <c r="C89">
-        <v>6.8284799999999996E-3</v>
+        <v>0.00682848</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -1701,10 +2319,10 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>4.4032799999999999E-3</v>
+        <v>0.00440328</v>
       </c>
       <c r="C90">
-        <v>5.38296E-3</v>
+        <v>0.00538296</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -1712,10 +2330,10 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>3.1981199999999996E-3</v>
+        <v>0.00319812</v>
       </c>
       <c r="C91">
-        <v>3.9374399999999986E-3</v>
+        <v>0.00393744</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1723,10 +2341,10 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1.9929599999999994E-3</v>
+        <v>0.00199296</v>
       </c>
       <c r="C92">
-        <v>2.4919199999999999E-3</v>
+        <v>0.00249192</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -1734,10 +2352,10 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>7.8780000000000007E-4</v>
+        <v>0.0007878</v>
       </c>
       <c r="C93">
-        <v>1.0464000000000001E-3</v>
+        <v>0.0010464</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -1745,10 +2363,10 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>6.3995999999999996E-4</v>
+        <v>0.00063996</v>
       </c>
       <c r="C94">
-        <v>8.5296000000000005E-4</v>
+        <v>0.00085296</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1756,10 +2374,10 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>4.9211999999999997E-4</v>
+        <v>0.00049212</v>
       </c>
       <c r="C95">
-        <v>6.5952000000000003E-4</v>
+        <v>0.00065952</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -1767,10 +2385,10 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3.4427999999999992E-4</v>
+        <v>0.00034428</v>
       </c>
       <c r="C96">
-        <v>4.6607999999999996E-4</v>
+        <v>0.00046608</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -1778,10 +2396,10 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1.9643999999999996E-4</v>
+        <v>0.00019644</v>
       </c>
       <c r="C97">
-        <v>2.7263999999999999E-4</v>
+        <v>0.00027264</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1789,10 +2407,10 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>4.8600000000000002E-5</v>
+        <v>4.86e-5</v>
       </c>
       <c r="C98">
-        <v>7.9200000000000014E-5</v>
+        <v>7.92e-5</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -1800,10 +2418,10 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>3.9360000000000003E-5</v>
+        <v>3.936e-5</v>
       </c>
       <c r="C99">
-        <v>6.408000000000001E-5</v>
+        <v>6.408e-5</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -1811,10 +2429,10 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.0120000000000003E-5</v>
+        <v>3.012e-5</v>
       </c>
       <c r="C100">
-        <v>4.8960000000000006E-5</v>
+        <v>4.896e-5</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1822,26 +2440,30 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.088E-5</v>
+        <v>2.088e-5</v>
       </c>
       <c r="C101">
-        <v>3.3840000000000001E-5</v>
+        <v>3.384e-5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>102</v>
       </c>
@@ -1851,7 +2473,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1859,7 +2481,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1867,7 +2489,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1875,7 +2497,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1883,7 +2505,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>9.7900000000000001E-2</v>
+        <v>0.0979</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1931,7 +2553,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>0.22869999999999999</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1939,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>0.22869999999999999</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1947,7 +2569,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>0.22869999999999999</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1955,7 +2577,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>0.22869999999999999</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1963,7 +2585,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>0.22869999999999999</v>
+        <v>0.2287</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1971,7 +2593,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.20019999999999999</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1979,7 +2601,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.20019999999999999</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1987,7 +2609,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.20019999999999999</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1995,7 +2617,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.20019999999999999</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2003,7 +2625,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.20019999999999999</v>
+        <v>0.2002</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2011,7 +2633,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>0.16719999999999999</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2019,7 +2641,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>0.16719999999999999</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2027,7 +2649,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>0.16719999999999999</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2035,7 +2657,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>0.16719999999999999</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2043,7 +2665,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>0.16719999999999999</v>
+        <v>0.1672</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2051,7 +2673,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2059,7 +2681,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2067,7 +2689,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2075,7 +2697,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2083,7 +2705,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>7.5999999999999998E-2</v>
+        <v>0.076</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2091,7 +2713,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2099,7 +2721,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2107,7 +2729,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2115,7 +2737,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2123,23 +2745,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>2.8500000000000001E-2</v>
+        <v>0.0285</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="2:2">
       <c r="B1" t="s">
         <v>103</v>
       </c>
@@ -2149,7 +2775,7 @@
         <v>16</v>
       </c>
       <c r="B2">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2157,7 +2783,7 @@
         <v>17</v>
       </c>
       <c r="B3">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2165,7 +2791,7 @@
         <v>18</v>
       </c>
       <c r="B4">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2173,7 +2799,7 @@
         <v>19</v>
       </c>
       <c r="B5">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2181,7 +2807,7 @@
         <v>20</v>
       </c>
       <c r="B6">
-        <v>1.2303401660160302E-2</v>
+        <v>0.0123034016601603</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2189,7 +2815,7 @@
         <v>21</v>
       </c>
       <c r="B7">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2197,7 +2823,7 @@
         <v>22</v>
       </c>
       <c r="B8">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2205,7 +2831,7 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2213,7 +2839,7 @@
         <v>24</v>
       </c>
       <c r="B10">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2221,7 +2847,7 @@
         <v>25</v>
       </c>
       <c r="B11">
-        <v>4.5593210591135407E-2</v>
+        <v>0.0455932105911354</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2229,7 +2855,7 @@
         <v>26</v>
       </c>
       <c r="B12">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2237,7 +2863,7 @@
         <v>27</v>
       </c>
       <c r="B13">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2245,7 +2871,7 @@
         <v>28</v>
       </c>
       <c r="B14">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2253,7 +2879,7 @@
         <v>29</v>
       </c>
       <c r="B15">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2261,7 +2887,7 @@
         <v>30</v>
       </c>
       <c r="B16">
-        <v>8.7953933351756511E-2</v>
+        <v>0.0879539333517565</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2269,7 +2895,7 @@
         <v>31</v>
       </c>
       <c r="B17">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2277,7 +2903,7 @@
         <v>32</v>
       </c>
       <c r="B18">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2285,7 +2911,7 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2293,7 +2919,7 @@
         <v>34</v>
       </c>
       <c r="B20">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2301,7 +2927,7 @@
         <v>35</v>
       </c>
       <c r="B21">
-        <v>0.10731871791146501</v>
+        <v>0.107318717911465</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2309,7 +2935,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2317,7 +2943,7 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2325,7 +2951,7 @@
         <v>38</v>
       </c>
       <c r="B24">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2333,7 +2959,7 @@
         <v>39</v>
       </c>
       <c r="B25">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2341,7 +2967,7 @@
         <v>40</v>
       </c>
       <c r="B26">
-        <v>6.4672096873727894E-2</v>
+        <v>0.0646720968737279</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2349,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="B27">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2357,7 +2983,7 @@
         <v>42</v>
       </c>
       <c r="B28">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2365,7 +2991,7 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2373,7 +2999,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2381,7 +3007,7 @@
         <v>45</v>
       </c>
       <c r="B31">
-        <v>1.5404768433584102E-2</v>
+        <v>0.0154047684335841</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2389,7 +3015,7 @@
         <v>46</v>
       </c>
       <c r="B32">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2397,7 +3023,7 @@
         <v>47</v>
       </c>
       <c r="B33">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2405,7 +3031,7 @@
         <v>48</v>
       </c>
       <c r="B34">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2413,7 +3039,7 @@
         <v>49</v>
       </c>
       <c r="B35">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2421,23 +3047,27 @@
         <v>50</v>
       </c>
       <c r="B36">
-        <v>1.4300473358390799E-3</v>
+        <v>0.00143004733583908</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="2:5">
       <c r="B1" s="1" t="s">
         <v>104</v>
       </c>
@@ -2456,16 +3086,16 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.94108370000000008</v>
+        <v>0.9410837</v>
       </c>
       <c r="C2">
-        <v>0.94965060000000001</v>
+        <v>0.9496506</v>
       </c>
       <c r="D2">
-        <v>0.99558466277631907</v>
+        <v>0.995584662776319</v>
       </c>
       <c r="E2">
-        <v>0.99623006393007918</v>
+        <v>0.996230063930079</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2473,16 +3103,16 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.99028965900396593</v>
+        <v>0.990289659003966</v>
       </c>
       <c r="C3">
-        <v>0.9907168229685972</v>
+        <v>0.990716822968597</v>
       </c>
       <c r="D3">
-        <v>0.99973810281849629</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E3">
-        <v>0.99977435331505593</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2490,16 +3120,16 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.99028965900396582</v>
+        <v>0.990289659003966</v>
       </c>
       <c r="C4">
-        <v>0.99071682296859731</v>
+        <v>0.990716822968597</v>
       </c>
       <c r="D4">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E4">
-        <v>0.99977435331505582</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2507,16 +3137,16 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.99028965900396582</v>
+        <v>0.990289659003966</v>
       </c>
       <c r="C5">
-        <v>0.99071682296859731</v>
+        <v>0.990716822968597</v>
       </c>
       <c r="D5">
-        <v>0.9997381028184964</v>
+        <v>0.999738102818496</v>
       </c>
       <c r="E5">
-        <v>0.99977435331505604</v>
+        <v>0.999774353315056</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2524,16 +3154,16 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.99445250098871718</v>
+        <v>0.994452500988717</v>
       </c>
       <c r="C6">
-        <v>0.99700145018153197</v>
+        <v>0.997001450181532</v>
       </c>
       <c r="D6">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E6">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2541,16 +3171,16 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.99445250098871729</v>
+        <v>0.994452500988717</v>
       </c>
       <c r="C7">
-        <v>0.99700145018153208</v>
+        <v>0.997001450181532</v>
       </c>
       <c r="D7">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E7">
-        <v>0.99989558316354421</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2558,16 +3188,16 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.99445250098871718</v>
+        <v>0.994452500988717</v>
       </c>
       <c r="C8">
-        <v>0.99700145018153197</v>
+        <v>0.997001450181532</v>
       </c>
       <c r="D8">
-        <v>0.99987979629162849</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E8">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2575,16 +3205,16 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.99445250098871718</v>
+        <v>0.994452500988717</v>
       </c>
       <c r="C9">
-        <v>0.99700145018153197</v>
+        <v>0.997001450181532</v>
       </c>
       <c r="D9">
-        <v>0.99987979629162826</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E9">
-        <v>0.9998955831635441</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2592,16 +3222,16 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.99445250098871729</v>
+        <v>0.994452500988717</v>
       </c>
       <c r="C10">
-        <v>0.99700145018153208</v>
+        <v>0.997001450181532</v>
       </c>
       <c r="D10">
-        <v>0.99987979629162838</v>
+        <v>0.999879796291628</v>
       </c>
       <c r="E10">
-        <v>0.99989558316354432</v>
+        <v>0.999895583163544</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2609,16 +3239,16 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.99694087155910627</v>
+        <v>0.996940871559106</v>
       </c>
       <c r="C11">
-        <v>0.99975692334728194</v>
+        <v>0.999756923347282</v>
       </c>
       <c r="D11">
-        <v>0.99983111247330836</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E11">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2626,16 +3256,16 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.99694087155910638</v>
+        <v>0.996940871559106</v>
       </c>
       <c r="C12">
-        <v>0.99975692334728183</v>
+        <v>0.999756923347282</v>
       </c>
       <c r="D12">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E12">
-        <v>0.99988752457801644</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2643,16 +3273,16 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.99694087155910638</v>
+        <v>0.996940871559106</v>
       </c>
       <c r="C13">
-        <v>0.99975692334728206</v>
+        <v>0.999756923347282</v>
       </c>
       <c r="D13">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E13">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2660,16 +3290,16 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.99694087155910638</v>
+        <v>0.996940871559106</v>
       </c>
       <c r="C14">
-        <v>0.99975692334728183</v>
+        <v>0.999756923347282</v>
       </c>
       <c r="D14">
-        <v>0.99983111247330825</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E14">
-        <v>0.99988752457801622</v>
+        <v>0.999887524578016</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2677,16 +3307,16 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.99694087155910638</v>
+        <v>0.996940871559106</v>
       </c>
       <c r="C15">
-        <v>0.99975692334728194</v>
+        <v>0.999756923347282</v>
       </c>
       <c r="D15">
-        <v>0.99983111247330847</v>
+        <v>0.999831112473308</v>
       </c>
       <c r="E15">
-        <v>0.99988752457801655</v>
+        <v>0.999887524578017</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2694,16 +3324,16 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.99506009867459755</v>
+        <v>0.995060098674598</v>
       </c>
       <c r="C16">
-        <v>0.99838953953531917</v>
+        <v>0.998389539535319</v>
       </c>
       <c r="D16">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E16">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2711,16 +3341,16 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.99506009867459766</v>
+        <v>0.995060098674598</v>
       </c>
       <c r="C17">
-        <v>0.99838953953531884</v>
+        <v>0.998389539535319</v>
       </c>
       <c r="D17">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E17">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2728,16 +3358,16 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.99506009867459755</v>
+        <v>0.995060098674598</v>
       </c>
       <c r="C18">
-        <v>0.99838953953531906</v>
+        <v>0.998389539535319</v>
       </c>
       <c r="D18">
-        <v>0.99956041881441959</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E18">
-        <v>0.99980613013475406</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2745,16 +3375,16 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.99506009867459755</v>
+        <v>0.995060098674598</v>
       </c>
       <c r="C19">
-        <v>0.99838953953531895</v>
+        <v>0.998389539535319</v>
       </c>
       <c r="D19">
-        <v>0.9995604188144197</v>
+        <v>0.99956041881442</v>
       </c>
       <c r="E19">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2762,16 +3392,16 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>0.99506009867459766</v>
+        <v>0.995060098674598</v>
       </c>
       <c r="C20">
-        <v>0.99838953953531906</v>
+        <v>0.998389539535319</v>
       </c>
       <c r="D20">
-        <v>0.99956041881441948</v>
+        <v>0.999560418814419</v>
       </c>
       <c r="E20">
-        <v>0.99980613013475417</v>
+        <v>0.999806130134754</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2779,16 +3409,16 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>0.99431796707059483</v>
+        <v>0.994317967070595</v>
       </c>
       <c r="C21">
-        <v>0.99758247606070849</v>
+        <v>0.997582476060708</v>
       </c>
       <c r="D21">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E21">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2796,16 +3426,16 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.99431796707059494</v>
+        <v>0.994317967070595</v>
       </c>
       <c r="C22">
-        <v>0.99758247606070871</v>
+        <v>0.997582476060709</v>
       </c>
       <c r="D22">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E22">
-        <v>0.99970132343730977</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2813,16 +3443,16 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.99431796707059494</v>
+        <v>0.994317967070595</v>
       </c>
       <c r="C23">
-        <v>0.99758247606070838</v>
+        <v>0.997582476060708</v>
       </c>
       <c r="D23">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E23">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2830,16 +3460,16 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.99431796707059494</v>
+        <v>0.994317967070595</v>
       </c>
       <c r="C24">
-        <v>0.99758247606070849</v>
+        <v>0.997582476060708</v>
       </c>
       <c r="D24">
-        <v>0.99921940380538199</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E24">
-        <v>0.99970132343730966</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2847,16 +3477,16 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.99431796707059483</v>
+        <v>0.994317967070595</v>
       </c>
       <c r="C25">
-        <v>0.99758247606070849</v>
+        <v>0.997582476060708</v>
       </c>
       <c r="D25">
-        <v>0.9992194038053821</v>
+        <v>0.999219403805382</v>
       </c>
       <c r="E25">
-        <v>0.99970132343730989</v>
+        <v>0.99970132343731</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2864,16 +3494,16 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.99372927185982773</v>
+        <v>0.993729271859828</v>
       </c>
       <c r="C26">
-        <v>0.99687564785495508</v>
+        <v>0.996875647854955</v>
       </c>
       <c r="D26">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E26">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2881,16 +3511,16 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.99372927185982785</v>
+        <v>0.993729271859828</v>
       </c>
       <c r="C27">
-        <v>0.99687564785495486</v>
+        <v>0.996875647854955</v>
       </c>
       <c r="D27">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E27">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2898,16 +3528,16 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.99372927185982773</v>
+        <v>0.993729271859828</v>
       </c>
       <c r="C28">
-        <v>0.99687564785495486</v>
+        <v>0.996875647854955</v>
       </c>
       <c r="D28">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E28">
-        <v>0.99959710625470954</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2915,16 +3545,16 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>0.99372927185982785</v>
+        <v>0.993729271859828</v>
       </c>
       <c r="C29">
-        <v>0.99687564785495497</v>
+        <v>0.996875647854955</v>
       </c>
       <c r="D29">
-        <v>0.99902410238968153</v>
+        <v>0.999024102389682</v>
       </c>
       <c r="E29">
-        <v>0.99959710625470977</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2932,16 +3562,16 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>0.99372927185982762</v>
+        <v>0.993729271859828</v>
       </c>
       <c r="C30">
-        <v>0.99687564785495486</v>
+        <v>0.996875647854955</v>
       </c>
       <c r="D30">
-        <v>0.99902410238968142</v>
+        <v>0.999024102389681</v>
       </c>
       <c r="E30">
-        <v>0.99959710625470966</v>
+        <v>0.99959710625471</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2949,16 +3579,16 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>0.99333301559153697</v>
+        <v>0.993333015591537</v>
       </c>
       <c r="C31">
-        <v>0.99649150178317836</v>
+        <v>0.996491501783178</v>
       </c>
       <c r="D31">
         <v>0.998907537315608</v>
       </c>
       <c r="E31">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2966,16 +3596,16 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>0.99333301559153675</v>
+        <v>0.993333015591537</v>
       </c>
       <c r="C32">
-        <v>0.99649150178317825</v>
+        <v>0.996491501783178</v>
       </c>
       <c r="D32">
-        <v>0.99890753731560789</v>
+        <v>0.998907537315608</v>
       </c>
       <c r="E32">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2983,16 +3613,16 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>0.99333301559153686</v>
+        <v>0.993333015591537</v>
       </c>
       <c r="C33">
-        <v>0.99649150178317814</v>
+        <v>0.996491501783178</v>
       </c>
       <c r="D33">
         <v>0.998907537315608</v>
       </c>
       <c r="E33">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3000,16 +3630,16 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>0.99333301559153675</v>
+        <v>0.993333015591537</v>
       </c>
       <c r="C34">
-        <v>0.99649150178317847</v>
+        <v>0.996491501783178</v>
       </c>
       <c r="D34">
         <v>0.998907537315608</v>
       </c>
       <c r="E34">
-        <v>0.99947001110695288</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3017,16 +3647,16 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>0.99333301559153697</v>
+        <v>0.993333015591537</v>
       </c>
       <c r="C35">
-        <v>0.99649150178317836</v>
+        <v>0.996491501783178</v>
       </c>
       <c r="D35">
         <v>0.998907537315608</v>
       </c>
       <c r="E35">
-        <v>0.99947001110695277</v>
+        <v>0.999470011106953</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3034,16 +3664,16 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>0.99255436369741046</v>
+        <v>0.99255436369741</v>
       </c>
       <c r="C36">
-        <v>0.99595215107107593</v>
+        <v>0.995952151071076</v>
       </c>
       <c r="D36">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E36">
-        <v>0.99927945683978259</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3051,16 +3681,16 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>0.99255436369741035</v>
+        <v>0.99255436369741</v>
       </c>
       <c r="C37">
-        <v>0.99595215107107571</v>
+        <v>0.995952151071076</v>
       </c>
       <c r="D37">
-        <v>0.99868036005587191</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E37">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3068,16 +3698,16 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>0.99255436369741035</v>
+        <v>0.99255436369741</v>
       </c>
       <c r="C38">
-        <v>0.99595215107107593</v>
+        <v>0.995952151071076</v>
       </c>
       <c r="D38">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E38">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3085,16 +3715,16 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>0.99255436369741035</v>
+        <v>0.99255436369741</v>
       </c>
       <c r="C39">
-        <v>0.99595215107107582</v>
+        <v>0.995952151071076</v>
       </c>
       <c r="D39">
-        <v>0.9986803600558718</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E39">
-        <v>0.9992794568397827</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3102,16 +3732,16 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>0.99255436369741035</v>
+        <v>0.99255436369741</v>
       </c>
       <c r="C40">
-        <v>0.99595215107107571</v>
+        <v>0.995952151071076</v>
       </c>
       <c r="D40">
-        <v>0.99868036005587169</v>
+        <v>0.998680360055872</v>
       </c>
       <c r="E40">
-        <v>0.99927945683978281</v>
+        <v>0.999279456839783</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3119,16 +3749,16 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>0.99093533715924553</v>
+        <v>0.990935337159246</v>
       </c>
       <c r="C41">
-        <v>0.99572815794398029</v>
+        <v>0.99572815794398</v>
       </c>
       <c r="D41">
-        <v>0.99817279575377749</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E41">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3136,16 +3766,16 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>0.99093533715924553</v>
+        <v>0.990935337159246</v>
       </c>
       <c r="C42">
-        <v>0.99572815794398017</v>
+        <v>0.99572815794398</v>
       </c>
       <c r="D42">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E42">
-        <v>0.99894213275662436</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3153,16 +3783,16 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.99093533715924553</v>
+        <v>0.990935337159246</v>
       </c>
       <c r="C43">
-        <v>0.99572815794398029</v>
+        <v>0.99572815794398</v>
       </c>
       <c r="D43">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E43">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3170,16 +3800,16 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>0.99093533715924542</v>
+        <v>0.990935337159245</v>
       </c>
       <c r="C44">
-        <v>0.99572815794398017</v>
+        <v>0.99572815794398</v>
       </c>
       <c r="D44">
-        <v>0.99817279575377726</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E44">
-        <v>0.99894213275662447</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3187,16 +3817,16 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.99093533715924542</v>
+        <v>0.990935337159245</v>
       </c>
       <c r="C45">
-        <v>0.99572815794398029</v>
+        <v>0.99572815794398</v>
       </c>
       <c r="D45">
-        <v>0.99817279575377738</v>
+        <v>0.998172795753777</v>
       </c>
       <c r="E45">
-        <v>0.99894213275662425</v>
+        <v>0.998942132756624</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3204,16 +3834,16 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.98897882706607698</v>
+        <v>0.988978827066077</v>
       </c>
       <c r="C46">
-        <v>0.99628460136683006</v>
+        <v>0.99628460136683</v>
       </c>
       <c r="D46">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E46">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3221,16 +3851,16 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.98897882706607698</v>
+        <v>0.988978827066077</v>
       </c>
       <c r="C47">
-        <v>0.99628460136682995</v>
+        <v>0.99628460136683</v>
       </c>
       <c r="D47">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E47">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3238,16 +3868,16 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.98897882706607698</v>
+        <v>0.988978827066077</v>
       </c>
       <c r="C48">
-        <v>0.99628460136683006</v>
+        <v>0.99628460136683</v>
       </c>
       <c r="D48">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E48">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3255,16 +3885,16 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.98897882706607676</v>
+        <v>0.988978827066077</v>
       </c>
       <c r="C49">
-        <v>0.99628460136683006</v>
+        <v>0.99628460136683</v>
       </c>
       <c r="D49">
-        <v>0.99722588158067382</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E49">
-        <v>0.99837112875345924</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3272,16 +3902,16 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>0.98897882706607698</v>
+        <v>0.988978827066077</v>
       </c>
       <c r="C50">
-        <v>0.99628460136683017</v>
+        <v>0.99628460136683</v>
       </c>
       <c r="D50">
-        <v>0.99722588158067393</v>
+        <v>0.997225881580674</v>
       </c>
       <c r="E50">
-        <v>0.99837112875345935</v>
+        <v>0.998371128753459</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3289,16 +3919,16 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>0.98533630307613673</v>
+        <v>0.985336303076137</v>
       </c>
       <c r="C51">
-        <v>0.99582170247595303</v>
+        <v>0.995821702475953</v>
       </c>
       <c r="D51">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E51">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3306,16 +3936,16 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>0.98533630307613673</v>
+        <v>0.985336303076137</v>
       </c>
       <c r="C52">
-        <v>0.9958217024759527</v>
+        <v>0.995821702475953</v>
       </c>
       <c r="D52">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E52">
-        <v>0.99749897621734962</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3323,16 +3953,16 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.98533630307613684</v>
+        <v>0.985336303076137</v>
       </c>
       <c r="C53">
-        <v>0.99582170247595292</v>
+        <v>0.995821702475953</v>
       </c>
       <c r="D53">
-        <v>0.99562230308280553</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E53">
-        <v>0.99749897621734984</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3340,16 +3970,16 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.98533630307613673</v>
+        <v>0.985336303076137</v>
       </c>
       <c r="C54">
-        <v>0.99582170247595303</v>
+        <v>0.995821702475953</v>
       </c>
       <c r="D54">
-        <v>0.99562230308280564</v>
+        <v>0.995622303082806</v>
       </c>
       <c r="E54">
-        <v>0.99749897621734973</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3357,16 +3987,16 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.98533630307613673</v>
+        <v>0.985336303076137</v>
       </c>
       <c r="C55">
-        <v>0.99582170247595292</v>
+        <v>0.995821702475953</v>
       </c>
       <c r="D55">
-        <v>0.99562230308280542</v>
+        <v>0.995622303082805</v>
       </c>
       <c r="E55">
-        <v>0.99749897621734995</v>
+        <v>0.99749897621735</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3374,16 +4004,16 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.9796551544331058</v>
+        <v>0.979655154433106</v>
       </c>
       <c r="C56">
-        <v>0.99438325653626602</v>
+        <v>0.994383256536266</v>
       </c>
       <c r="D56">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E56">
-        <v>0.99621598618866547</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3391,16 +4021,16 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>0.97965515443310591</v>
+        <v>0.979655154433106</v>
       </c>
       <c r="C57">
-        <v>0.99438325653626636</v>
+        <v>0.994383256536266</v>
       </c>
       <c r="D57">
-        <v>0.99311255824481559</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E57">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3408,16 +4038,16 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.97965515443310591</v>
+        <v>0.979655154433106</v>
       </c>
       <c r="C58">
-        <v>0.99438325653626614</v>
+        <v>0.994383256536266</v>
       </c>
       <c r="D58">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E58">
-        <v>0.99621598618866525</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3425,16 +4055,16 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.9796551544331058</v>
+        <v>0.979655154433106</v>
       </c>
       <c r="C59">
-        <v>0.99438325653626614</v>
+        <v>0.994383256536266</v>
       </c>
       <c r="D59">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E59">
-        <v>0.99621598618866569</v>
+        <v>0.996215986188666</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3442,16 +4072,16 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.97965515443310591</v>
+        <v>0.979655154433106</v>
       </c>
       <c r="C60">
-        <v>0.99438325653626614</v>
+        <v>0.994383256536266</v>
       </c>
       <c r="D60">
-        <v>0.9931125582448157</v>
+        <v>0.993112558244816</v>
       </c>
       <c r="E60">
-        <v>0.99621598618866536</v>
+        <v>0.996215986188665</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3459,16 +4089,16 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.96911791842070449</v>
+        <v>0.969117918420704</v>
       </c>
       <c r="C61">
-        <v>0.98782870318306082</v>
+        <v>0.987828703183061</v>
       </c>
       <c r="D61">
-        <v>0.98949964801502366</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E61">
-        <v>0.99432540155297122</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3476,16 +4106,16 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.96911791842070472</v>
+        <v>0.969117918420705</v>
       </c>
       <c r="C62">
-        <v>0.9878287031830606</v>
+        <v>0.987828703183061</v>
       </c>
       <c r="D62">
-        <v>0.98949964801502333</v>
+        <v>0.989499648015023</v>
       </c>
       <c r="E62">
-        <v>0.99432540155297133</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3493,16 +4123,16 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>0.96911791842070438</v>
+        <v>0.969117918420704</v>
       </c>
       <c r="C63">
-        <v>0.98782870318306082</v>
+        <v>0.987828703183061</v>
       </c>
       <c r="D63">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E63">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3510,16 +4140,16 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>0.9691179184207046</v>
+        <v>0.969117918420705</v>
       </c>
       <c r="C64">
-        <v>0.98782870318306071</v>
+        <v>0.987828703183061</v>
       </c>
       <c r="D64">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E64">
-        <v>0.99432540155297144</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3527,16 +4157,16 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>0.96911791842070449</v>
+        <v>0.969117918420704</v>
       </c>
       <c r="C65">
-        <v>0.98782870318306071</v>
+        <v>0.987828703183061</v>
       </c>
       <c r="D65">
-        <v>0.98949964801502355</v>
+        <v>0.989499648015024</v>
       </c>
       <c r="E65">
-        <v>0.99432540155297111</v>
+        <v>0.994325401552971</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3544,16 +4174,16 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>0.95287221992395066</v>
+        <v>0.952872219923951</v>
       </c>
       <c r="C66">
-        <v>0.97531074085987401</v>
+        <v>0.975310740859874</v>
       </c>
       <c r="D66">
-        <v>0.98499517490083799</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E66">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3561,16 +4191,16 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>0.95287221992395066</v>
+        <v>0.952872219923951</v>
       </c>
       <c r="C67">
-        <v>0.9753107408598739</v>
+        <v>0.975310740859874</v>
       </c>
       <c r="D67">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E67">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3578,16 +4208,16 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>0.95287221992395077</v>
+        <v>0.952872219923951</v>
       </c>
       <c r="C68">
-        <v>0.97531074085987413</v>
+        <v>0.975310740859874</v>
       </c>
       <c r="D68">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E68">
-        <v>0.99182094762276485</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3595,16 +4225,16 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>0.95287221992395055</v>
+        <v>0.952872219923951</v>
       </c>
       <c r="C69">
-        <v>0.9753107408598739</v>
+        <v>0.975310740859874</v>
       </c>
       <c r="D69">
-        <v>0.9849951749008381</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E69">
-        <v>0.99182094762276496</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3612,16 +4242,16 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>0.95287221992395077</v>
+        <v>0.952872219923951</v>
       </c>
       <c r="C70">
-        <v>0.97531074085987401</v>
+        <v>0.975310740859874</v>
       </c>
       <c r="D70">
-        <v>0.98499517490083788</v>
+        <v>0.984995174900838</v>
       </c>
       <c r="E70">
-        <v>0.99182094762276474</v>
+        <v>0.991820947622765</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3629,16 +4259,16 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>0.92336921686475704</v>
+        <v>0.923369216864757</v>
       </c>
       <c r="C71">
-        <v>0.94904415819746835</v>
+        <v>0.949044158197468</v>
       </c>
       <c r="D71">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E71">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3646,16 +4276,16 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.92336921686475704</v>
+        <v>0.923369216864757</v>
       </c>
       <c r="C72">
-        <v>0.94904415819746835</v>
+        <v>0.949044158197468</v>
       </c>
       <c r="D72">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E72">
-        <v>0.98639707652540287</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3663,16 +4293,16 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>0.92336921686475704</v>
+        <v>0.923369216864757</v>
       </c>
       <c r="C73">
-        <v>0.94904415819746846</v>
+        <v>0.949044158197468</v>
       </c>
       <c r="D73">
-        <v>0.97644293207692456</v>
+        <v>0.976442932076925</v>
       </c>
       <c r="E73">
-        <v>0.98639707652540309</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3680,16 +4310,16 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>0.92336921686475693</v>
+        <v>0.923369216864757</v>
       </c>
       <c r="C74">
-        <v>0.94904415819746824</v>
+        <v>0.949044158197468</v>
       </c>
       <c r="D74">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E74">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3697,16 +4327,16 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>0.92336921686475715</v>
+        <v>0.923369216864757</v>
       </c>
       <c r="C75">
-        <v>0.94904415819746835</v>
+        <v>0.949044158197468</v>
       </c>
       <c r="D75">
-        <v>0.97644293207692445</v>
+        <v>0.976442932076924</v>
       </c>
       <c r="E75">
-        <v>0.98639707652540298</v>
+        <v>0.986397076525403</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3714,16 +4344,16 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0.87556490198614512</v>
+        <v>0.875564901986145</v>
       </c>
       <c r="C76">
-        <v>0.90513946220586949</v>
+        <v>0.905139462205869</v>
       </c>
       <c r="D76">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E76">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3731,16 +4361,16 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.87556490198614512</v>
+        <v>0.875564901986145</v>
       </c>
       <c r="C77">
-        <v>0.90513946220586949</v>
+        <v>0.905139462205869</v>
       </c>
       <c r="D77">
-        <v>0.96011711981194736</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E77">
-        <v>0.97495307251260244</v>
+        <v>0.974953072512602</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3748,16 +4378,16 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0.87556490198614489</v>
+        <v>0.875564901986145</v>
       </c>
       <c r="C78">
-        <v>0.90513946220586949</v>
+        <v>0.905139462205869</v>
       </c>
       <c r="D78">
-        <v>0.96011711981194758</v>
+        <v>0.960117119811948</v>
       </c>
       <c r="E78">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3765,16 +4395,16 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0.87556490198614523</v>
+        <v>0.875564901986145</v>
       </c>
       <c r="C79">
-        <v>0.90513946220586972</v>
+        <v>0.90513946220587</v>
       </c>
       <c r="D79">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E79">
-        <v>0.97495307251260266</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3782,16 +4412,16 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0.87556490198614501</v>
+        <v>0.875564901986145</v>
       </c>
       <c r="C80">
-        <v>0.9051394622058696</v>
+        <v>0.90513946220587</v>
       </c>
       <c r="D80">
-        <v>0.96011711981194747</v>
+        <v>0.960117119811947</v>
       </c>
       <c r="E80">
-        <v>0.97495307251260255</v>
+        <v>0.974953072512603</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3799,16 +4429,16 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.80448749694828392</v>
+        <v>0.804487496948284</v>
       </c>
       <c r="C81">
-        <v>0.83664048045767858</v>
+        <v>0.836640480457679</v>
       </c>
       <c r="D81">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E81">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3816,16 +4446,16 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0.80448749694828392</v>
+        <v>0.804487496948284</v>
       </c>
       <c r="C82">
-        <v>0.83664048045767869</v>
+        <v>0.836640480457679</v>
       </c>
       <c r="D82">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E82">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3833,16 +4463,16 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>0.80448749694828381</v>
+        <v>0.804487496948284</v>
       </c>
       <c r="C83">
-        <v>0.83664048045767847</v>
+        <v>0.836640480457678</v>
       </c>
       <c r="D83">
-        <v>0.93367204223312072</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E83">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3850,16 +4480,16 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.80448749694828403</v>
+        <v>0.804487496948284</v>
       </c>
       <c r="C84">
-        <v>0.8366404804576788</v>
+        <v>0.836640480457679</v>
       </c>
       <c r="D84">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E84">
-        <v>0.9545661748958596</v>
+        <v>0.95456617489586</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3867,16 +4497,16 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.80448749694828403</v>
+        <v>0.804487496948284</v>
       </c>
       <c r="C85">
-        <v>0.83664048045767858</v>
+        <v>0.836640480457679</v>
       </c>
       <c r="D85">
-        <v>0.93367204223312084</v>
+        <v>0.933672042233121</v>
       </c>
       <c r="E85">
-        <v>0.95456617489585949</v>
+        <v>0.954566174895859</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3884,16 +4514,16 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.71140326769862972</v>
+        <v>0.71140326769863</v>
       </c>
       <c r="C86">
-        <v>0.75175645674187186</v>
+        <v>0.751756456741872</v>
       </c>
       <c r="D86">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E86">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3901,16 +4531,16 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.71140326769862949</v>
+        <v>0.711403267698629</v>
       </c>
       <c r="C87">
-        <v>0.75175645674187186</v>
+        <v>0.751756456741872</v>
       </c>
       <c r="D87">
-        <v>0.89277841745369046</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E87">
-        <v>0.91971524176574715</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3918,16 +4548,16 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>0.71140326769862972</v>
+        <v>0.71140326769863</v>
       </c>
       <c r="C88">
-        <v>0.75175645674187175</v>
+        <v>0.751756456741872</v>
       </c>
       <c r="D88">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E88">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3935,16 +4565,16 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.71140326769862972</v>
+        <v>0.71140326769863</v>
       </c>
       <c r="C89">
-        <v>0.75175645674187197</v>
+        <v>0.751756456741872</v>
       </c>
       <c r="D89">
-        <v>0.89277841745369058</v>
+        <v>0.892778417453691</v>
       </c>
       <c r="E89">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3952,16 +4582,16 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.71140326769862972</v>
+        <v>0.71140326769863</v>
       </c>
       <c r="C90">
-        <v>0.75175645674187175</v>
+        <v>0.751756456741872</v>
       </c>
       <c r="D90">
-        <v>0.89277841745369035</v>
+        <v>0.89277841745369</v>
       </c>
       <c r="E90">
-        <v>0.91971524176574726</v>
+        <v>0.919715241765747</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3969,16 +4599,16 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.61726453775504209</v>
+        <v>0.617264537755042</v>
       </c>
       <c r="C91">
-        <v>0.66939352476042635</v>
+        <v>0.669393524760426</v>
       </c>
       <c r="D91">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E91">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3986,16 +4616,16 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.61726453775504209</v>
+        <v>0.617264537755042</v>
       </c>
       <c r="C92">
-        <v>0.66939352476042624</v>
+        <v>0.669393524760426</v>
       </c>
       <c r="D92">
-        <v>0.83390189808665172</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E92">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -4003,16 +4633,16 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.61726453775504186</v>
+        <v>0.617264537755042</v>
       </c>
       <c r="C93">
-        <v>0.66939352476042624</v>
+        <v>0.669393524760426</v>
       </c>
       <c r="D93">
-        <v>0.83390189808665194</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E93">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -4020,16 +4650,16 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.6172645377550422</v>
+        <v>0.617264537755042</v>
       </c>
       <c r="C94">
-        <v>0.66939352476042624</v>
+        <v>0.669393524760426</v>
       </c>
       <c r="D94">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E94">
-        <v>0.86416031676071448</v>
+        <v>0.864160316760714</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -4037,16 +4667,16 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.61726453775504209</v>
+        <v>0.617264537755042</v>
       </c>
       <c r="C95">
-        <v>0.66939352476042646</v>
+        <v>0.669393524760426</v>
       </c>
       <c r="D95">
-        <v>0.83390189808665183</v>
+        <v>0.833901898086652</v>
       </c>
       <c r="E95">
-        <v>0.86416031676071459</v>
+        <v>0.864160316760715</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -4054,16 +4684,16 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.57929115325553326</v>
+        <v>0.579291153255533</v>
       </c>
       <c r="C96">
-        <v>0.64962591869591646</v>
+        <v>0.649625918695916</v>
       </c>
       <c r="D96">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E96">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -4071,16 +4701,16 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.57929115325553326</v>
+        <v>0.579291153255533</v>
       </c>
       <c r="C97">
-        <v>0.64962591869591635</v>
+        <v>0.649625918695916</v>
       </c>
       <c r="D97">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E97">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -4088,16 +4718,16 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.57929115325553315</v>
+        <v>0.579291153255533</v>
       </c>
       <c r="C98">
-        <v>0.64962591869591646</v>
+        <v>0.649625918695916</v>
       </c>
       <c r="D98">
-        <v>0.75738226677885234</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E98">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -4105,16 +4735,16 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.57929115325553349</v>
+        <v>0.579291153255533</v>
       </c>
       <c r="C99">
-        <v>0.64962591869591635</v>
+        <v>0.649625918695916</v>
       </c>
       <c r="D99">
-        <v>0.75738226677885245</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E99">
-        <v>0.78483981354597676</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -4122,32 +4752,36 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.57929115325553326</v>
+        <v>0.579291153255533</v>
       </c>
       <c r="C100">
-        <v>0.64962591869591668</v>
+        <v>0.649625918695917</v>
       </c>
       <c r="D100">
-        <v>0.75738226677885223</v>
+        <v>0.757382266778852</v>
       </c>
       <c r="E100">
-        <v>0.78483981354597687</v>
+        <v>0.784839813545977</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D319"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="3:4">
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4163,10 +4797,10 @@
         <v>13</v>
       </c>
       <c r="C2">
-        <v>2.2558154563552804</v>
+        <v>2.25581545635528</v>
       </c>
       <c r="D2">
-        <v>2.1196910941611362</v>
+        <v>2.11969109416114</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4177,10 +4811,10 @@
         <v>13</v>
       </c>
       <c r="C3">
-        <v>2.1848095528365605</v>
+        <v>2.18480955283656</v>
       </c>
       <c r="D3">
-        <v>2.0548675215820325</v>
+        <v>2.05486752158203</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4191,10 +4825,10 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>0.90935130348214799</v>
+        <v>0.909351303482148</v>
       </c>
       <c r="D4">
-        <v>1.990043949002928</v>
+        <v>1.99004394900293</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4205,10 +4839,10 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>1.2044523458356919</v>
+        <v>1.20445234583569</v>
       </c>
       <c r="D5">
-        <v>1.126057998437008</v>
+        <v>1.12605799843701</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4219,10 +4853,10 @@
         <v>13</v>
       </c>
       <c r="C6">
-        <v>0.87880479981776405</v>
+        <v>0.878804799817764</v>
       </c>
       <c r="D6">
-        <v>1.925220376423824</v>
+        <v>1.92522037642382</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4233,10 +4867,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>1.1639929459813561</v>
+        <v>1.16399294598136</v>
       </c>
       <c r="D7">
-        <v>1.0893778525404643</v>
+        <v>1.08937785254046</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4250,7 +4884,7 @@
         <v>0.84825829615338</v>
       </c>
       <c r="D8">
-        <v>1.8603968038447198</v>
+        <v>1.86039680384472</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4261,7 +4895,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>1.1235335461270199</v>
+        <v>1.12353354612702</v>
       </c>
       <c r="D9">
         <v>1.05269770664392</v>
@@ -4275,10 +4909,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>0.81811753312023616</v>
+        <v>0.818117533120236</v>
       </c>
       <c r="D10">
-        <v>1.7960488539602038</v>
+        <v>1.7960488539602</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4289,10 +4923,10 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0.26423372467254003</v>
+        <v>0.26423372467254</v>
       </c>
       <c r="D11">
-        <v>0.28568476797069597</v>
+        <v>0.285684767970696</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4303,10 +4937,10 @@
         <v>19</v>
       </c>
       <c r="C12">
-        <v>0.81937783244810403</v>
+        <v>0.819377832448104</v>
       </c>
       <c r="D12">
-        <v>0.73060192187794781</v>
+        <v>0.730601921877948</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4317,10 +4951,10 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.7879767700870921</v>
+        <v>0.787976770087092</v>
       </c>
       <c r="D13">
-        <v>1.7317009040756877</v>
+        <v>1.73170090407569</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4331,10 +4965,10 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0.25449893014938002</v>
+        <v>0.25449893014938</v>
       </c>
       <c r="D14">
-        <v>0.27544939542411195</v>
+        <v>0.275449395424112</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4345,10 +4979,10 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>0.78919063796488798</v>
+        <v>0.789190637964888</v>
       </c>
       <c r="D15">
-        <v>0.7044262776292558</v>
+        <v>0.704426277629256</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4359,10 +4993,10 @@
         <v>13</v>
       </c>
       <c r="C16">
-        <v>0.75783600705394805</v>
+        <v>0.757836007053948</v>
       </c>
       <c r="D16">
-        <v>1.6673529541911718</v>
+        <v>1.66735295419117</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4373,10 +5007,10 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>0.24476413562622001</v>
+        <v>0.24476413562622</v>
       </c>
       <c r="D17">
-        <v>0.26521402287752799</v>
+        <v>0.265214022877528</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4387,10 +5021,10 @@
         <v>19</v>
       </c>
       <c r="C18">
-        <v>0.75900344348167204</v>
+        <v>0.759003443481672</v>
       </c>
       <c r="D18">
-        <v>0.67825063338056391</v>
+        <v>0.678250633380564</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4401,10 +5035,10 @@
         <v>13</v>
       </c>
       <c r="C19">
-        <v>0.72769524402080421</v>
+        <v>0.727695244020804</v>
       </c>
       <c r="D19">
-        <v>1.6030050043066562</v>
+        <v>1.60300500430666</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4415,10 +5049,10 @@
         <v>16</v>
       </c>
       <c r="C20">
-        <v>0.23502934110306006</v>
+        <v>0.23502934110306</v>
       </c>
       <c r="D20">
-        <v>0.25497865033094402</v>
+        <v>0.254978650330944</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4429,10 +5063,10 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.7288162489984561</v>
+        <v>0.728816248998456</v>
       </c>
       <c r="D21">
-        <v>0.65207498913187201</v>
+        <v>0.652074989131872</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4443,10 +5077,10 @@
         <v>13</v>
       </c>
       <c r="C22">
-        <v>0.69755448098766015</v>
+        <v>0.69755448098766</v>
       </c>
       <c r="D22">
-        <v>1.5386570544221401</v>
+        <v>1.53865705442214</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4457,7 +5091,7 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>0.22529454657990003</v>
+        <v>0.2252945465799</v>
       </c>
       <c r="D23">
         <v>0.24474327778436</v>
@@ -4471,7 +5105,7 @@
         <v>19</v>
       </c>
       <c r="C24">
-        <v>0.69862905451524004</v>
+        <v>0.69862905451524</v>
       </c>
       <c r="D24">
         <v>0.62589934488318</v>
@@ -4485,10 +5119,10 @@
         <v>13</v>
       </c>
       <c r="C25">
-        <v>0.67458729446704824</v>
+        <v>0.674587294467048</v>
       </c>
       <c r="D25">
-        <v>1.4885094143967721</v>
+        <v>1.48850941439677</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4499,7 +5133,7 @@
         <v>16</v>
       </c>
       <c r="C26">
-        <v>0.21787665734772005</v>
+        <v>0.21787665734772</v>
       </c>
       <c r="D26">
         <v>0.236766647931928</v>
@@ -4513,10 +5147,10 @@
         <v>19</v>
       </c>
       <c r="C27">
-        <v>0.67562648734507214</v>
+        <v>0.675626487345072</v>
       </c>
       <c r="D27">
-        <v>0.60550014354776394</v>
+        <v>0.605500143547764</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4527,10 +5161,10 @@
         <v>23</v>
       </c>
       <c r="C28">
-        <v>0.12415685520000004</v>
+        <v>0.1241568552</v>
       </c>
       <c r="D28">
-        <v>8.6082814000000007E-2</v>
+        <v>0.086082814</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4541,10 +5175,10 @@
         <v>13</v>
       </c>
       <c r="C29">
-        <v>0.65162010794643599</v>
+        <v>0.651620107946436</v>
       </c>
       <c r="D29">
-        <v>1.4383617743714039</v>
+        <v>1.4383617743714</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4555,10 +5189,10 @@
         <v>16</v>
       </c>
       <c r="C30">
-        <v>0.21045876811553998</v>
+        <v>0.21045876811554</v>
       </c>
       <c r="D30">
-        <v>0.22879001807949598</v>
+        <v>0.228790018079496</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4569,10 +5203,10 @@
         <v>19</v>
       </c>
       <c r="C31">
-        <v>0.65262392017490389</v>
+        <v>0.652623920174904</v>
       </c>
       <c r="D31">
-        <v>0.58510094221234799</v>
+        <v>0.585100942212348</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4583,10 +5217,10 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0.11992977640000001</v>
+        <v>0.1199297764</v>
       </c>
       <c r="D32">
-        <v>8.3182697999999999E-2</v>
+        <v>0.083182698</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4597,10 +5231,10 @@
         <v>7</v>
       </c>
       <c r="C33">
-        <v>2.1487643840000003E-3</v>
+        <v>0.002148764384</v>
       </c>
       <c r="D33">
-        <v>3.371868444E-3</v>
+        <v>0.003371868444</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4611,10 +5245,10 @@
         <v>10</v>
       </c>
       <c r="C34">
-        <v>4.9586870400000001E-4</v>
+        <v>0.000495868704</v>
       </c>
       <c r="D34">
-        <v>1.7662168040000002E-3</v>
+        <v>0.001766216804</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4625,10 +5259,10 @@
         <v>13</v>
       </c>
       <c r="C35">
-        <v>2.1487643840000003E-3</v>
+        <v>0.002148764384</v>
       </c>
       <c r="D35">
-        <v>2.5690426240000002E-3</v>
+        <v>0.002569042624</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4639,10 +5273,10 @@
         <v>16</v>
       </c>
       <c r="C36">
-        <v>4.2975287680000016E-4</v>
+        <v>0.0004297528768</v>
       </c>
       <c r="D36">
-        <v>3.5324336080000011E-4</v>
+        <v>0.0003532433608</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4653,10 +5287,10 @@
         <v>19</v>
       </c>
       <c r="C37">
-        <v>1.7190115072E-3</v>
+        <v>0.0017190115072</v>
       </c>
       <c r="D37">
-        <v>1.4129734432E-3</v>
+        <v>0.0014129734432</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4667,10 +5301,10 @@
         <v>21</v>
       </c>
       <c r="C38">
-        <v>5.9504244480000005E-4</v>
+        <v>0.0005950424448</v>
       </c>
       <c r="D38">
-        <v>4.8169549199999996E-4</v>
+        <v>0.000481695492</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4681,10 +5315,10 @@
         <v>23</v>
       </c>
       <c r="C39">
-        <v>2.3801697791999998E-3</v>
+        <v>0.0023801697792</v>
       </c>
       <c r="D39">
-        <v>1.9267819679999998E-3</v>
+        <v>0.001926781968</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4695,10 +5329,10 @@
         <v>7</v>
       </c>
       <c r="C40">
-        <v>2.0702614920000001E-3</v>
+        <v>0.002070261492</v>
       </c>
       <c r="D40">
-        <v>3.2500635719999995E-3</v>
+        <v>0.003250063572</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4709,10 +5343,10 @@
         <v>10</v>
       </c>
       <c r="C41">
-        <v>4.7775265199999996E-4</v>
+        <v>0.000477752652</v>
       </c>
       <c r="D41">
-        <v>1.702414252E-3</v>
+        <v>0.001702414252</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4723,10 +5357,10 @@
         <v>13</v>
       </c>
       <c r="C42">
-        <v>2.0702614920000001E-3</v>
+        <v>0.002070261492</v>
       </c>
       <c r="D42">
-        <v>2.4762389119999998E-3</v>
+        <v>0.002476238912</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4737,10 +5371,10 @@
         <v>16</v>
       </c>
       <c r="C43">
-        <v>4.1405229840000017E-4</v>
+        <v>0.0004140522984</v>
       </c>
       <c r="D43">
-        <v>3.4048285040000006E-4</v>
+        <v>0.0003404828504</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4751,10 +5385,10 @@
         <v>19</v>
       </c>
       <c r="C44">
-        <v>1.6562091935999998E-3</v>
+        <v>0.0016562091936</v>
       </c>
       <c r="D44">
-        <v>1.3619314015999998E-3</v>
+        <v>0.0013619314016</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4765,10 +5399,10 @@
         <v>21</v>
       </c>
       <c r="C45">
-        <v>5.733031824000001E-4</v>
+        <v>0.0005733031824</v>
       </c>
       <c r="D45">
-        <v>4.6429479599999993E-4</v>
+        <v>0.000464294796</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4779,10 +5413,10 @@
         <v>23</v>
       </c>
       <c r="C46">
-        <v>2.2932127296E-3</v>
+        <v>0.0022932127296</v>
       </c>
       <c r="D46">
-        <v>1.8571791839999997E-3</v>
+        <v>0.001857179184</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4793,10 +5427,10 @@
         <v>7</v>
       </c>
       <c r="C47">
-        <v>1.9917586000000004E-3</v>
+        <v>0.0019917586</v>
       </c>
       <c r="D47">
-        <v>3.1282586999999999E-3</v>
+        <v>0.0031282587</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4807,10 +5441,10 @@
         <v>10</v>
       </c>
       <c r="C48">
-        <v>4.5963659999999996E-4</v>
+        <v>0.0004596366</v>
       </c>
       <c r="D48">
-        <v>1.6386117000000001E-3</v>
+        <v>0.0016386117</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4821,10 +5455,10 @@
         <v>13</v>
       </c>
       <c r="C49">
-        <v>1.9917586000000004E-3</v>
+        <v>0.0019917586</v>
       </c>
       <c r="D49">
-        <v>2.3834352000000002E-3</v>
+        <v>0.0023834352</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4835,10 +5469,10 @@
         <v>16</v>
       </c>
       <c r="C50">
-        <v>3.9835172000000013E-4</v>
+        <v>0.00039835172</v>
       </c>
       <c r="D50">
-        <v>3.2772234000000007E-4</v>
+        <v>0.00032772234</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4849,10 +5483,10 @@
         <v>19</v>
       </c>
       <c r="C51">
-        <v>1.5934068799999999E-3</v>
+        <v>0.00159340688</v>
       </c>
       <c r="D51">
-        <v>1.3108893599999998E-3</v>
+        <v>0.00131088936</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4863,10 +5497,10 @@
         <v>21</v>
       </c>
       <c r="C52">
-        <v>5.5156392000000004E-4</v>
+        <v>0.00055156392</v>
       </c>
       <c r="D52">
-        <v>4.4689409999999996E-4</v>
+        <v>0.0004468941</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4877,10 +5511,10 @@
         <v>23</v>
       </c>
       <c r="C53">
-        <v>2.2062556799999997E-3</v>
+        <v>0.00220625568</v>
       </c>
       <c r="D53">
-        <v>1.7875763999999998E-3</v>
+        <v>0.0017875764</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4891,10 +5525,10 @@
         <v>7</v>
       </c>
       <c r="C54">
-        <v>1.9373334240000003E-3</v>
+        <v>0.001937333424</v>
       </c>
       <c r="D54">
-        <v>3.04277232E-3</v>
+        <v>0.00304277232</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4905,10 +5539,10 @@
         <v>10</v>
       </c>
       <c r="C55">
-        <v>4.4707694399999994E-4</v>
+        <v>0.000447076944</v>
       </c>
       <c r="D55">
-        <v>1.5938331200000002E-3</v>
+        <v>0.00159383312</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4919,10 +5553,10 @@
         <v>13</v>
       </c>
       <c r="C56">
-        <v>1.9373334240000003E-3</v>
+        <v>0.001937333424</v>
       </c>
       <c r="D56">
-        <v>2.3183027200000001E-3</v>
+        <v>0.00231830272</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4933,10 +5567,10 @@
         <v>16</v>
       </c>
       <c r="C57">
-        <v>3.8746668480000012E-4</v>
+        <v>0.0003874666848</v>
       </c>
       <c r="D57">
-        <v>3.1876662400000011E-4</v>
+        <v>0.000318766624</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4947,10 +5581,10 @@
         <v>19</v>
       </c>
       <c r="C58">
-        <v>1.5498667391999998E-3</v>
+        <v>0.0015498667392</v>
       </c>
       <c r="D58">
-        <v>1.275066496E-3</v>
+        <v>0.001275066496</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4961,10 +5595,10 @@
         <v>21</v>
       </c>
       <c r="C59">
-        <v>5.3649233280000008E-4</v>
+        <v>0.0005364923328</v>
       </c>
       <c r="D59">
-        <v>4.3468175999999997E-4</v>
+        <v>0.00043468176</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4975,10 +5609,10 @@
         <v>23</v>
       </c>
       <c r="C60">
-        <v>2.1459693311999999E-3</v>
+        <v>0.0021459693312</v>
       </c>
       <c r="D60">
-        <v>1.7387270399999999E-3</v>
+        <v>0.00173872704</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4989,10 +5623,10 @@
         <v>7</v>
       </c>
       <c r="C61">
-        <v>1.8829082480000003E-3</v>
+        <v>0.001882908248</v>
       </c>
       <c r="D61">
-        <v>2.9572859399999997E-3</v>
+        <v>0.00295728594</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -5003,10 +5637,10 @@
         <v>10</v>
       </c>
       <c r="C62">
-        <v>4.3451728799999997E-4</v>
+        <v>0.000434517288</v>
       </c>
       <c r="D62">
-        <v>1.54905454E-3</v>
+        <v>0.00154905454</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -5017,10 +5651,10 @@
         <v>13</v>
       </c>
       <c r="C63">
-        <v>1.8829082480000003E-3</v>
+        <v>0.001882908248</v>
       </c>
       <c r="D63">
-        <v>2.25317024E-3</v>
+        <v>0.00225317024</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -5031,10 +5665,10 @@
         <v>16</v>
       </c>
       <c r="C64">
-        <v>3.7658164960000011E-4</v>
+        <v>0.0003765816496</v>
       </c>
       <c r="D64">
-        <v>3.098109080000001E-4</v>
+        <v>0.000309810908</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -5045,10 +5679,10 @@
         <v>19</v>
       </c>
       <c r="C65">
-        <v>1.5063265983999998E-3</v>
+        <v>0.0015063265984</v>
       </c>
       <c r="D65">
-        <v>1.239243632E-3</v>
+        <v>0.001239243632</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -5059,10 +5693,10 @@
         <v>21</v>
       </c>
       <c r="C66">
-        <v>5.2142074560000001E-4</v>
+        <v>0.0005214207456</v>
       </c>
       <c r="D66">
-        <v>4.2246941999999997E-4</v>
+        <v>0.00042246942</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -5073,10 +5707,10 @@
         <v>23</v>
       </c>
       <c r="C67">
-        <v>2.0856829823999996E-3</v>
+        <v>0.0020856829824</v>
       </c>
       <c r="D67">
-        <v>1.6898776799999999E-3</v>
+        <v>0.00168987768</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5087,10 +5721,10 @@
         <v>7</v>
       </c>
       <c r="C68">
-        <v>1.8284830720000003E-3</v>
+        <v>0.001828483072</v>
       </c>
       <c r="D68">
-        <v>2.8717995599999999E-3</v>
+        <v>0.00287179956</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5101,10 +5735,10 @@
         <v>10</v>
       </c>
       <c r="C69">
-        <v>4.2195763199999995E-4</v>
+        <v>0.000421957632</v>
       </c>
       <c r="D69">
-        <v>1.5042759600000001E-3</v>
+        <v>0.00150427596</v>
       </c>
     </row>
     <row r="70" spans="1:4">
@@ -5115,10 +5749,10 @@
         <v>13</v>
       </c>
       <c r="C70">
-        <v>1.8284830720000003E-3</v>
+        <v>0.001828483072</v>
       </c>
       <c r="D70">
-        <v>2.1880377599999999E-3</v>
+        <v>0.00218803776</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -5129,10 +5763,10 @@
         <v>16</v>
       </c>
       <c r="C71">
-        <v>3.656966144000001E-4</v>
+        <v>0.0003656966144</v>
       </c>
       <c r="D71">
-        <v>3.0085519200000009E-4</v>
+        <v>0.000300855192</v>
       </c>
     </row>
     <row r="72" spans="1:4">
@@ -5143,10 +5777,10 @@
         <v>19</v>
       </c>
       <c r="C72">
-        <v>1.4627864576E-3</v>
+        <v>0.0014627864576</v>
       </c>
       <c r="D72">
-        <v>1.2034207679999999E-3</v>
+        <v>0.001203420768</v>
       </c>
     </row>
     <row r="73" spans="1:4">
@@ -5157,10 +5791,10 @@
         <v>21</v>
       </c>
       <c r="C73">
-        <v>5.0634915840000005E-4</v>
+        <v>0.0005063491584</v>
       </c>
       <c r="D73">
-        <v>4.1025707999999992E-4</v>
+        <v>0.00041025708</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -5171,10 +5805,10 @@
         <v>23</v>
       </c>
       <c r="C74">
-        <v>2.0253966335999998E-3</v>
+        <v>0.0020253966336</v>
       </c>
       <c r="D74">
-        <v>1.6410283199999997E-3</v>
+        <v>0.00164102832</v>
       </c>
     </row>
     <row r="75" spans="1:4">
@@ -5185,10 +5819,10 @@
         <v>7</v>
       </c>
       <c r="C75">
-        <v>1.7740578960000002E-3</v>
+        <v>0.001774057896</v>
       </c>
       <c r="D75">
-        <v>2.78631318E-3</v>
+        <v>0.00278631318</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -5199,10 +5833,10 @@
         <v>10</v>
       </c>
       <c r="C76">
-        <v>4.0939797599999999E-4</v>
+        <v>0.000409397976</v>
       </c>
       <c r="D76">
-        <v>1.4594973800000001E-3</v>
+        <v>0.00145949738</v>
       </c>
     </row>
     <row r="77" spans="1:4">
@@ -5213,10 +5847,10 @@
         <v>13</v>
       </c>
       <c r="C77">
-        <v>1.7740578960000002E-3</v>
+        <v>0.001774057896</v>
       </c>
       <c r="D77">
-        <v>2.1229052800000002E-3</v>
+        <v>0.00212290528</v>
       </c>
     </row>
     <row r="78" spans="1:4">
@@ -5227,10 +5861,10 @@
         <v>16</v>
       </c>
       <c r="C78">
-        <v>3.548115792000001E-4</v>
+        <v>0.0003548115792</v>
       </c>
       <c r="D78">
-        <v>2.9189947600000008E-4</v>
+        <v>0.000291899476</v>
       </c>
     </row>
     <row r="79" spans="1:4">
@@ -5241,10 +5875,10 @@
         <v>19</v>
       </c>
       <c r="C79">
-        <v>1.4192463168E-3</v>
+        <v>0.0014192463168</v>
       </c>
       <c r="D79">
-        <v>1.1675979039999999E-3</v>
+        <v>0.001167597904</v>
       </c>
     </row>
     <row r="80" spans="1:4">
@@ -5255,10 +5889,10 @@
         <v>21</v>
       </c>
       <c r="C80">
-        <v>4.9127757120000009E-4</v>
+        <v>0.0004912775712</v>
       </c>
       <c r="D80">
-        <v>3.9804473999999998E-4</v>
+        <v>0.00039804474</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -5269,10 +5903,10 @@
         <v>23</v>
       </c>
       <c r="C81">
-        <v>1.9651102847999999E-3</v>
+        <v>0.0019651102848</v>
       </c>
       <c r="D81">
-        <v>1.5921789599999999E-3</v>
+        <v>0.00159217896</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -5283,10 +5917,10 @@
         <v>7</v>
       </c>
       <c r="C82">
-        <v>1.7196327200000002E-3</v>
+        <v>0.00171963272</v>
       </c>
       <c r="D82">
-        <v>2.7008267999999998E-3</v>
+        <v>0.0027008268</v>
       </c>
     </row>
     <row r="83" spans="1:4">
@@ -5297,10 +5931,10 @@
         <v>10</v>
       </c>
       <c r="C83">
-        <v>3.9683831999999997E-4</v>
+        <v>0.00039683832</v>
       </c>
       <c r="D83">
-        <v>1.4147188000000002E-3</v>
+        <v>0.0014147188</v>
       </c>
     </row>
     <row r="84" spans="1:4">
@@ -5311,10 +5945,10 @@
         <v>13</v>
       </c>
       <c r="C84">
-        <v>1.7196327200000002E-3</v>
+        <v>0.00171963272</v>
       </c>
       <c r="D84">
-        <v>2.0577728000000001E-3</v>
+        <v>0.0020577728</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -5325,10 +5959,10 @@
         <v>16</v>
       </c>
       <c r="C85">
-        <v>3.4392654400000014E-4</v>
+        <v>0.000343926544</v>
       </c>
       <c r="D85">
-        <v>2.8294376000000007E-4</v>
+        <v>0.00028294376</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -5339,10 +5973,10 @@
         <v>19</v>
       </c>
       <c r="C86">
-        <v>1.3757061759999999E-3</v>
+        <v>0.001375706176</v>
       </c>
       <c r="D86">
-        <v>1.1317750399999999E-3</v>
+        <v>0.00113177504</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -5353,10 +5987,10 @@
         <v>21</v>
       </c>
       <c r="C87">
-        <v>4.7620598400000002E-4</v>
+        <v>0.000476205984</v>
       </c>
       <c r="D87">
-        <v>3.8583239999999999E-4</v>
+        <v>0.0003858324</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -5367,10 +6001,10 @@
         <v>23</v>
       </c>
       <c r="C88">
-        <v>1.9048239359999999E-3</v>
+        <v>0.001904823936</v>
       </c>
       <c r="D88">
-        <v>1.5433296E-3</v>
+        <v>0.0015433296</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -5381,10 +6015,10 @@
         <v>7</v>
       </c>
       <c r="C89">
-        <v>1.6744645320000003E-3</v>
+        <v>0.001674464532</v>
       </c>
       <c r="D89">
-        <v>2.6292289799999999E-3</v>
+        <v>0.00262922898</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -5395,10 +6029,10 @@
         <v>10</v>
       </c>
       <c r="C90">
-        <v>3.8641489199999998E-4</v>
+        <v>0.000386414892</v>
       </c>
       <c r="D90">
-        <v>1.3772151800000001E-3</v>
+        <v>0.00137721518</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -5409,10 +6043,10 @@
         <v>13</v>
       </c>
       <c r="C91">
-        <v>1.6744645320000003E-3</v>
+        <v>0.001674464532</v>
       </c>
       <c r="D91">
-        <v>2.0032220800000004E-3</v>
+        <v>0.00200322208</v>
       </c>
     </row>
     <row r="92" spans="1:4">
@@ -5423,10 +6057,10 @@
         <v>16</v>
       </c>
       <c r="C92">
-        <v>3.3489290640000013E-4</v>
+        <v>0.0003348929064</v>
       </c>
       <c r="D92">
-        <v>2.7544303600000007E-4</v>
+        <v>0.000275443036</v>
       </c>
     </row>
     <row r="93" spans="1:4">
@@ -5437,10 +6071,10 @@
         <v>19</v>
       </c>
       <c r="C93">
-        <v>1.3395716256000001E-3</v>
+        <v>0.0013395716256</v>
       </c>
       <c r="D93">
-        <v>1.1017721440000001E-3</v>
+        <v>0.001101772144</v>
       </c>
     </row>
     <row r="94" spans="1:4">
@@ -5451,10 +6085,10 @@
         <v>21</v>
       </c>
       <c r="C94">
-        <v>4.6369787040000007E-4</v>
+        <v>0.0004636978704</v>
       </c>
       <c r="D94">
-        <v>3.7560414000000001E-4</v>
+        <v>0.00037560414</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -5465,10 +6099,10 @@
         <v>23</v>
       </c>
       <c r="C95">
-        <v>1.8547914816000001E-3</v>
+        <v>0.0018547914816</v>
       </c>
       <c r="D95">
-        <v>1.5024165600000001E-3</v>
+        <v>0.00150241656</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -5479,10 +6113,10 @@
         <v>7</v>
       </c>
       <c r="C96">
-        <v>1.6292963440000005E-3</v>
+        <v>0.001629296344</v>
       </c>
       <c r="D96">
-        <v>2.5576311600000001E-3</v>
+        <v>0.00255763116</v>
       </c>
     </row>
     <row r="97" spans="1:4">
@@ -5493,10 +6127,10 @@
         <v>10</v>
       </c>
       <c r="C97">
-        <v>3.7599146400000004E-4</v>
+        <v>0.000375991464</v>
       </c>
       <c r="D97">
-        <v>1.3397115600000001E-3</v>
+        <v>0.00133971156</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -5507,10 +6141,10 @@
         <v>13</v>
       </c>
       <c r="C98">
-        <v>1.6292963440000005E-3</v>
+        <v>0.001629296344</v>
       </c>
       <c r="D98">
-        <v>1.9486713600000002E-3</v>
+        <v>0.00194867136</v>
       </c>
     </row>
     <row r="99" spans="1:4">
@@ -5521,10 +6155,10 @@
         <v>16</v>
       </c>
       <c r="C99">
-        <v>3.2585926880000017E-4</v>
+        <v>0.0003258592688</v>
       </c>
       <c r="D99">
-        <v>2.6794231200000007E-4</v>
+        <v>0.000267942312</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5535,10 +6169,10 @@
         <v>19</v>
       </c>
       <c r="C100">
-        <v>1.3034370752E-3</v>
+        <v>0.0013034370752</v>
       </c>
       <c r="D100">
-        <v>1.0717692480000001E-3</v>
+        <v>0.001071769248</v>
       </c>
     </row>
     <row r="101" spans="1:4">
@@ -5549,10 +6183,10 @@
         <v>21</v>
       </c>
       <c r="C101">
-        <v>4.5118975680000012E-4</v>
+        <v>0.0004511897568</v>
       </c>
       <c r="D101">
-        <v>3.6537587999999998E-4</v>
+        <v>0.00036537588</v>
       </c>
     </row>
     <row r="102" spans="1:4">
@@ -5563,10 +6197,10 @@
         <v>23</v>
       </c>
       <c r="C102">
-        <v>1.8047590272E-3</v>
+        <v>0.0018047590272</v>
       </c>
       <c r="D102">
-        <v>1.4615035199999999E-3</v>
+        <v>0.00146150352</v>
       </c>
     </row>
     <row r="103" spans="1:4">
@@ -5577,10 +6211,10 @@
         <v>7</v>
       </c>
       <c r="C103">
-        <v>3.0464003E-3</v>
+        <v>0.0030464003</v>
       </c>
       <c r="D103">
-        <v>5.3272143000000017E-3</v>
+        <v>0.0053272143</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -5591,10 +6225,10 @@
         <v>10</v>
       </c>
       <c r="C104">
-        <v>4.8742404800000011E-4</v>
+        <v>0.000487424048</v>
       </c>
       <c r="D104">
-        <v>7.1029524000000002E-4</v>
+        <v>0.00071029524</v>
       </c>
     </row>
     <row r="105" spans="1:4">
@@ -5605,10 +6239,10 @@
         <v>13</v>
       </c>
       <c r="C105">
-        <v>2.6808322640000004E-3</v>
+        <v>0.002680832264</v>
       </c>
       <c r="D105">
-        <v>2.3676508000000005E-3</v>
+        <v>0.0023676508</v>
       </c>
     </row>
     <row r="106" spans="1:4">
@@ -5619,10 +6253,10 @@
         <v>16</v>
       </c>
       <c r="C106">
-        <v>1.7059841680000008E-4</v>
+        <v>0.0001705984168</v>
       </c>
       <c r="D106">
-        <v>1.1838254000000003E-4</v>
+        <v>0.00011838254</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -5633,10 +6267,10 @@
         <v>19</v>
       </c>
       <c r="C107">
-        <v>6.8239366720000011E-4</v>
+        <v>0.0006823936672</v>
       </c>
       <c r="D107">
-        <v>4.7353016000000007E-4</v>
+        <v>0.00047353016</v>
       </c>
     </row>
     <row r="108" spans="1:4">
@@ -5647,10 +6281,10 @@
         <v>21</v>
       </c>
       <c r="C108">
-        <v>4.3868164320000005E-4</v>
+        <v>0.0004386816432</v>
       </c>
       <c r="D108">
-        <v>2.3676508000000006E-4</v>
+        <v>0.00023676508</v>
       </c>
     </row>
     <row r="109" spans="1:4">
@@ -5661,10 +6295,10 @@
         <v>23</v>
       </c>
       <c r="C109">
-        <v>1.7547265727999998E-3</v>
+        <v>0.0017547265728</v>
       </c>
       <c r="D109">
-        <v>9.4706032000000013E-4</v>
+        <v>0.00094706032</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -5675,10 +6309,10 @@
         <v>7</v>
       </c>
       <c r="C110">
-        <v>2.9595384000000004E-3</v>
+        <v>0.0029595384</v>
       </c>
       <c r="D110">
-        <v>5.1737904000000003E-3</v>
+        <v>0.0051737904</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -5689,10 +6323,10 @@
         <v>10</v>
       </c>
       <c r="C111">
-        <v>4.7352614400000012E-4</v>
+        <v>0.000473526144</v>
       </c>
       <c r="D111">
-        <v>6.8983871999999996E-4</v>
+        <v>0.00068983872</v>
       </c>
     </row>
     <row r="112" spans="1:4">
@@ -5703,10 +6337,10 @@
         <v>13</v>
       </c>
       <c r="C112">
-        <v>2.6043937920000003E-3</v>
+        <v>0.002604393792</v>
       </c>
       <c r="D112">
-        <v>2.2994624000000001E-3</v>
+        <v>0.0022994624</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -5717,10 +6351,10 @@
         <v>16</v>
       </c>
       <c r="C113">
-        <v>1.6573415040000011E-4</v>
+        <v>0.0001657341504</v>
       </c>
       <c r="D113">
-        <v>1.1497312000000002E-4</v>
+        <v>0.00011497312</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -5731,10 +6365,10 @@
         <v>19</v>
       </c>
       <c r="C114">
-        <v>6.6293660160000011E-4</v>
+        <v>0.0006629366016</v>
       </c>
       <c r="D114">
-        <v>4.5989248000000003E-4</v>
+        <v>0.00045989248</v>
       </c>
     </row>
     <row r="115" spans="1:4">
@@ -5745,10 +6379,10 @@
         <v>21</v>
       </c>
       <c r="C115">
-        <v>4.2617352960000004E-4</v>
+        <v>0.0004261735296</v>
       </c>
       <c r="D115">
-        <v>2.2994624000000004E-4</v>
+        <v>0.00022994624</v>
       </c>
     </row>
     <row r="116" spans="1:4">
@@ -5759,10 +6393,10 @@
         <v>23</v>
       </c>
       <c r="C116">
-        <v>1.7046941184E-3</v>
+        <v>0.0017046941184</v>
       </c>
       <c r="D116">
-        <v>9.1978496000000006E-4</v>
+        <v>0.00091978496</v>
       </c>
     </row>
     <row r="117" spans="1:4">
@@ -5773,10 +6407,10 @@
         <v>7</v>
       </c>
       <c r="C117">
-        <v>2.8726765000000004E-3</v>
+        <v>0.0028726765</v>
       </c>
       <c r="D117">
-        <v>5.0203665000000015E-3</v>
+        <v>0.0050203665</v>
       </c>
     </row>
     <row r="118" spans="1:4">
@@ -5787,10 +6421,10 @@
         <v>10</v>
       </c>
       <c r="C118">
-        <v>4.5962824000000014E-4</v>
+        <v>0.00045962824</v>
       </c>
       <c r="D118">
-        <v>6.6938220000000012E-4</v>
+        <v>0.0006693822</v>
       </c>
     </row>
     <row r="119" spans="1:4">
@@ -5801,10 +6435,10 @@
         <v>13</v>
       </c>
       <c r="C119">
-        <v>2.5279553200000006E-3</v>
+        <v>0.00252795532</v>
       </c>
       <c r="D119">
-        <v>2.2312740000000005E-3</v>
+        <v>0.002231274</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -5815,10 +6449,10 @@
         <v>16</v>
       </c>
       <c r="C120">
-        <v>1.6086988400000011E-4</v>
+        <v>0.000160869884</v>
       </c>
       <c r="D120">
-        <v>1.1156370000000004E-4</v>
+        <v>0.0001115637</v>
       </c>
     </row>
     <row r="121" spans="1:4">
@@ -5829,10 +6463,10 @@
         <v>19</v>
       </c>
       <c r="C121">
-        <v>6.4347953600000021E-4</v>
+        <v>0.000643479536</v>
       </c>
       <c r="D121">
-        <v>4.462548000000001E-4</v>
+        <v>0.0004462548</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -5843,10 +6477,10 @@
         <v>21</v>
       </c>
       <c r="C122">
-        <v>4.1366541600000009E-4</v>
+        <v>0.000413665416</v>
       </c>
       <c r="D122">
-        <v>2.2312740000000008E-4</v>
+        <v>0.0002231274</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -5857,10 +6491,10 @@
         <v>23</v>
       </c>
       <c r="C123">
-        <v>1.6546616640000001E-3</v>
+        <v>0.001654661664</v>
       </c>
       <c r="D123">
-        <v>8.9250960000000019E-4</v>
+        <v>0.0008925096</v>
       </c>
     </row>
     <row r="124" spans="1:4">
@@ -5871,10 +6505,10 @@
         <v>7</v>
       </c>
       <c r="C124">
-        <v>2.7767178E-3</v>
+        <v>0.0027767178</v>
       </c>
       <c r="D124">
-        <v>4.8574110600000005E-3</v>
+        <v>0.00485741106</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -5885,10 +6519,10 @@
         <v>10</v>
       </c>
       <c r="C125">
-        <v>4.4427484800000006E-4</v>
+        <v>0.000444274848</v>
       </c>
       <c r="D125">
-        <v>6.4765480799999992E-4</v>
+        <v>0.000647654808</v>
       </c>
     </row>
     <row r="126" spans="1:4">
@@ -5899,10 +6533,10 @@
         <v>13</v>
       </c>
       <c r="C126">
-        <v>2.4435116640000002E-3</v>
+        <v>0.002443511664</v>
       </c>
       <c r="D126">
-        <v>2.1588493600000003E-3</v>
+        <v>0.00215884936</v>
       </c>
     </row>
     <row r="127" spans="1:4">
@@ -5913,10 +6547,10 @@
         <v>16</v>
       </c>
       <c r="C127">
-        <v>1.5549619680000007E-4</v>
+        <v>0.0001554961968</v>
       </c>
       <c r="D127">
-        <v>1.0794246800000002E-4</v>
+        <v>0.000107942468</v>
       </c>
     </row>
     <row r="128" spans="1:4">
@@ -5927,10 +6561,10 @@
         <v>19</v>
       </c>
       <c r="C128">
-        <v>6.2198478719999997E-4</v>
+        <v>0.0006219847872</v>
       </c>
       <c r="D128">
-        <v>4.3176987200000002E-4</v>
+        <v>0.000431769872</v>
       </c>
     </row>
     <row r="129" spans="1:4">
@@ -5941,10 +6575,10 @@
         <v>21</v>
       </c>
       <c r="C129">
-        <v>3.9984736320000002E-4</v>
+        <v>0.0003998473632</v>
       </c>
       <c r="D129">
-        <v>2.1588493600000004E-4</v>
+        <v>0.000215884936</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -5955,10 +6589,10 @@
         <v>23</v>
       </c>
       <c r="C130">
-        <v>1.5993894527999996E-3</v>
+        <v>0.0015993894528</v>
       </c>
       <c r="D130">
-        <v>8.6353974400000004E-4</v>
+        <v>0.000863539744</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -5969,10 +6603,10 @@
         <v>7</v>
       </c>
       <c r="C131">
-        <v>2.6807590999999996E-3</v>
+        <v>0.0026807591</v>
       </c>
       <c r="D131">
-        <v>4.6944556200000011E-3</v>
+        <v>0.00469445562</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -5983,10 +6617,10 @@
         <v>10</v>
       </c>
       <c r="C132">
-        <v>4.2892145600000004E-4</v>
+        <v>0.000428921456</v>
       </c>
       <c r="D132">
-        <v>6.2592741599999994E-4</v>
+        <v>0.000625927416</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -5997,10 +6631,10 @@
         <v>13</v>
       </c>
       <c r="C133">
-        <v>2.3590680079999997E-3</v>
+        <v>0.002359068008</v>
       </c>
       <c r="D133">
-        <v>2.0864247200000001E-3</v>
+        <v>0.00208642472</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -6011,10 +6645,10 @@
         <v>16</v>
       </c>
       <c r="C134">
-        <v>1.5012250960000007E-4</v>
+        <v>0.0001501225096</v>
       </c>
       <c r="D134">
-        <v>1.0432123600000003E-4</v>
+        <v>0.000104321236</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -6025,10 +6659,10 @@
         <v>19</v>
       </c>
       <c r="C135">
-        <v>6.0049003840000005E-4</v>
+        <v>0.0006004900384</v>
       </c>
       <c r="D135">
-        <v>4.1728494400000005E-4</v>
+        <v>0.000417284944</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -6039,10 +6673,10 @@
         <v>21</v>
       </c>
       <c r="C136">
-        <v>3.860293104E-4</v>
+        <v>0.0003860293104</v>
       </c>
       <c r="D136">
-        <v>2.0864247200000005E-4</v>
+        <v>0.000208642472</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -6053,10 +6687,10 @@
         <v>23</v>
       </c>
       <c r="C137">
-        <v>1.5441172415999998E-3</v>
+        <v>0.0015441172416</v>
       </c>
       <c r="D137">
-        <v>8.345698880000001E-4</v>
+        <v>0.000834569888</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -6067,10 +6701,10 @@
         <v>7</v>
       </c>
       <c r="C138">
-        <v>2.5848004000000001E-3</v>
+        <v>0.0025848004</v>
       </c>
       <c r="D138">
-        <v>4.531500180000001E-3</v>
+        <v>0.00453150018</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -6081,10 +6715,10 @@
         <v>10</v>
       </c>
       <c r="C139">
-        <v>4.1356806400000013E-4</v>
+        <v>0.000413568064</v>
       </c>
       <c r="D139">
-        <v>6.0420002399999995E-4</v>
+        <v>0.000604200024</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -6095,10 +6729,10 @@
         <v>13</v>
       </c>
       <c r="C140">
-        <v>2.2746243520000002E-3</v>
+        <v>0.002274624352</v>
       </c>
       <c r="D140">
-        <v>2.0140000800000003E-3</v>
+        <v>0.00201400008</v>
       </c>
     </row>
     <row r="141" spans="1:4">
@@ -6109,10 +6743,10 @@
         <v>16</v>
       </c>
       <c r="C141">
-        <v>1.4474882240000009E-4</v>
+        <v>0.0001447488224</v>
       </c>
       <c r="D141">
-        <v>1.0070000400000003E-4</v>
+        <v>0.000100700004</v>
       </c>
     </row>
     <row r="142" spans="1:4">
@@ -6123,10 +6757,10 @@
         <v>19</v>
       </c>
       <c r="C142">
-        <v>5.7899528960000013E-4</v>
+        <v>0.0005789952896</v>
       </c>
       <c r="D142">
-        <v>4.0280001600000008E-4</v>
+        <v>0.000402800016</v>
       </c>
     </row>
     <row r="143" spans="1:4">
@@ -6137,10 +6771,10 @@
         <v>21</v>
       </c>
       <c r="C143">
-        <v>3.7221125760000004E-4</v>
+        <v>0.0003722112576</v>
       </c>
       <c r="D143">
-        <v>2.0140000800000007E-4</v>
+        <v>0.000201400008</v>
       </c>
     </row>
     <row r="144" spans="1:4">
@@ -6151,10 +6785,10 @@
         <v>23</v>
       </c>
       <c r="C144">
-        <v>1.4888450303999999E-3</v>
+        <v>0.0014888450304</v>
       </c>
       <c r="D144">
-        <v>8.0560003200000016E-4</v>
+        <v>0.000805600032</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -6165,10 +6799,10 @@
         <v>7</v>
       </c>
       <c r="C145">
-        <v>2.4888417000000001E-3</v>
+        <v>0.0024888417</v>
       </c>
       <c r="D145">
-        <v>4.3685447400000008E-3</v>
+        <v>0.00436854474</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -6179,10 +6813,10 @@
         <v>10</v>
       </c>
       <c r="C146">
-        <v>3.9821467200000011E-4</v>
+        <v>0.000398214672</v>
       </c>
       <c r="D146">
-        <v>5.8247263200000008E-4</v>
+        <v>0.000582472632</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6193,10 +6827,10 @@
         <v>13</v>
       </c>
       <c r="C147">
-        <v>2.1901806960000002E-3</v>
+        <v>0.002190180696</v>
       </c>
       <c r="D147">
-        <v>1.9415754400000003E-3</v>
+        <v>0.00194157544</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -6207,10 +6841,10 @@
         <v>16</v>
       </c>
       <c r="C148">
-        <v>1.3937513520000008E-4</v>
+        <v>0.0001393751352</v>
       </c>
       <c r="D148">
-        <v>9.7078772000000027E-5</v>
+        <v>9.7078772e-5</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6221,10 +6855,10 @@
         <v>19</v>
       </c>
       <c r="C149">
-        <v>5.575005408000001E-4</v>
+        <v>0.0005575005408</v>
       </c>
       <c r="D149">
-        <v>3.8831508800000005E-4</v>
+        <v>0.000388315088</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -6235,10 +6869,10 @@
         <v>21</v>
       </c>
       <c r="C150">
-        <v>3.5839320480000002E-4</v>
+        <v>0.0003583932048</v>
       </c>
       <c r="D150">
-        <v>1.9415754400000005E-4</v>
+        <v>0.000194157544</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -6249,10 +6883,10 @@
         <v>23</v>
       </c>
       <c r="C151">
-        <v>1.4335728191999999E-3</v>
+        <v>0.0014335728192</v>
       </c>
       <c r="D151">
-        <v>7.7663017600000011E-4</v>
+        <v>0.000776630176</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -6263,10 +6897,10 @@
         <v>7</v>
       </c>
       <c r="C152">
-        <v>2.3928829999999997E-3</v>
+        <v>0.002392883</v>
       </c>
       <c r="D152">
-        <v>4.2055893000000014E-3</v>
+        <v>0.0042055893</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -6277,10 +6911,10 @@
         <v>10</v>
       </c>
       <c r="C153">
-        <v>3.8286128000000004E-4</v>
+        <v>0.00038286128</v>
       </c>
       <c r="D153">
-        <v>5.607452400000001E-4</v>
+        <v>0.00056074524</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -6291,10 +6925,10 @@
         <v>13</v>
       </c>
       <c r="C154">
-        <v>2.1057370400000002E-3</v>
+        <v>0.00210573704</v>
       </c>
       <c r="D154">
-        <v>1.8691508000000005E-3</v>
+        <v>0.0018691508</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -6305,10 +6939,10 @@
         <v>16</v>
       </c>
       <c r="C155">
-        <v>1.3400144800000005E-4</v>
+        <v>0.000134001448</v>
       </c>
       <c r="D155">
-        <v>9.3457540000000034E-5</v>
+        <v>9.345754e-5</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -6319,10 +6953,10 @@
         <v>19</v>
       </c>
       <c r="C156">
-        <v>5.3600579199999997E-4</v>
+        <v>0.000536005792</v>
       </c>
       <c r="D156">
-        <v>3.7383016000000008E-4</v>
+        <v>0.00037383016</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -6333,10 +6967,10 @@
         <v>21</v>
       </c>
       <c r="C157">
-        <v>3.44575152E-4</v>
+        <v>0.000344575152</v>
       </c>
       <c r="D157">
-        <v>1.8691508000000007E-4</v>
+        <v>0.00018691508</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -6347,10 +6981,10 @@
         <v>23</v>
       </c>
       <c r="C158">
-        <v>1.3783006079999998E-3</v>
+        <v>0.001378300608</v>
       </c>
       <c r="D158">
-        <v>7.4766032000000017E-4</v>
+        <v>0.00074766032</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -6361,10 +6995,10 @@
         <v>7</v>
       </c>
       <c r="C159">
-        <v>2.2950481999999997E-3</v>
+        <v>0.0022950482</v>
       </c>
       <c r="D159">
-        <v>4.0433234400000014E-3</v>
+        <v>0.00404332344</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -6375,10 +7009,10 @@
         <v>10</v>
       </c>
       <c r="C160">
-        <v>3.6720771200000001E-4</v>
+        <v>0.000367207712</v>
       </c>
       <c r="D160">
-        <v>5.3910979200000005E-4</v>
+        <v>0.000539109792</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -6389,10 +7023,10 @@
         <v>13</v>
       </c>
       <c r="C161">
-        <v>2.019642416E-3</v>
+        <v>0.002019642416</v>
       </c>
       <c r="D161">
-        <v>1.7970326400000003E-3</v>
+        <v>0.00179703264</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -6403,10 +7037,10 @@
         <v>16</v>
       </c>
       <c r="C162">
-        <v>1.2852269920000004E-4</v>
+        <v>0.0001285226992</v>
       </c>
       <c r="D162">
-        <v>8.9851632000000027E-5</v>
+        <v>8.9851632e-5</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -6417,10 +7051,10 @@
         <v>19</v>
       </c>
       <c r="C163">
-        <v>5.1409079680000004E-4</v>
+        <v>0.0005140907968</v>
       </c>
       <c r="D163">
-        <v>3.5940652800000005E-4</v>
+        <v>0.000359406528</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -6431,10 +7065,10 @@
         <v>21</v>
       </c>
       <c r="C164">
-        <v>3.3048694079999998E-4</v>
+        <v>0.0003304869408</v>
       </c>
       <c r="D164">
-        <v>1.7970326400000005E-4</v>
+        <v>0.000179703264</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -6445,10 +7079,10 @@
         <v>23</v>
       </c>
       <c r="C165">
-        <v>1.3219477631999997E-3</v>
+        <v>0.0013219477632</v>
       </c>
       <c r="D165">
-        <v>7.1881305600000011E-4</v>
+        <v>0.000718813056</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -6459,10 +7093,10 @@
         <v>7</v>
       </c>
       <c r="C166">
-        <v>2.1972134000000001E-3</v>
+        <v>0.0021972134</v>
       </c>
       <c r="D166">
-        <v>3.881057580000001E-3</v>
+        <v>0.00388105758</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -6473,10 +7107,10 @@
         <v>10</v>
       </c>
       <c r="C167">
-        <v>3.5155414400000009E-4</v>
+        <v>0.000351554144</v>
       </c>
       <c r="D167">
-        <v>5.1747434400000001E-4</v>
+        <v>0.000517474344</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -6487,10 +7121,10 @@
         <v>13</v>
       </c>
       <c r="C168">
-        <v>1.9335477920000002E-3</v>
+        <v>0.001933547792</v>
       </c>
       <c r="D168">
-        <v>1.7249144800000004E-3</v>
+        <v>0.00172491448</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -6501,10 +7135,10 @@
         <v>16</v>
       </c>
       <c r="C169">
-        <v>1.2304395040000008E-4</v>
+        <v>0.0001230439504</v>
       </c>
       <c r="D169">
-        <v>8.6245724000000033E-5</v>
+        <v>8.6245724e-5</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -6515,10 +7149,10 @@
         <v>19</v>
       </c>
       <c r="C170">
-        <v>4.9217580160000011E-4</v>
+        <v>0.0004921758016</v>
       </c>
       <c r="D170">
-        <v>3.4498289600000008E-4</v>
+        <v>0.000344982896</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -6529,10 +7163,10 @@
         <v>21</v>
       </c>
       <c r="C171">
-        <v>3.1639872960000006E-4</v>
+        <v>0.0003163987296</v>
       </c>
       <c r="D171">
-        <v>1.7249144800000007E-4</v>
+        <v>0.000172491448</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -6543,10 +7177,10 @@
         <v>23</v>
       </c>
       <c r="C172">
-        <v>1.2655949184E-3</v>
+        <v>0.0012655949184</v>
       </c>
       <c r="D172">
-        <v>6.8996579200000015E-4</v>
+        <v>0.000689965792</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -6557,10 +7191,10 @@
         <v>7</v>
       </c>
       <c r="C173">
-        <v>2.0993786E-3</v>
+        <v>0.0020993786</v>
       </c>
       <c r="D173">
-        <v>3.718791720000001E-3</v>
+        <v>0.00371879172</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -6571,10 +7205,10 @@
         <v>10</v>
       </c>
       <c r="C174">
-        <v>3.3590057600000006E-4</v>
+        <v>0.000335900576</v>
       </c>
       <c r="D174">
-        <v>4.9583889600000007E-4</v>
+        <v>0.000495838896</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -6585,10 +7219,10 @@
         <v>13</v>
       </c>
       <c r="C175">
-        <v>1.8474531680000002E-3</v>
+        <v>0.001847453168</v>
       </c>
       <c r="D175">
-        <v>1.6527963200000002E-3</v>
+        <v>0.00165279632</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -6599,10 +7233,10 @@
         <v>16</v>
       </c>
       <c r="C176">
-        <v>1.1756520160000006E-4</v>
+        <v>0.0001175652016</v>
       </c>
       <c r="D176">
-        <v>8.2639816000000025E-5</v>
+        <v>8.2639816e-5</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -6613,10 +7247,10 @@
         <v>19</v>
       </c>
       <c r="C177">
-        <v>4.7026080640000007E-4</v>
+        <v>0.0004702608064</v>
       </c>
       <c r="D177">
-        <v>3.3055926400000005E-4</v>
+        <v>0.000330559264</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -6627,10 +7261,10 @@
         <v>21</v>
       </c>
       <c r="C178">
-        <v>3.0231051840000003E-4</v>
+        <v>0.0003023105184</v>
       </c>
       <c r="D178">
-        <v>1.6527963200000005E-4</v>
+        <v>0.000165279632</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -6641,10 +7275,10 @@
         <v>23</v>
       </c>
       <c r="C179">
-        <v>1.2092420735999999E-3</v>
+        <v>0.0012092420736</v>
       </c>
       <c r="D179">
-        <v>6.6111852800000009E-4</v>
+        <v>0.000661118528</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -6655,10 +7289,10 @@
         <v>7</v>
       </c>
       <c r="C180">
-        <v>2.0015438E-3</v>
+        <v>0.0020015438</v>
       </c>
       <c r="D180">
-        <v>3.556525860000001E-3</v>
+        <v>0.00355652586</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -6669,10 +7303,10 @@
         <v>10</v>
       </c>
       <c r="C181">
-        <v>3.2024700800000003E-4</v>
+        <v>0.000320247008</v>
       </c>
       <c r="D181">
-        <v>4.7420344800000003E-4</v>
+        <v>0.000474203448</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -6683,10 +7317,10 @@
         <v>13</v>
       </c>
       <c r="C182">
-        <v>1.761358544E-3</v>
+        <v>0.001761358544</v>
       </c>
       <c r="D182">
-        <v>1.5806781600000003E-3</v>
+        <v>0.00158067816</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -6697,10 +7331,10 @@
         <v>16</v>
       </c>
       <c r="C183">
-        <v>1.1208645280000005E-4</v>
+        <v>0.0001120864528</v>
       </c>
       <c r="D183">
-        <v>7.9033908000000018E-5</v>
+        <v>7.9033908e-5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -6711,10 +7345,10 @@
         <v>19</v>
       </c>
       <c r="C184">
-        <v>4.4834581120000003E-4</v>
+        <v>0.0004483458112</v>
       </c>
       <c r="D184">
-        <v>3.1613563200000007E-4</v>
+        <v>0.000316135632</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -6725,10 +7359,10 @@
         <v>21</v>
       </c>
       <c r="C185">
-        <v>2.8822230720000001E-4</v>
+        <v>0.0002882223072</v>
       </c>
       <c r="D185">
-        <v>1.5806781600000004E-4</v>
+        <v>0.000158067816</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -6739,10 +7373,10 @@
         <v>23</v>
       </c>
       <c r="C186">
-        <v>1.1528892287999998E-3</v>
+        <v>0.0011528892288</v>
       </c>
       <c r="D186">
-        <v>6.3227126400000014E-4</v>
+        <v>0.000632271264</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -6753,10 +7387,10 @@
         <v>7</v>
       </c>
       <c r="C187">
-        <v>1.9037090000000002E-3</v>
+        <v>0.001903709</v>
       </c>
       <c r="D187">
-        <v>3.3942600000000005E-3</v>
+        <v>0.00339426</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -6767,10 +7401,10 @@
         <v>10</v>
       </c>
       <c r="C188">
-        <v>3.0459344000000006E-4</v>
+        <v>0.00030459344</v>
       </c>
       <c r="D188">
-        <v>4.5256799999999998E-4</v>
+        <v>0.000452568</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -6781,10 +7415,10 @@
         <v>13</v>
       </c>
       <c r="C189">
-        <v>1.6752639200000002E-3</v>
+        <v>0.00167526392</v>
       </c>
       <c r="D189">
-        <v>1.5085600000000002E-3</v>
+        <v>0.00150856</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -6795,10 +7429,10 @@
         <v>16</v>
       </c>
       <c r="C190">
-        <v>1.0660770400000006E-4</v>
+        <v>0.000106607704</v>
       </c>
       <c r="D190">
-        <v>7.5428000000000024E-5</v>
+        <v>7.5428e-5</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -6809,10 +7443,10 @@
         <v>19</v>
       </c>
       <c r="C191">
-        <v>4.2643081600000004E-4</v>
+        <v>0.000426430816</v>
       </c>
       <c r="D191">
-        <v>3.0171200000000004E-4</v>
+        <v>0.000301712</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -6823,10 +7457,10 @@
         <v>21</v>
       </c>
       <c r="C192">
-        <v>2.7413409600000004E-4</v>
+        <v>0.000274134096</v>
       </c>
       <c r="D192">
-        <v>1.5085600000000005E-4</v>
+        <v>0.000150856</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -6837,10 +7471,10 @@
         <v>23</v>
       </c>
       <c r="C193">
-        <v>1.0965363839999999E-3</v>
+        <v>0.001096536384</v>
       </c>
       <c r="D193">
-        <v>6.0342400000000008E-4</v>
+        <v>0.000603424</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -6851,10 +7485,10 @@
         <v>7</v>
       </c>
       <c r="C194">
-        <v>1.8177571000000002E-3</v>
+        <v>0.0018177571</v>
       </c>
       <c r="D194">
-        <v>3.2546106000000004E-3</v>
+        <v>0.0032546106</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -6865,10 +7499,10 @@
         <v>10</v>
       </c>
       <c r="C195">
-        <v>2.9084113600000007E-4</v>
+        <v>0.000290841136</v>
       </c>
       <c r="D195">
-        <v>4.3394807999999992E-4</v>
+        <v>0.00043394808</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -6879,10 +7513,10 @@
         <v>13</v>
       </c>
       <c r="C196">
-        <v>1.5996262480000001E-3</v>
+        <v>0.001599626248</v>
       </c>
       <c r="D196">
-        <v>1.4464936000000001E-3</v>
+        <v>0.0014464936</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -6893,10 +7527,10 @@
         <v>16</v>
       </c>
       <c r="C197">
-        <v>1.0179439760000005E-4</v>
+        <v>0.0001017943976</v>
       </c>
       <c r="D197">
-        <v>7.2324680000000014E-5</v>
+        <v>7.232468e-5</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -6907,10 +7541,10 @@
         <v>19</v>
       </c>
       <c r="C198">
-        <v>4.0717759040000004E-4</v>
+        <v>0.0004071775904</v>
       </c>
       <c r="D198">
-        <v>2.8929872E-4</v>
+        <v>0.00028929872</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -6921,10 +7555,10 @@
         <v>21</v>
       </c>
       <c r="C199">
-        <v>2.6175702240000004E-4</v>
+        <v>0.0002617570224</v>
       </c>
       <c r="D199">
-        <v>1.4464936000000003E-4</v>
+        <v>0.00014464936</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -6935,10 +7569,10 @@
         <v>23</v>
       </c>
       <c r="C200">
-        <v>1.0470280895999999E-3</v>
+        <v>0.0010470280896</v>
       </c>
       <c r="D200">
-        <v>5.7859744000000001E-4</v>
+        <v>0.00057859744</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -6949,10 +7583,10 @@
         <v>7</v>
       </c>
       <c r="C201">
-        <v>1.7318052000000002E-3</v>
+        <v>0.0017318052</v>
       </c>
       <c r="D201">
-        <v>3.1149612000000008E-3</v>
+        <v>0.0031149612</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -6963,10 +7597,10 @@
         <v>10</v>
       </c>
       <c r="C202">
-        <v>2.7708883200000008E-4</v>
+        <v>0.000277088832</v>
       </c>
       <c r="D202">
-        <v>4.1532816000000003E-4</v>
+        <v>0.00041532816</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -6977,10 +7611,10 @@
         <v>13</v>
       </c>
       <c r="C203">
-        <v>1.5239885760000001E-3</v>
+        <v>0.001523988576</v>
       </c>
       <c r="D203">
-        <v>1.3844272000000002E-3</v>
+        <v>0.0013844272</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -6991,10 +7625,10 @@
         <v>16</v>
       </c>
       <c r="C204">
-        <v>9.6981091200000052E-5</v>
+        <v>9.69810912000001e-5</v>
       </c>
       <c r="D204">
-        <v>6.9221360000000019E-5</v>
+        <v>6.922136e-5</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -7005,10 +7639,10 @@
         <v>19</v>
       </c>
       <c r="C205">
-        <v>3.8792436480000004E-4</v>
+        <v>0.0003879243648</v>
       </c>
       <c r="D205">
-        <v>2.7688544000000007E-4</v>
+        <v>0.00027688544</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -7019,10 +7653,10 @@
         <v>21</v>
       </c>
       <c r="C206">
-        <v>2.4937994880000003E-4</v>
+        <v>0.0002493799488</v>
       </c>
       <c r="D206">
-        <v>1.3844272000000004E-4</v>
+        <v>0.00013844272</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -7033,10 +7667,10 @@
         <v>23</v>
       </c>
       <c r="C207">
-        <v>9.9751979519999991E-4</v>
+        <v>0.0009975197952</v>
       </c>
       <c r="D207">
-        <v>5.5377088000000015E-4</v>
+        <v>0.00055377088</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -7047,10 +7681,10 @@
         <v>7</v>
       </c>
       <c r="C208">
-        <v>1.6458533E-3</v>
+        <v>0.0016458533</v>
       </c>
       <c r="D208">
-        <v>2.9753118000000003E-3</v>
+        <v>0.0029753118</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -7061,10 +7695,10 @@
         <v>10</v>
       </c>
       <c r="C209">
-        <v>2.6333652800000003E-4</v>
+        <v>0.000263336528</v>
       </c>
       <c r="D209">
-        <v>3.9670823999999997E-4</v>
+        <v>0.00039670824</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -7075,10 +7709,10 @@
         <v>13</v>
       </c>
       <c r="C210">
-        <v>1.448350904E-3</v>
+        <v>0.001448350904</v>
       </c>
       <c r="D210">
-        <v>1.3223608000000001E-3</v>
+        <v>0.0013223608</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -7089,10 +7723,10 @@
         <v>16</v>
       </c>
       <c r="C211">
-        <v>9.2167784800000052E-5</v>
+        <v>9.21677848000001e-5</v>
       </c>
       <c r="D211">
-        <v>6.6118040000000009E-5</v>
+        <v>6.611804e-5</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -7103,10 +7737,10 @@
         <v>19</v>
       </c>
       <c r="C212">
-        <v>3.6867113920000005E-4</v>
+        <v>0.0003686711392</v>
       </c>
       <c r="D212">
-        <v>2.6447216000000004E-4</v>
+        <v>0.00026447216</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -7117,10 +7751,10 @@
         <v>21</v>
       </c>
       <c r="C213">
-        <v>2.3700287520000003E-4</v>
+        <v>0.0002370028752</v>
       </c>
       <c r="D213">
-        <v>1.3223608000000002E-4</v>
+        <v>0.00013223608</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -7131,10 +7765,10 @@
         <v>23</v>
       </c>
       <c r="C214">
-        <v>9.480115007999999E-4</v>
+        <v>0.0009480115008</v>
       </c>
       <c r="D214">
-        <v>5.2894432000000007E-4</v>
+        <v>0.00052894432</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -7145,10 +7779,10 @@
         <v>7</v>
       </c>
       <c r="C215">
-        <v>1.5599014E-3</v>
+        <v>0.0015599014</v>
       </c>
       <c r="D215">
-        <v>2.8356624000000002E-3</v>
+        <v>0.0028356624</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -7159,10 +7793,10 @@
         <v>10</v>
       </c>
       <c r="C216">
-        <v>2.4958422400000004E-4</v>
+        <v>0.000249584224</v>
       </c>
       <c r="D216">
-        <v>3.7808831999999997E-4</v>
+        <v>0.00037808832</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -7173,10 +7807,10 @@
         <v>13</v>
       </c>
       <c r="C217">
-        <v>1.3727132320000002E-3</v>
+        <v>0.001372713232</v>
       </c>
       <c r="D217">
-        <v>1.2602944E-3</v>
+        <v>0.0012602944</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -7187,10 +7821,10 @@
         <v>16</v>
       </c>
       <c r="C218">
-        <v>8.7354478400000039E-5</v>
+        <v>8.73544784e-5</v>
       </c>
       <c r="D218">
-        <v>6.3014720000000013E-5</v>
+        <v>6.301472e-5</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -7201,10 +7835,10 @@
         <v>19</v>
       </c>
       <c r="C219">
-        <v>3.4941791360000005E-4</v>
+        <v>0.0003494179136</v>
       </c>
       <c r="D219">
-        <v>2.5205888E-4</v>
+        <v>0.00025205888</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -7215,10 +7849,10 @@
         <v>21</v>
       </c>
       <c r="C220">
-        <v>2.2462580160000003E-4</v>
+        <v>0.0002246258016</v>
       </c>
       <c r="D220">
-        <v>1.2602944000000003E-4</v>
+        <v>0.00012602944</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -7229,10 +7863,10 @@
         <v>23</v>
       </c>
       <c r="C221">
-        <v>8.9850320639999989E-4</v>
+        <v>0.0008985032064</v>
       </c>
       <c r="D221">
-        <v>5.0411776E-4</v>
+        <v>0.00050411776</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -7243,10 +7877,10 @@
         <v>7</v>
       </c>
       <c r="C222">
-        <v>1.4739495E-3</v>
+        <v>0.0014739495</v>
       </c>
       <c r="D222">
-        <v>2.6960130000000006E-3</v>
+        <v>0.002696013</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -7257,10 +7891,10 @@
         <v>10</v>
       </c>
       <c r="C223">
-        <v>2.3583192000000005E-4</v>
+        <v>0.00023583192</v>
       </c>
       <c r="D223">
-        <v>3.5946839999999997E-4</v>
+        <v>0.0003594684</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -7271,10 +7905,10 @@
         <v>13</v>
       </c>
       <c r="C224">
-        <v>1.2970755600000001E-3</v>
+        <v>0.00129707556</v>
       </c>
       <c r="D224">
-        <v>1.1982280000000002E-3</v>
+        <v>0.001198228</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -7285,10 +7919,10 @@
         <v>16</v>
       </c>
       <c r="C225">
-        <v>8.2541172000000039E-5</v>
+        <v>8.2541172e-5</v>
       </c>
       <c r="D225">
-        <v>5.9911400000000017E-5</v>
+        <v>5.99114e-5</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -7299,10 +7933,10 @@
         <v>19</v>
       </c>
       <c r="C226">
-        <v>3.3016468800000005E-4</v>
+        <v>0.000330164688</v>
       </c>
       <c r="D226">
-        <v>2.3964560000000002E-4</v>
+        <v>0.0002396456</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -7313,10 +7947,10 @@
         <v>21</v>
       </c>
       <c r="C227">
-        <v>2.12248728E-4</v>
+        <v>0.000212248728</v>
       </c>
       <c r="D227">
-        <v>1.1982280000000003E-4</v>
+        <v>0.0001198228</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -7327,10 +7961,10 @@
         <v>23</v>
       </c>
       <c r="C228">
-        <v>8.4899491199999988E-4</v>
+        <v>0.000848994912</v>
       </c>
       <c r="D228">
-        <v>4.7929120000000003E-4</v>
+        <v>0.0004792912</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -7341,10 +7975,10 @@
         <v>7</v>
       </c>
       <c r="C229">
-        <v>1.4121964E-3</v>
+        <v>0.0014121964</v>
       </c>
       <c r="D229">
-        <v>2.5935505200000005E-3</v>
+        <v>0.00259355052</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -7355,10 +7989,10 @@
         <v>10</v>
       </c>
       <c r="C230">
-        <v>2.2595142400000005E-4</v>
+        <v>0.000225951424</v>
       </c>
       <c r="D230">
-        <v>3.4580673599999998E-4</v>
+        <v>0.000345806736</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -7369,10 +8003,10 @@
         <v>13</v>
       </c>
       <c r="C231">
-        <v>1.2427328320000002E-3</v>
+        <v>0.001242732832</v>
       </c>
       <c r="D231">
-        <v>1.1526891200000001E-3</v>
+        <v>0.00115268912</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -7383,10 +8017,10 @@
         <v>16</v>
       </c>
       <c r="C232">
-        <v>7.9082998400000043E-5</v>
+        <v>7.90829984e-5</v>
       </c>
       <c r="D232">
-        <v>5.7634456000000012E-5</v>
+        <v>5.7634456e-5</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -7397,10 +8031,10 @@
         <v>19</v>
       </c>
       <c r="C233">
-        <v>3.1633199360000006E-4</v>
+        <v>0.0003163319936</v>
       </c>
       <c r="D233">
-        <v>2.3053782400000002E-4</v>
+        <v>0.000230537824</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -7411,10 +8045,10 @@
         <v>21</v>
       </c>
       <c r="C234">
-        <v>2.0335628160000001E-4</v>
+        <v>0.0002033562816</v>
       </c>
       <c r="D234">
-        <v>1.1526891200000002E-4</v>
+        <v>0.000115268912</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -7425,10 +8059,10 @@
         <v>23</v>
       </c>
       <c r="C235">
-        <v>8.1342512639999995E-4</v>
+        <v>0.0008134251264</v>
       </c>
       <c r="D235">
-        <v>4.6107564800000004E-4</v>
+        <v>0.000461075648</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -7439,10 +8073,10 @@
         <v>7</v>
       </c>
       <c r="C236">
-        <v>1.3504432999999999E-3</v>
+        <v>0.0013504433</v>
       </c>
       <c r="D236">
-        <v>2.4910880400000001E-3</v>
+        <v>0.00249108804</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -7453,10 +8087,10 @@
         <v>10</v>
       </c>
       <c r="C237">
-        <v>2.1607092800000002E-4</v>
+        <v>0.000216070928</v>
       </c>
       <c r="D237">
-        <v>3.3214507199999998E-4</v>
+        <v>0.000332145072</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -7467,10 +8101,10 @@
         <v>13</v>
       </c>
       <c r="C238">
-        <v>1.1883901039999999E-3</v>
+        <v>0.001188390104</v>
       </c>
       <c r="D238">
-        <v>1.10715024E-3</v>
+        <v>0.00110715024</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -7481,10 +8115,10 @@
         <v>16</v>
       </c>
       <c r="C239">
-        <v>7.5624824800000034E-5</v>
+        <v>7.56248248e-5</v>
       </c>
       <c r="D239">
-        <v>5.5357512000000006E-5</v>
+        <v>5.5357512e-5</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -7495,10 +8129,10 @@
         <v>19</v>
       </c>
       <c r="C240">
-        <v>3.0249929920000003E-4</v>
+        <v>0.0003024992992</v>
       </c>
       <c r="D240">
-        <v>2.21430048E-4</v>
+        <v>0.000221430048</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -7509,10 +8143,10 @@
         <v>21</v>
       </c>
       <c r="C241">
-        <v>1.9446383520000001E-4</v>
+        <v>0.0001944638352</v>
       </c>
       <c r="D241">
-        <v>1.1071502400000001E-4</v>
+        <v>0.000110715024</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -7523,10 +8157,10 @@
         <v>23</v>
       </c>
       <c r="C242">
-        <v>7.7785534079999991E-4</v>
+        <v>0.0007778553408</v>
       </c>
       <c r="D242">
-        <v>4.4286009599999999E-4</v>
+        <v>0.000442860096</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -7537,10 +8171,10 @@
         <v>7</v>
       </c>
       <c r="C243">
-        <v>1.2886902E-3</v>
+        <v>0.0012886902</v>
       </c>
       <c r="D243">
-        <v>2.3886255600000005E-3</v>
+        <v>0.00238862556</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -7551,10 +8185,10 @@
         <v>10</v>
       </c>
       <c r="C244">
-        <v>2.0619043200000004E-4</v>
+        <v>0.000206190432</v>
       </c>
       <c r="D244">
-        <v>3.1848340799999999E-4</v>
+        <v>0.000318483408</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -7565,10 +8199,10 @@
         <v>13</v>
       </c>
       <c r="C245">
-        <v>1.134047376E-3</v>
+        <v>0.001134047376</v>
       </c>
       <c r="D245">
-        <v>1.0616113600000001E-3</v>
+        <v>0.00106161136</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -7579,10 +8213,10 @@
         <v>16</v>
       </c>
       <c r="C246">
-        <v>7.2166651200000038E-5</v>
+        <v>7.21666512e-5</v>
       </c>
       <c r="D246">
-        <v>5.3080568000000014E-5</v>
+        <v>5.3080568e-5</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -7593,10 +8227,10 @@
         <v>19</v>
       </c>
       <c r="C247">
-        <v>2.8866660480000004E-4</v>
+        <v>0.0002886666048</v>
       </c>
       <c r="D247">
-        <v>2.1232227200000003E-4</v>
+        <v>0.000212322272</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -7607,10 +8241,10 @@
         <v>21</v>
       </c>
       <c r="C248">
-        <v>1.8557138880000002E-4</v>
+        <v>0.0001855713888</v>
       </c>
       <c r="D248">
-        <v>1.0616113600000003E-4</v>
+        <v>0.000106161136</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -7621,10 +8255,10 @@
         <v>23</v>
       </c>
       <c r="C249">
-        <v>7.4228555519999999E-4</v>
+        <v>0.0007422855552</v>
       </c>
       <c r="D249">
-        <v>4.2464454400000006E-4</v>
+        <v>0.000424644544</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -7635,10 +8269,10 @@
         <v>7</v>
       </c>
       <c r="C250">
-        <v>1.2269371E-3</v>
+        <v>0.0012269371</v>
       </c>
       <c r="D250">
-        <v>2.2861630800000005E-3</v>
+        <v>0.00228616308</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -7649,10 +8283,10 @@
         <v>10</v>
       </c>
       <c r="C251">
-        <v>1.9630993600000003E-4</v>
+        <v>0.000196309936</v>
       </c>
       <c r="D251">
-        <v>3.04821744E-4</v>
+        <v>0.000304821744</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -7663,10 +8297,10 @@
         <v>13</v>
       </c>
       <c r="C252">
-        <v>1.0797046480000001E-3</v>
+        <v>0.001079704648</v>
       </c>
       <c r="D252">
-        <v>1.0160724800000001E-3</v>
+        <v>0.00101607248</v>
       </c>
     </row>
     <row r="253" spans="1:4">
@@ -7677,10 +8311,10 @@
         <v>16</v>
       </c>
       <c r="C253">
-        <v>6.8708477600000028E-5</v>
+        <v>6.87084776e-5</v>
       </c>
       <c r="D253">
-        <v>5.0803624000000015E-5</v>
+        <v>5.0803624e-5</v>
       </c>
     </row>
     <row r="254" spans="1:4">
@@ -7691,10 +8325,10 @@
         <v>19</v>
       </c>
       <c r="C254">
-        <v>2.7483391040000001E-4</v>
+        <v>0.0002748339104</v>
       </c>
       <c r="D254">
-        <v>2.0321449600000003E-4</v>
+        <v>0.000203214496</v>
       </c>
     </row>
     <row r="255" spans="1:4">
@@ -7705,10 +8339,10 @@
         <v>21</v>
       </c>
       <c r="C255">
-        <v>1.7667894240000001E-4</v>
+        <v>0.0001766789424</v>
       </c>
       <c r="D255">
-        <v>1.0160724800000003E-4</v>
+        <v>0.000101607248</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -7719,10 +8353,10 @@
         <v>23</v>
       </c>
       <c r="C256">
-        <v>7.0671576959999995E-4</v>
+        <v>0.0007067157696</v>
       </c>
       <c r="D256">
-        <v>4.0642899200000007E-4</v>
+        <v>0.000406428992</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -7733,10 +8367,10 @@
         <v>7</v>
       </c>
       <c r="C257">
-        <v>1.1651840000000001E-3</v>
+        <v>0.001165184</v>
       </c>
       <c r="D257">
-        <v>2.1837006000000004E-3</v>
+        <v>0.0021837006</v>
       </c>
     </row>
     <row r="258" spans="1:4">
@@ -7747,10 +8381,10 @@
         <v>10</v>
       </c>
       <c r="C258">
-        <v>1.8642944000000006E-4</v>
+        <v>0.00018642944</v>
       </c>
       <c r="D258">
-        <v>2.9116007999999995E-4</v>
+        <v>0.00029116008</v>
       </c>
     </row>
     <row r="259" spans="1:4">
@@ -7761,10 +8395,10 @@
         <v>13</v>
       </c>
       <c r="C259">
-        <v>1.02536192E-3</v>
+        <v>0.00102536192</v>
       </c>
       <c r="D259">
-        <v>9.7053359999999997E-4</v>
+        <v>0.0009705336</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -7775,10 +8409,10 @@
         <v>16</v>
       </c>
       <c r="C260">
-        <v>6.5250304000000032E-5</v>
+        <v>6.5250304e-5</v>
       </c>
       <c r="D260">
-        <v>4.852668000000001E-5</v>
+        <v>4.852668e-5</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -7789,10 +8423,10 @@
         <v>19</v>
       </c>
       <c r="C261">
-        <v>2.6100121600000002E-4</v>
+        <v>0.000261001216</v>
       </c>
       <c r="D261">
-        <v>1.9410672000000001E-4</v>
+        <v>0.00019410672</v>
       </c>
     </row>
     <row r="262" spans="1:4">
@@ -7803,10 +8437,10 @@
         <v>21</v>
       </c>
       <c r="C262">
-        <v>1.6778649600000003E-4</v>
+        <v>0.000167786496</v>
       </c>
       <c r="D262">
-        <v>9.7053360000000019E-5</v>
+        <v>9.705336e-5</v>
       </c>
     </row>
     <row r="263" spans="1:4">
@@ -7817,10 +8451,10 @@
         <v>23</v>
       </c>
       <c r="C263">
-        <v>6.7114598400000002E-4</v>
+        <v>0.000671145984</v>
       </c>
       <c r="D263">
-        <v>3.8821344000000002E-4</v>
+        <v>0.00038821344</v>
       </c>
     </row>
     <row r="264" spans="1:4">
@@ -7831,10 +8465,10 @@
         <v>7</v>
       </c>
       <c r="C264">
-        <v>1.1086008E-3</v>
+        <v>0.0011086008</v>
       </c>
       <c r="D264">
-        <v>2.0875361400000004E-3</v>
+        <v>0.00208753614</v>
       </c>
     </row>
     <row r="265" spans="1:4">
@@ -7845,10 +8479,10 @@
         <v>10</v>
       </c>
       <c r="C265">
-        <v>1.7737612800000003E-4</v>
+        <v>0.000177376128</v>
       </c>
       <c r="D265">
-        <v>2.7833815199999998E-4</v>
+        <v>0.000278338152</v>
       </c>
     </row>
     <row r="266" spans="1:4">
@@ -7859,10 +8493,10 @@
         <v>13</v>
       </c>
       <c r="C266">
-        <v>9.7556870400000001E-4</v>
+        <v>0.000975568704</v>
       </c>
       <c r="D266">
-        <v>9.2779384E-4</v>
+        <v>0.00092779384</v>
       </c>
     </row>
     <row r="267" spans="1:4">
@@ -7873,10 +8507,10 @@
         <v>16</v>
       </c>
       <c r="C267">
-        <v>6.2081644800000032E-5</v>
+        <v>6.20816448e-5</v>
       </c>
       <c r="D267">
-        <v>4.6389692000000006E-5</v>
+        <v>4.6389692e-5</v>
       </c>
     </row>
     <row r="268" spans="1:4">
@@ -7887,10 +8521,10 @@
         <v>19</v>
       </c>
       <c r="C268">
-        <v>2.4832657920000002E-4</v>
+        <v>0.0002483265792</v>
       </c>
       <c r="D268">
-        <v>1.85558768E-4</v>
+        <v>0.000185558768</v>
       </c>
     </row>
     <row r="269" spans="1:4">
@@ -7901,10 +8535,10 @@
         <v>21</v>
       </c>
       <c r="C269">
-        <v>1.5963851520000002E-4</v>
+        <v>0.0001596385152</v>
       </c>
       <c r="D269">
-        <v>9.2779384000000011E-5</v>
+        <v>9.2779384e-5</v>
       </c>
     </row>
     <row r="270" spans="1:4">
@@ -7915,10 +8549,10 @@
         <v>23</v>
       </c>
       <c r="C270">
-        <v>6.3855406079999996E-4</v>
+        <v>0.0006385540608</v>
       </c>
       <c r="D270">
-        <v>3.7111753599999999E-4</v>
+        <v>0.000371117536</v>
       </c>
     </row>
     <row r="271" spans="1:4">
@@ -7929,10 +8563,10 @@
         <v>7</v>
       </c>
       <c r="C271">
-        <v>1.0520175999999999E-3</v>
+        <v>0.0010520176</v>
       </c>
       <c r="D271">
-        <v>1.9913716800000003E-3</v>
+        <v>0.00199137168</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -7943,10 +8577,10 @@
         <v>10</v>
       </c>
       <c r="C272">
-        <v>1.6832281600000001E-4</v>
+        <v>0.000168322816</v>
       </c>
       <c r="D272">
-        <v>2.6551622399999996E-4</v>
+        <v>0.000265516224</v>
       </c>
     </row>
     <row r="273" spans="1:4">
@@ -7957,10 +8591,10 @@
         <v>13</v>
       </c>
       <c r="C273">
-        <v>9.2577548799999999E-4</v>
+        <v>0.000925775488</v>
       </c>
       <c r="D273">
-        <v>8.8505408000000003E-4</v>
+        <v>0.00088505408</v>
       </c>
     </row>
     <row r="274" spans="1:4">
@@ -7971,10 +8605,10 @@
         <v>16</v>
       </c>
       <c r="C274">
-        <v>5.8912985600000026E-5</v>
+        <v>5.89129856e-5</v>
       </c>
       <c r="D274">
-        <v>4.4252704000000008E-5</v>
+        <v>4.4252704e-5</v>
       </c>
     </row>
     <row r="275" spans="1:4">
@@ -7985,10 +8619,10 @@
         <v>19</v>
       </c>
       <c r="C275">
-        <v>2.3565194239999999E-4</v>
+        <v>0.0002356519424</v>
       </c>
       <c r="D275">
-        <v>1.7701081600000001E-4</v>
+        <v>0.000177010816</v>
       </c>
     </row>
     <row r="276" spans="1:4">
@@ -7999,10 +8633,10 @@
         <v>21</v>
       </c>
       <c r="C276">
-        <v>1.514905344E-4</v>
+        <v>0.0001514905344</v>
       </c>
       <c r="D276">
-        <v>8.8505408000000017E-5</v>
+        <v>8.8505408e-5</v>
       </c>
     </row>
     <row r="277" spans="1:4">
@@ -8013,10 +8647,10 @@
         <v>23</v>
       </c>
       <c r="C277">
-        <v>6.059621375999999E-4</v>
+        <v>0.0006059621376</v>
       </c>
       <c r="D277">
-        <v>3.5402163200000001E-4</v>
+        <v>0.000354021632</v>
       </c>
     </row>
     <row r="278" spans="1:4">
@@ -8027,10 +8661,10 @@
         <v>7</v>
       </c>
       <c r="C278">
-        <v>9.9543440000000004E-4</v>
+        <v>0.0009954344</v>
       </c>
       <c r="D278">
-        <v>1.8952072200000001E-3</v>
+        <v>0.00189520722</v>
       </c>
     </row>
     <row r="279" spans="1:4">
@@ -8041,10 +8675,10 @@
         <v>10</v>
       </c>
       <c r="C279">
-        <v>1.5926950400000001E-4</v>
+        <v>0.000159269504</v>
       </c>
       <c r="D279">
-        <v>2.5269429599999999E-4</v>
+        <v>0.000252694296</v>
       </c>
     </row>
     <row r="280" spans="1:4">
@@ -8055,10 +8689,10 @@
         <v>13</v>
       </c>
       <c r="C280">
-        <v>8.7598227199999997E-4</v>
+        <v>0.000875982272</v>
       </c>
       <c r="D280">
-        <v>8.4231431999999995E-4</v>
+        <v>0.00084231432</v>
       </c>
     </row>
     <row r="281" spans="1:4">
@@ -8069,10 +8703,10 @@
         <v>16</v>
       </c>
       <c r="C281">
-        <v>5.5744326400000026E-5</v>
+        <v>5.57443264e-5</v>
       </c>
       <c r="D281">
-        <v>4.2115716000000004E-5</v>
+        <v>4.2115716e-5</v>
       </c>
     </row>
     <row r="282" spans="1:4">
@@ -8083,10 +8717,10 @@
         <v>19</v>
       </c>
       <c r="C282">
-        <v>2.2297730560000002E-4</v>
+        <v>0.0002229773056</v>
       </c>
       <c r="D282">
-        <v>1.6846286399999999E-4</v>
+        <v>0.000168462864</v>
       </c>
     </row>
     <row r="283" spans="1:4">
@@ -8097,10 +8731,10 @@
         <v>21</v>
       </c>
       <c r="C283">
-        <v>1.4334255360000001E-4</v>
+        <v>0.0001433425536</v>
       </c>
       <c r="D283">
-        <v>8.4231432000000009E-5</v>
+        <v>8.4231432e-5</v>
       </c>
     </row>
     <row r="284" spans="1:4">
@@ -8111,10 +8745,10 @@
         <v>23</v>
       </c>
       <c r="C284">
-        <v>5.7337021439999995E-4</v>
+        <v>0.0005733702144</v>
       </c>
       <c r="D284">
-        <v>3.3692572799999998E-4</v>
+        <v>0.000336925728</v>
       </c>
     </row>
     <row r="285" spans="1:4">
@@ -8125,10 +8759,10 @@
         <v>7</v>
       </c>
       <c r="C285">
-        <v>9.3885120000000016E-4</v>
+        <v>0.0009388512</v>
       </c>
       <c r="D285">
-        <v>1.7990427600000003E-3</v>
+        <v>0.00179904276</v>
       </c>
     </row>
     <row r="286" spans="1:4">
@@ -8139,10 +8773,10 @@
         <v>10</v>
       </c>
       <c r="C286">
-        <v>1.5021619200000005E-4</v>
+        <v>0.000150216192</v>
       </c>
       <c r="D286">
-        <v>2.3987236799999999E-4</v>
+        <v>0.000239872368</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -8153,10 +8787,10 @@
         <v>13</v>
       </c>
       <c r="C287">
-        <v>8.2618905600000017E-4</v>
+        <v>0.000826189056</v>
       </c>
       <c r="D287">
-        <v>7.9957456000000009E-4</v>
+        <v>0.00079957456</v>
       </c>
     </row>
     <row r="288" spans="1:4">
@@ -8167,10 +8801,10 @@
         <v>16</v>
       </c>
       <c r="C288">
-        <v>5.2575667200000032E-5</v>
+        <v>5.25756672e-5</v>
       </c>
       <c r="D288">
-        <v>3.9978728000000007E-5</v>
+        <v>3.9978728e-5</v>
       </c>
     </row>
     <row r="289" spans="1:4">
@@ -8181,10 +8815,10 @@
         <v>19</v>
       </c>
       <c r="C289">
-        <v>2.1030266880000005E-4</v>
+        <v>0.0002103026688</v>
       </c>
       <c r="D289">
-        <v>1.5991491200000003E-4</v>
+        <v>0.000159914912</v>
       </c>
     </row>
     <row r="290" spans="1:4">
@@ -8195,10 +8829,10 @@
         <v>21</v>
       </c>
       <c r="C290">
-        <v>1.3519457280000002E-4</v>
+        <v>0.0001351945728</v>
       </c>
       <c r="D290">
-        <v>7.9957456000000015E-5</v>
+        <v>7.9957456e-5</v>
       </c>
     </row>
     <row r="291" spans="1:4">
@@ -8209,10 +8843,10 @@
         <v>23</v>
       </c>
       <c r="C291">
-        <v>5.407782912000001E-4</v>
+        <v>0.0005407782912</v>
       </c>
       <c r="D291">
-        <v>3.1982982400000006E-4</v>
+        <v>0.000319829824</v>
       </c>
     </row>
     <row r="292" spans="1:4">
@@ -8223,10 +8857,10 @@
         <v>7</v>
       </c>
       <c r="C292">
-        <v>8.8226800000000007E-4</v>
+        <v>0.000882268</v>
       </c>
       <c r="D292">
-        <v>1.7028783000000002E-3</v>
+        <v>0.0017028783</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -8237,10 +8871,10 @@
         <v>10</v>
       </c>
       <c r="C293">
-        <v>1.4116288000000005E-4</v>
+        <v>0.00014116288</v>
       </c>
       <c r="D293">
-        <v>2.2705043999999999E-4</v>
+        <v>0.00022705044</v>
       </c>
     </row>
     <row r="294" spans="1:4">
@@ -8251,10 +8885,10 @@
         <v>13</v>
       </c>
       <c r="C294">
-        <v>7.7639584000000015E-4</v>
+        <v>0.00077639584</v>
       </c>
       <c r="D294">
-        <v>7.5683480000000001E-4</v>
+        <v>0.0007568348</v>
       </c>
     </row>
     <row r="295" spans="1:4">
@@ -8265,10 +8899,10 @@
         <v>16</v>
       </c>
       <c r="C295">
-        <v>4.9407008000000032E-5</v>
+        <v>4.9407008e-5</v>
       </c>
       <c r="D295">
-        <v>3.784174000000001E-5</v>
+        <v>3.784174e-5</v>
       </c>
     </row>
     <row r="296" spans="1:4">
@@ -8279,10 +8913,10 @@
         <v>19</v>
       </c>
       <c r="C296">
-        <v>1.9762803200000005E-4</v>
+        <v>0.000197628032</v>
       </c>
       <c r="D296">
-        <v>1.5136696000000001E-4</v>
+        <v>0.00015136696</v>
       </c>
     </row>
     <row r="297" spans="1:4">
@@ -8293,10 +8927,10 @@
         <v>21</v>
       </c>
       <c r="C297">
-        <v>1.2704659200000001E-4</v>
+        <v>0.000127046592</v>
       </c>
       <c r="D297">
-        <v>7.568348000000002E-5</v>
+        <v>7.568348e-5</v>
       </c>
     </row>
     <row r="298" spans="1:4">
@@ -8307,10 +8941,10 @@
         <v>23</v>
       </c>
       <c r="C298">
-        <v>5.0818636800000004E-4</v>
+        <v>0.000508186368</v>
       </c>
       <c r="D298">
-        <v>3.0273392000000003E-4</v>
+        <v>0.00030273392</v>
       </c>
     </row>
     <row r="299" spans="1:4">
@@ -8321,10 +8955,10 @@
         <v>7</v>
       </c>
       <c r="C299">
-        <v>8.2905950000000011E-4</v>
+        <v>0.0008290595</v>
       </c>
       <c r="D299">
-        <v>1.6088040000000001E-3</v>
+        <v>0.001608804</v>
       </c>
     </row>
     <row r="300" spans="1:4">
@@ -8335,10 +8969,10 @@
         <v>10</v>
       </c>
       <c r="C300">
-        <v>1.3264952000000005E-4</v>
+        <v>0.00013264952</v>
       </c>
       <c r="D300">
-        <v>2.1450719999999997E-4</v>
+        <v>0.0002145072</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -8349,10 +8983,10 @@
         <v>13</v>
       </c>
       <c r="C301">
-        <v>7.2957236000000013E-4</v>
+        <v>0.00072957236</v>
       </c>
       <c r="D301">
-        <v>7.1502399999999998E-4</v>
+        <v>0.000715024</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -8363,10 +8997,10 @@
         <v>16</v>
       </c>
       <c r="C302">
-        <v>4.6427332000000023E-5</v>
+        <v>4.6427332e-5</v>
       </c>
       <c r="D302">
-        <v>3.5751200000000004E-5</v>
+        <v>3.57512e-5</v>
       </c>
     </row>
     <row r="303" spans="1:4">
@@ -8377,10 +9011,10 @@
         <v>19</v>
       </c>
       <c r="C303">
-        <v>1.8570932800000004E-4</v>
+        <v>0.000185709328</v>
       </c>
       <c r="D303">
-        <v>1.4300480000000002E-4</v>
+        <v>0.0001430048</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -8391,10 +9025,10 @@
         <v>21</v>
       </c>
       <c r="C304">
-        <v>1.1938456800000001E-4</v>
+        <v>0.000119384568</v>
       </c>
       <c r="D304">
-        <v>7.1502400000000008E-5</v>
+        <v>7.15024e-5</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -8405,10 +9039,10 @@
         <v>23</v>
       </c>
       <c r="C305">
-        <v>4.77538272E-4</v>
+        <v>0.000477538272</v>
       </c>
       <c r="D305">
-        <v>2.8600960000000003E-4</v>
+        <v>0.0002860096</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -8419,10 +9053,10 @@
         <v>7</v>
       </c>
       <c r="C306">
-        <v>7.7585100000000004E-4</v>
+        <v>0.000775851</v>
       </c>
       <c r="D306">
-        <v>1.5147297000000001E-3</v>
+        <v>0.0015147297</v>
       </c>
     </row>
     <row r="307" spans="1:4">
@@ -8433,10 +9067,10 @@
         <v>10</v>
       </c>
       <c r="C307">
-        <v>1.2413616000000002E-4</v>
+        <v>0.00012413616</v>
       </c>
       <c r="D307">
-        <v>2.0196395999999998E-4</v>
+        <v>0.00020196396</v>
       </c>
     </row>
     <row r="308" spans="1:4">
@@ -8447,10 +9081,10 @@
         <v>13</v>
       </c>
       <c r="C308">
-        <v>6.8274888000000012E-4</v>
+        <v>0.00068274888</v>
       </c>
       <c r="D308">
-        <v>6.7321319999999994E-4</v>
+        <v>0.0006732132</v>
       </c>
     </row>
     <row r="309" spans="1:4">
@@ -8461,10 +9095,10 @@
         <v>16</v>
       </c>
       <c r="C309">
-        <v>4.3447656000000021E-5</v>
+        <v>4.3447656e-5</v>
       </c>
       <c r="D309">
-        <v>3.3660660000000005E-5</v>
+        <v>3.366066e-5</v>
       </c>
     </row>
     <row r="310" spans="1:4">
@@ -8475,10 +9109,10 @@
         <v>19</v>
       </c>
       <c r="C310">
-        <v>1.7379062400000003E-4</v>
+        <v>0.000173790624</v>
       </c>
       <c r="D310">
-        <v>1.3464263999999999E-4</v>
+        <v>0.00013464264</v>
       </c>
     </row>
     <row r="311" spans="1:4">
@@ -8489,10 +9123,10 @@
         <v>21</v>
       </c>
       <c r="C311">
-        <v>1.1172254400000001E-4</v>
+        <v>0.000111722544</v>
       </c>
       <c r="D311">
-        <v>6.732132000000001E-5</v>
+        <v>6.732132e-5</v>
       </c>
     </row>
     <row r="312" spans="1:4">
@@ -8503,10 +9137,10 @@
         <v>23</v>
       </c>
       <c r="C312">
-        <v>4.4689017599999997E-4</v>
+        <v>0.000446890176</v>
       </c>
       <c r="D312">
-        <v>2.6928527999999999E-4</v>
+        <v>0.00026928528</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -8517,10 +9151,10 @@
         <v>7</v>
       </c>
       <c r="C313">
-        <v>7.2264250000000007E-4</v>
+        <v>0.0007226425</v>
       </c>
       <c r="D313">
-        <v>1.4206554E-3</v>
+        <v>0.0014206554</v>
       </c>
     </row>
     <row r="314" spans="1:4">
@@ -8531,10 +9165,10 @@
         <v>10</v>
       </c>
       <c r="C314">
-        <v>1.1562280000000003E-4</v>
+        <v>0.0001156228</v>
       </c>
       <c r="D314">
-        <v>1.8942071999999995E-4</v>
+        <v>0.00018942072</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -8545,10 +9179,10 @@
         <v>13</v>
       </c>
       <c r="C315">
-        <v>6.359254000000001E-4</v>
+        <v>0.0006359254</v>
       </c>
       <c r="D315">
-        <v>6.314023999999999E-4</v>
+        <v>0.0006314024</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -8559,10 +9193,10 @@
         <v>16</v>
       </c>
       <c r="C316">
-        <v>4.0467980000000018E-5</v>
+        <v>4.046798e-5</v>
       </c>
       <c r="D316">
-        <v>3.1570119999999999E-5</v>
+        <v>3.157012e-5</v>
       </c>
     </row>
     <row r="317" spans="1:4">
@@ -8573,10 +9207,10 @@
         <v>19</v>
       </c>
       <c r="C317">
-        <v>1.6187192000000002E-4</v>
+        <v>0.00016187192</v>
       </c>
       <c r="D317">
-        <v>1.2628048E-4</v>
+        <v>0.00012628048</v>
       </c>
     </row>
     <row r="318" spans="1:4">
@@ -8587,10 +9221,10 @@
         <v>21</v>
       </c>
       <c r="C318">
-        <v>1.0406052000000001E-4</v>
+        <v>0.00010406052</v>
       </c>
       <c r="D318">
-        <v>6.3140239999999998E-5</v>
+        <v>6.314024e-5</v>
       </c>
     </row>
     <row r="319" spans="1:4">
@@ -8601,26 +9235,30 @@
         <v>23</v>
       </c>
       <c r="C319">
-        <v>4.1624208E-4</v>
+        <v>0.00041624208</v>
       </c>
       <c r="D319">
-        <v>2.5256095999999999E-4</v>
+        <v>0.00025256096</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="2:3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8633,10 +9271,10 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>2.7770492352935996</v>
+        <v>2.7770492352936</v>
       </c>
       <c r="C2">
-        <v>2.595996910619724</v>
+        <v>2.59599691061972</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -8644,10 +9282,10 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2.7031458728268007</v>
+        <v>2.7031458728268</v>
       </c>
       <c r="C3">
-        <v>2.5290665297403003</v>
+        <v>2.5290665297403</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -8658,7 +9296,7 @@
         <v>2.62788097023624</v>
       </c>
       <c r="C4">
-        <v>2.4601561571402883</v>
+        <v>2.46015615714029</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -8666,10 +9304,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.5526160676456802</v>
+        <v>2.55261606764568</v>
       </c>
       <c r="C5">
-        <v>2.3912457845402764</v>
+        <v>2.39124578454028</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -8677,10 +9315,10 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>2.4773511650551203</v>
+        <v>2.47735116505512</v>
       </c>
       <c r="C6">
-        <v>2.3223354119402639</v>
+        <v>2.32233541194026</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -8688,10 +9326,10 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>2.4020862624645605</v>
+        <v>2.40208626246456</v>
       </c>
       <c r="C7">
-        <v>2.253425039340252</v>
+        <v>2.25342503934025</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -8702,7 +9340,7 @@
         <v>1.3258305453987</v>
       </c>
       <c r="C8">
-        <v>1.2360984361266401</v>
+        <v>1.23609843612664</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -8710,10 +9348,10 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>1.2853711455443642</v>
+        <v>1.28537114554436</v>
       </c>
       <c r="C9">
-        <v>1.1994182902300961</v>
+        <v>1.1994182902301</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -8721,10 +9359,10 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>1.2449117456900283</v>
+        <v>1.24491174569003</v>
       </c>
       <c r="C10">
-        <v>1.162738144333552</v>
+        <v>1.16273814433355</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8732,10 +9370,10 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.91075214723647191</v>
+        <v>0.910752147236472</v>
       </c>
       <c r="C11">
-        <v>0.80951580496113607</v>
+        <v>0.809515804961136</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8743,7 +9381,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.88015858708389594</v>
+        <v>0.880158587083896</v>
       </c>
       <c r="C12">
         <v>0.783146685543888</v>
@@ -8754,10 +9392,10 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.84956502693131997</v>
+        <v>0.84956502693132</v>
       </c>
       <c r="C13">
-        <v>0.75677756612664004</v>
+        <v>0.75677756612664</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -8765,10 +9403,10 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.30114679280000006</v>
+        <v>0.3011467928</v>
       </c>
       <c r="C14">
-        <v>0.20981396195999999</v>
+        <v>0.20981396196</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -8776,10 +9414,10 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.29005206160000002</v>
+        <v>0.2900520616</v>
       </c>
       <c r="C15">
-        <v>0.20229685111999995</v>
+        <v>0.20229685112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -8787,7 +9425,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.27895733040000004</v>
+        <v>0.2789573304</v>
       </c>
       <c r="C16">
         <v>0.19477974028</v>
@@ -8798,10 +9436,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.26786259920000005</v>
+        <v>0.2678625992</v>
       </c>
       <c r="C17">
-        <v>0.18726262944000002</v>
+        <v>0.18726262944</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -8809,26 +9447,30 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.25676786800000001</v>
+        <v>0.256767868</v>
       </c>
       <c r="C18">
-        <v>0.17974551860000001</v>
+        <v>0.1797455186</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="4:5">
       <c r="D1" t="s">
         <v>108</v>
       </c>
@@ -8940,5 +9582,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>